--- a/data.xlsx
+++ b/data.xlsx
@@ -43,7 +43,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Allegiance Specialty Hospital Of Kilgore</t>
@@ -58,7 +58,7 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Angleton-Danbury Medical Center</t>
@@ -70,7 +70,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Anson General Hospital</t>
@@ -85,7 +85,7 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Arise Austin Medical Center</t>
@@ -97,7 +97,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Baptist Beaumont Hospital</t>
@@ -112,7 +112,7 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Baptist Emergency Hospital</t>
@@ -127,7 +127,7 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Baptist Medical Center</t>
@@ -139,7 +139,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Baptist St Anthony's Hospital</t>
@@ -151,7 +151,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Basin Healthcare Center, Llc</t>
@@ -166,7 +166,7 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Baylor All Saints Medical Center At Fw</t>
@@ -178,7 +178,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>Y</t>
+    <t>Yes</t>
   </si>
   <si>
     <t>Baylor Emergency Medical Center</t>
@@ -193,7 +193,7 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Baylor Heart And Vascular Hospital</t>
@@ -205,7 +205,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Baylor Medical Center At Carrollton</t>
@@ -217,7 +217,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>Y</t>
+    <t>Yes</t>
   </si>
   <si>
     <t>Baylor Medical Center At Frisco</t>
@@ -229,7 +229,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>Y</t>
+    <t>Yes</t>
   </si>
   <si>
     <t>Baylor Medical Center At Garland</t>
@@ -241,7 +241,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Baylor Medical Center At Irving</t>
@@ -253,7 +253,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Baylor Medical Center At Mckinney</t>
@@ -265,7 +265,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>Y</t>
+    <t>Yes</t>
   </si>
   <si>
     <t>Baylor Medical Center At Trophy Club</t>
@@ -277,7 +277,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Baylor Medical Center At Uptown</t>
@@ -289,7 +289,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Baylor Medical Center At Waxahachie</t>
@@ -301,7 +301,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>Y</t>
+    <t>Yes</t>
   </si>
   <si>
     <t>Baylor Orthopedic And Spine Hospital At Arlington</t>
@@ -313,7 +313,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Baylor Regional Medical Center At Grapevine</t>
@@ -325,7 +325,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>Y</t>
+    <t>Yes</t>
   </si>
   <si>
     <t>Baylor Regional Medical Center At Plano</t>
@@ -337,7 +337,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Baylor Scott &amp; White Emergency Medical Center At C</t>
@@ -364,7 +364,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Baylor Surgical Hospital At Las Colinas</t>
@@ -376,7 +376,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Baylor University Medical Center</t>
@@ -388,7 +388,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>Y</t>
+    <t>Yes</t>
   </si>
   <si>
     <t>Bayshore Medical Center</t>
@@ -400,7 +400,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Bellville General Hospital</t>
@@ -415,7 +415,7 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Bowie Memorial Hospital</t>
@@ -427,7 +427,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Brazosport Regional Health System</t>
@@ -439,7 +439,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Brownfield Regional Medical Center</t>
@@ -451,7 +451,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Brownwood Regional Medical Center</t>
@@ -463,7 +463,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Care Regional Medical Center</t>
@@ -475,7 +475,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Cedar Park Regional Medical Center</t>
@@ -487,7 +487,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Centennial Medical Center</t>
@@ -499,7 +499,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Central Texas Medical Center</t>
@@ -511,7 +511,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Childress Regional Medical Center</t>
@@ -523,7 +523,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Christus Hospital</t>
@@ -535,7 +535,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Christus Jasper Memorial Hospital</t>
@@ -547,7 +547,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Christus Santa Rosa Hospital</t>
@@ -559,7 +559,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Christus Spohn Hospital Alice</t>
@@ -571,7 +571,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Christus Spohn Hospital Beeville</t>
@@ -583,7 +583,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Christus Spohn Hospital Corpus Christi</t>
@@ -595,7 +595,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Christus Spohn Hospital Kleberg</t>
@@ -607,7 +607,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Christus St Catherine Hospital</t>
@@ -622,7 +622,7 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Christus St Michael Health System</t>
@@ -634,7 +634,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Citizens Medical Center</t>
@@ -646,7 +646,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Clear Lake Regional Medical Center</t>
@@ -658,7 +658,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Cleveland Regional Medical Ctr</t>
@@ -673,7 +673,7 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Y</t>
+    <t>Yes</t>
   </si>
   <si>
     <t>Cogdell Memorial Hospital</t>
@@ -688,7 +688,7 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>College Station Medical Center</t>
@@ -700,7 +700,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>Y</t>
+    <t>Yes</t>
   </si>
   <si>
     <t>Columbus Community Hospital</t>
@@ -712,7 +712,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Connally Memorial Medical Center</t>
@@ -724,7 +724,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Conroe Regional Medical Center</t>
@@ -736,7 +736,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Cook Childrens Northeast Hospital, Llc</t>
@@ -766,7 +766,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Corpus Christi Medical Center,The</t>
@@ -778,7 +778,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Covenant Hospital Levelland</t>
@@ -790,7 +790,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>Y</t>
+    <t>Yes</t>
   </si>
   <si>
     <t>Covenant Hospital Plainview</t>
@@ -802,7 +802,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Covenant Medical Center</t>
@@ -814,7 +814,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Crescent Medical Center Lancaster</t>
@@ -844,7 +844,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Cypress Fairbanks Medical Center</t>
@@ -856,7 +856,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>Y</t>
+    <t>Yes</t>
   </si>
   <si>
     <t>Dallas Medical Center</t>
@@ -868,7 +868,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Dallas Regional Medical Center</t>
@@ -880,7 +880,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Denton Regional Medical Center</t>
@@ -892,7 +892,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Detar Hospital Navarro</t>
@@ -904,7 +904,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Dimmit Regional Hospital</t>
@@ -916,7 +916,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Doctors Diagnostic Hospital</t>
@@ -931,7 +931,7 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Doctors Hospital</t>
@@ -943,7 +943,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Doctors Hospital At Renaissance</t>
@@ -955,7 +955,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Doctors Hospital Of Laredo</t>
@@ -967,7 +967,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Doctors Hospital Tidwell</t>
@@ -982,7 +982,7 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>East Texas Medical Center</t>
@@ -994,7 +994,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>East Texas Medical Center - Fairfield</t>
@@ -1009,7 +1009,7 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>East Texas Medical Center - Gilmer</t>
@@ -1021,7 +1021,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>East Texas Medical Center Athens</t>
@@ -1033,7 +1033,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>East Texas Medical Center Crockett</t>
@@ -1045,7 +1045,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>East Texas Medical Center Jacksonville</t>
@@ -1060,7 +1060,7 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Y</t>
+    <t>Yes</t>
   </si>
   <si>
     <t>East Texas Medical Center Mount Vernon</t>
@@ -1072,7 +1072,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>East Texas Medical Center Trinity</t>
@@ -1084,7 +1084,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Eastland Memorial Hospital</t>
@@ -1096,7 +1096,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>El Campo Memorial Hospital</t>
@@ -1111,7 +1111,7 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>El Paso Specialty Hospital</t>
@@ -1123,7 +1123,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>Y</t>
+    <t>Yes</t>
   </si>
   <si>
     <t>Emerus Hospital</t>
@@ -1138,7 +1138,7 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Ennis Regional Medical Center</t>
@@ -1150,7 +1150,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Etmc Carthage</t>
@@ -1162,7 +1162,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Etmc Clarksville</t>
@@ -1174,7 +1174,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Etmc Henderson</t>
@@ -1186,7 +1186,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Faith Community Hospital</t>
@@ -1201,7 +1201,7 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Falls Community Hospital And Clinic</t>
@@ -1213,7 +1213,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>First Surgical Hospital</t>
@@ -1225,7 +1225,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Fort Duncan Medical Center</t>
@@ -1237,7 +1237,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Foundation Surgical Hospital Of El Paso</t>
@@ -1249,7 +1249,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Foundation Surgical Hospital Of San Antonio</t>
@@ -1261,7 +1261,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Frio Regional Hospital</t>
@@ -1276,7 +1276,7 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Glen Rose Medical Center</t>
@@ -1288,7 +1288,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Good Shepherd Medical Center</t>
@@ -1300,7 +1300,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Good Shepherd Medical Center Marshall</t>
@@ -1312,7 +1312,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Goodall Witcher Hospital</t>
@@ -1327,7 +1327,7 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Y</t>
+    <t>Yes</t>
   </si>
   <si>
     <t>Grace Medical Center</t>
@@ -1339,7 +1339,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Graham Regional Medical Center</t>
@@ -1351,7 +1351,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Guadalupe Regional Medical Center</t>
@@ -1363,7 +1363,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Gulf Coast Medical Center</t>
@@ -1375,7 +1375,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>Y</t>
+    <t>Yes</t>
   </si>
   <si>
     <t>Hamilton General Hospital</t>
@@ -1387,7 +1387,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Hamlin Memorial Hospital</t>
@@ -1402,7 +1402,7 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Harlingen Medical Center</t>
@@ -1414,7 +1414,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Harris Health System</t>
@@ -1426,7 +1426,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Hemphill County Hospital</t>
@@ -1441,7 +1441,7 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Hendrick Medical Center</t>
@@ -1453,7 +1453,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Hereford Regional Medical Center</t>
@@ -1465,7 +1465,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Heritage Park Surgical Hospital</t>
@@ -1477,7 +1477,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Hill Country Memorial Hospital Inc</t>
@@ -1489,7 +1489,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Hill Regional Hospital</t>
@@ -1501,7 +1501,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>Y</t>
+    <t>Yes</t>
   </si>
   <si>
     <t>Hillcrest Baptist Medical Center</t>
@@ -1513,7 +1513,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Hopkins County Memorial Hospital</t>
@@ -1525,7 +1525,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Houston Hospital For Specialized Surgery</t>
@@ -1540,7 +1540,7 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Houston Methodist St John Hospital</t>
@@ -1552,7 +1552,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Houston Northwest Medical Center</t>
@@ -1564,7 +1564,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Houston Orthopedic And Spine Hospital</t>
@@ -1576,7 +1576,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Houston Physicians' Hospital</t>
@@ -1588,7 +1588,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Huguley Memorial Medical Center</t>
@@ -1600,7 +1600,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Hunt Regional Medical Center</t>
@@ -1612,7 +1612,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Huntsville Memorial Hospital</t>
@@ -1624,7 +1624,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Jps Health Network</t>
@@ -1636,7 +1636,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>Y</t>
+    <t>Yes</t>
   </si>
   <si>
     <t>Kell West Regional Hospital</t>
@@ -1648,7 +1648,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Kingwood Medical Center</t>
@@ -1660,7 +1660,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>Y</t>
+    <t>Yes</t>
   </si>
   <si>
     <t>Knapp Medical Center</t>
@@ -1672,7 +1672,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Knox County Hospital</t>
@@ -1687,7 +1687,7 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Lake Granbury Medical Center</t>
@@ -1699,7 +1699,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Lake Pointe Medical Center</t>
@@ -1711,7 +1711,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Lakeway Regional Medical Center, Llc</t>
@@ -1723,7 +1723,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Lamb Healthcare Center</t>
@@ -1738,7 +1738,7 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Laredo Medical Center</t>
@@ -1750,7 +1750,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Las Colinas Medical Center</t>
@@ -1762,7 +1762,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Las Palmas Medical Center</t>
@@ -1774,7 +1774,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Longview Regional Medical Center</t>
@@ -1786,7 +1786,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Lubbock Heart Hospital Lp</t>
@@ -1798,7 +1798,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Matagorda Regional Medical Center</t>
@@ -1810,7 +1810,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Mayhill Hospital</t>
@@ -1843,7 +1843,7 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Medical Center Hospital</t>
@@ -1855,7 +1855,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Medical Center Of Arlington</t>
@@ -1867,7 +1867,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>Y</t>
+    <t>Yes</t>
   </si>
   <si>
     <t>Medical Center Of Lewisville</t>
@@ -1879,7 +1879,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Medical Center Of Mckinney</t>
@@ -1891,7 +1891,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Medical Center Of Plano</t>
@@ -1903,7 +1903,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>Y</t>
+    <t>Yes</t>
   </si>
   <si>
     <t>Medical City Dallas Hospital</t>
@@ -1915,7 +1915,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>Y</t>
+    <t>Yes</t>
   </si>
   <si>
     <t>Memorial Hermann Baptist Orange Hospital</t>
@@ -1927,7 +1927,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Memorial Hermann Hospital System</t>
@@ -1939,7 +1939,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Memorial Hermann Katy Hospital</t>
@@ -1951,7 +1951,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Memorial Hermann Memorial City Medical Center</t>
@@ -1963,7 +1963,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Memorial Hermann Northeast</t>
@@ -1975,7 +1975,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Memorial Hermann Sugar Land Hospital</t>
@@ -1987,7 +1987,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Memorial Hermann Surgical Hospital Kingwood</t>
@@ -2002,7 +2002,7 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Memorial Hermann Texas Medical Center</t>
@@ -2014,7 +2014,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Memorial Hospital</t>
@@ -2026,7 +2026,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Memorial Hospital</t>
@@ -2038,7 +2038,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Memorial Medical Center Livingston</t>
@@ -2050,7 +2050,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Memorial Medical Center Of East Texas</t>
@@ -2062,7 +2062,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Methodist Ambulatory Surgery Hospital Nw</t>
@@ -2074,7 +2074,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Methodist Charlton Medical Center</t>
@@ -2086,7 +2086,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Methodist Dallas Medical Center</t>
@@ -2098,7 +2098,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Methodist Hospital</t>
@@ -2110,7 +2110,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Methodist Hospital For Surgery</t>
@@ -2122,7 +2122,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Methodist Hospital,The</t>
@@ -2134,7 +2134,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Methodist Mansfield Medical Center</t>
@@ -2146,7 +2146,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Methodist Mckinney Hospital</t>
@@ -2158,7 +2158,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Methodist Richardson Medical Center</t>
@@ -2170,7 +2170,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Methodist Stone Oak Hospital</t>
@@ -2182,7 +2182,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Methodist Sugar Land Hospital</t>
@@ -2194,7 +2194,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Methodist West Houston Hospital</t>
@@ -2206,7 +2206,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Methodist Willowbrook Hospital</t>
@@ -2218,7 +2218,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Metroplex Hospital</t>
@@ -2230,7 +2230,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Midland Memorial Hospital</t>
@@ -2242,7 +2242,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Mission Regional Medical Center</t>
@@ -2254,7 +2254,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Moore County Hospital District</t>
@@ -2266,7 +2266,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Mother Frances Hospital</t>
@@ -2278,7 +2278,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Nacogdoches Medical Center</t>
@@ -2290,7 +2290,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Navarro Regional Hospital</t>
@@ -2302,7 +2302,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Nix Community General Hospital</t>
@@ -2329,7 +2329,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>Y</t>
+    <t>Yes</t>
   </si>
   <si>
     <t>Nocona General Hospital</t>
@@ -2341,7 +2341,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>North Austin Medical Center</t>
@@ -2353,7 +2353,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>North Central Surgical Center Llp</t>
@@ -2365,7 +2365,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>North Cypress Medical Center</t>
@@ -2377,7 +2377,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>North Hills Hospital</t>
@@ -2389,7 +2389,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>Y</t>
+    <t>Yes</t>
   </si>
   <si>
     <t>North Texas Medical Center</t>
@@ -2401,7 +2401,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Northwest Hills Surgical Hospital</t>
@@ -2413,7 +2413,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Northwest Texas Hospital</t>
@@ -2425,7 +2425,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Northwest Texas Surgery Center</t>
@@ -2437,7 +2437,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Oakbend Medical Center</t>
@@ -2449,7 +2449,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Odessa Regional Hospital</t>
@@ -2461,7 +2461,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>Y</t>
+    <t>Yes</t>
   </si>
   <si>
     <t>Palestine Regional Medical Center</t>
@@ -2473,7 +2473,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Palo Pinto General Hospital</t>
@@ -2485,7 +2485,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Pampa Regional Medical Center</t>
@@ -2497,7 +2497,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Paris Regional Medical Center</t>
@@ -2509,7 +2509,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Park Plaza Hospital</t>
@@ -2521,7 +2521,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Parkland Health And Hospital System</t>
@@ -2533,7 +2533,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>Y</t>
+    <t>Yes</t>
   </si>
   <si>
     <t>Parkview Regional Hospital</t>
@@ -2545,7 +2545,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Pecos County Memorial Hospital</t>
@@ -2557,7 +2557,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Permian Regional Medical Center Andrews County Ho</t>
@@ -2569,7 +2569,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>Y</t>
+    <t>Yes</t>
   </si>
   <si>
     <t>Peterson Regional Medical Center</t>
@@ -2581,7 +2581,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Physicians Centre,The</t>
@@ -2593,7 +2593,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Pine Creek Medical Center Llp</t>
@@ -2608,7 +2608,7 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Plaza Medical Center Of Fort Worth</t>
@@ -2620,7 +2620,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Providence Health Center</t>
@@ -2632,7 +2632,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Providence Memorial Hospital</t>
@@ -2644,7 +2644,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Quail Creek Surgical Hospital</t>
@@ -2656,7 +2656,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Rio Grande Regional Hospital</t>
@@ -2668,7 +2668,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>Y</t>
+    <t>Yes</t>
   </si>
   <si>
     <t>Rolling Plains Memorial Hospital</t>
@@ -2680,7 +2680,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Round Rock Medical Center</t>
@@ -2692,7 +2692,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>San Angelo Community Medical Center</t>
@@ -2704,7 +2704,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>San Jacinto Methodist Hospital</t>
@@ -2716,7 +2716,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Scenic Mountain Medical Center</t>
@@ -2728,7 +2728,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Scott &amp; White Hospital Brenham</t>
@@ -2740,7 +2740,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Scott &amp; White Hospital- College Station</t>
@@ -2767,7 +2767,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Scott &amp; White Hospital-Round Rock</t>
@@ -2779,7 +2779,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Scott &amp; White Memorial Hospital</t>
@@ -2791,7 +2791,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>Y</t>
+    <t>Yes</t>
   </si>
   <si>
     <t>Seton Medical Center Austin</t>
@@ -2803,7 +2803,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>Y</t>
+    <t>Yes</t>
   </si>
   <si>
     <t>Seton Medical Center Harker Heights</t>
@@ -2815,7 +2815,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Seton Medical Center Hays</t>
@@ -2827,7 +2827,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Seton Medical Center Williamson</t>
@@ -2839,7 +2839,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Seton Northwest Hospital</t>
@@ -2851,7 +2851,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Seton Smithville Regional Hospital</t>
@@ -2866,7 +2866,7 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Seton Southwest Hospital</t>
@@ -2878,7 +2878,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Seymour Hospital</t>
@@ -2890,7 +2890,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Shannon Medical Center</t>
@@ -2902,7 +2902,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Sierra Medical Center</t>
@@ -2914,7 +2914,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Sierra Providence East Medical Center</t>
@@ -2926,7 +2926,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>South Texas Health System</t>
@@ -2938,7 +2938,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>South Texas Regional Medical Center</t>
@@ -2950,7 +2950,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>South Texas Spine And Surgical Hospital</t>
@@ -2962,7 +2962,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>South Texas Surgical Hospital</t>
@@ -2974,7 +2974,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Southwest General Hospital</t>
@@ -2986,7 +2986,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>St Anthony's Hospital</t>
@@ -3001,7 +3001,7 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>St David's Medical Center</t>
@@ -3013,7 +3013,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>St David's South Austin Medical Center</t>
@@ -3025,7 +3025,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>Y</t>
+    <t>Yes</t>
   </si>
   <si>
     <t>St Joseph Medical Center</t>
@@ -3037,7 +3037,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>St Joseph Regional Health Center</t>
@@ -3049,7 +3049,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>St Lukes Episcopal Hospital</t>
@@ -3061,7 +3061,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>St Luke's Hospital At The Vintage</t>
@@ -3073,7 +3073,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>St Lukes Lakeside Hospital</t>
@@ -3085,7 +3085,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>Y</t>
+    <t>Yes</t>
   </si>
   <si>
     <t>St Luke's Patients Medical Center</t>
@@ -3097,7 +3097,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>St Luke's Sugar Land Hospital</t>
@@ -3109,7 +3109,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>St Luke's The Woodlands Hospital</t>
@@ -3121,7 +3121,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>St Marks Medical Center</t>
@@ -3133,7 +3133,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>Y</t>
+    <t>Yes</t>
   </si>
   <si>
     <t>Stamford Memorial Hospital</t>
@@ -3148,7 +3148,7 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Starr County Memorial Hospital</t>
@@ -3160,7 +3160,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Stephens Memorial Hospital</t>
@@ -3172,7 +3172,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Sugar Land Surgical Hospital Llp</t>
@@ -3184,7 +3184,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Surgery Specialty Hospitals Of America Se Houston</t>
@@ -3199,7 +3199,7 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Texas General Hospital</t>
@@ -3214,7 +3214,7 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Texas Health Arlington Memorial Hospital</t>
@@ -3226,7 +3226,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Texas Health Center For Diagnostics &amp; Surgery Plan</t>
@@ -3238,7 +3238,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>Y</t>
+    <t>Yes</t>
   </si>
   <si>
     <t>Texas Health Harris Methodist Fort Worth</t>
@@ -3250,7 +3250,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Texas Health Harris Methodist Hospital Alliance</t>
@@ -3262,7 +3262,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>Y</t>
+    <t>Yes</t>
   </si>
   <si>
     <t>Texas Health Harris Methodist Hospital Azle</t>
@@ -3274,7 +3274,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Texas Health Harris Methodist Hospital Cleburne</t>
@@ -3286,7 +3286,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Texas Health Harris Methodist Hospital Southlake</t>
@@ -3298,7 +3298,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Texas Health Harris Methodist Hospital Southwest F</t>
@@ -3310,7 +3310,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Texas Health Harris Methodist Hospital Stephenvill</t>
@@ -3322,7 +3322,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Texas Health Harris Methodist Hurst-Euless-Bedford</t>
@@ -3334,7 +3334,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Texas Health Heart &amp; Vascular Hospital Arlington</t>
@@ -3346,7 +3346,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Texas Health Presbyterian Hospital Allen</t>
@@ -3358,7 +3358,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Texas Health Presbyterian Hospital Dallas</t>
@@ -3370,7 +3370,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>Y</t>
+    <t>Yes</t>
   </si>
   <si>
     <t>Texas Health Presbyterian Hospital Denton</t>
@@ -3382,7 +3382,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Texas Health Presbyterian Hospital Flower Mound</t>
@@ -3394,7 +3394,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Texas Health Presbyterian Hospital Kaufman</t>
@@ -3406,7 +3406,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>Y</t>
+    <t>Yes</t>
   </si>
   <si>
     <t>Texas Health Presbyterian Hospital Plano</t>
@@ -3418,7 +3418,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Texas Health Presbyterian Hospital Rockwall</t>
@@ -3430,7 +3430,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Texas Health Presbyterian Hospital-Wnj</t>
@@ -3442,7 +3442,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Texas Institute For Surgery At Presbyterian Hospit</t>
@@ -3454,7 +3454,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Texas Orthopedic Hospital</t>
@@ -3466,7 +3466,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Texas Regional Medical Center At Sunnyvale</t>
@@ -3478,7 +3478,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Texas Spine And Joint Hospital</t>
@@ -3490,7 +3490,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Texoma Medical Center</t>
@@ -3502,7 +3502,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>The Heart Hospital Baylor Denton</t>
@@ -3517,7 +3517,7 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>The Heart Hospital Baylor Plano</t>
@@ -3529,7 +3529,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>Y</t>
+    <t>Yes</t>
   </si>
   <si>
     <t>The Hospital At Westlake Medical Center</t>
@@ -3541,7 +3541,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>The Medical Center Of Southeast Texas</t>
@@ -3553,7 +3553,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Titus Regional Medical Center</t>
@@ -3565,7 +3565,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Tomball Regional Medical Center</t>
@@ -3577,7 +3577,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Tops Surgical Specialty Hospital</t>
@@ -3589,7 +3589,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Trustpoint Hospital</t>
@@ -3604,7 +3604,7 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Tyler County Hospital</t>
@@ -3616,7 +3616,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>United Regional Health Care System</t>
@@ -3628,7 +3628,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>University General Hospital</t>
@@ -3640,7 +3640,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>University General Hospital Dallas</t>
@@ -3655,7 +3655,7 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>University Health System</t>
@@ -3667,7 +3667,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>Y</t>
+    <t>Yes</t>
   </si>
   <si>
     <t>University Medical Center</t>
@@ -3679,7 +3679,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>University Medical Center At Brackenridge</t>
@@ -3691,7 +3691,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>Y</t>
+    <t>Yes</t>
   </si>
   <si>
     <t>University Medical Center Of El Paso</t>
@@ -3703,7 +3703,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>Y</t>
+    <t>Yes</t>
   </si>
   <si>
     <t>University Of Texas Health Science Center At Tyler</t>
@@ -3715,7 +3715,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>University Of Texas Medical Branch Gal</t>
@@ -3727,7 +3727,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>Y</t>
+    <t>Yes</t>
   </si>
   <si>
     <t>Usmd Hospital At Arlington L P</t>
@@ -3739,7 +3739,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Usmd Hospital At Fort Worth Lp</t>
@@ -3751,7 +3751,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Ut Southwestern University Hospital</t>
@@ -3763,7 +3763,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>Y</t>
+    <t>Yes</t>
   </si>
   <si>
     <t>Ut Southwestern University Hospital-Zale Lipshy</t>
@@ -3775,7 +3775,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Uvalde Memorial Hospital</t>
@@ -3787,7 +3787,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Val Verde Regional Medical Center</t>
@@ -3799,7 +3799,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Valley Regional Medical Center</t>
@@ -3811,7 +3811,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Vhs Brownsville Hospital Company, Llc</t>
@@ -3823,7 +3823,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Vhs Harlingen Hospital Company Llc</t>
@@ -3835,7 +3835,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Wadley Regional Medical Center</t>
@@ -3847,7 +3847,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Weatherford Regional Medical Center</t>
@@ -3859,7 +3859,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>West Houston Medical Center</t>
@@ -3871,7 +3871,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Wilbarger General Hospital</t>
@@ -3883,7 +3883,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Wise Regional Health System</t>
@@ -3895,7 +3895,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Womans Hospital Of Texas,The</t>
@@ -3907,7 +3907,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
   <si>
     <t>Woodland Heights Medical Center</t>
@@ -3919,7 +3919,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>N</t>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -3979,11 +3979,11 @@
     <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="10" borderId="1" applyFont="1" fontId="2" applyNumberFormat="1">
       <alignment/>
     </xf>
-    <xf fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="2"/>
     <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="2">
       <alignment/>
     </xf>
     <xf fillId="0" xfId="0" numFmtId="10" borderId="1" applyFont="1" fontId="2" applyNumberFormat="1"/>
+    <xf fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="2"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -4653,7 +4653,7 @@
       <c s="5" r="F26">
         <v>0.0</v>
       </c>
-      <c t="s" s="7" r="G26">
+      <c t="s" s="6" r="G26">
         <v>113</v>
       </c>
       <c s="4" r="L26"/>
@@ -5453,7 +5453,7 @@
       <c t="s" s="4" r="F58">
         <v>246</v>
       </c>
-      <c t="s" s="7" r="G58">
+      <c t="s" s="6" r="G58">
         <v>247</v>
       </c>
       <c s="4" r="L58"/>
@@ -5603,7 +5603,7 @@
       <c t="s" s="4" r="F64">
         <v>272</v>
       </c>
-      <c t="s" s="7" r="G64">
+      <c t="s" s="6" r="G64">
         <v>273</v>
       </c>
       <c s="4" r="L64"/>
@@ -7578,7 +7578,7 @@
       <c t="s" s="4" r="F143">
         <v>604</v>
       </c>
-      <c t="s" s="7" r="G143">
+      <c t="s" s="6" r="G143">
         <v>605</v>
       </c>
       <c s="4" r="L143"/>
@@ -8578,7 +8578,7 @@
       <c s="5" r="F183">
         <v>0.0</v>
       </c>
-      <c t="s" s="7" r="G183">
+      <c t="s" s="6" r="G183">
         <v>768</v>
       </c>
       <c s="4" r="L183"/>
@@ -9478,7 +9478,7 @@
       <c s="5" r="F219">
         <v>0.0</v>
       </c>
-      <c t="s" s="7" r="G219">
+      <c t="s" s="6" r="G219">
         <v>914</v>
       </c>
       <c s="4" r="L219"/>
@@ -11860,3434 +11860,3434 @@
       <c s="5" r="M314"/>
     </row>
     <row r="315">
-      <c s="8" r="E315"/>
-      <c s="8" r="F315"/>
-      <c s="6" r="G315"/>
+      <c s="7" r="E315"/>
+      <c s="7" r="F315"/>
+      <c s="8" r="G315"/>
     </row>
     <row r="316">
-      <c s="8" r="E316"/>
-      <c s="8" r="F316"/>
-      <c s="6" r="G316"/>
+      <c s="7" r="E316"/>
+      <c s="7" r="F316"/>
+      <c s="8" r="G316"/>
     </row>
     <row r="317">
-      <c s="8" r="E317"/>
-      <c s="8" r="F317"/>
-      <c s="6" r="G317"/>
+      <c s="7" r="E317"/>
+      <c s="7" r="F317"/>
+      <c s="8" r="G317"/>
     </row>
     <row r="318">
-      <c s="8" r="E318"/>
-      <c s="8" r="F318"/>
-      <c s="6" r="G318"/>
+      <c s="7" r="E318"/>
+      <c s="7" r="F318"/>
+      <c s="8" r="G318"/>
     </row>
     <row r="319">
-      <c s="8" r="E319"/>
-      <c s="8" r="F319"/>
-      <c s="6" r="G319"/>
+      <c s="7" r="E319"/>
+      <c s="7" r="F319"/>
+      <c s="8" r="G319"/>
     </row>
     <row r="320">
-      <c s="8" r="E320"/>
-      <c s="8" r="F320"/>
-      <c s="6" r="G320"/>
+      <c s="7" r="E320"/>
+      <c s="7" r="F320"/>
+      <c s="8" r="G320"/>
     </row>
     <row r="321">
-      <c s="8" r="E321"/>
-      <c s="8" r="F321"/>
-      <c s="6" r="G321"/>
+      <c s="7" r="E321"/>
+      <c s="7" r="F321"/>
+      <c s="8" r="G321"/>
     </row>
     <row r="322">
-      <c s="8" r="E322"/>
-      <c s="8" r="F322"/>
-      <c s="6" r="G322"/>
+      <c s="7" r="E322"/>
+      <c s="7" r="F322"/>
+      <c s="8" r="G322"/>
     </row>
     <row r="323">
-      <c s="8" r="E323"/>
-      <c s="8" r="F323"/>
-      <c s="6" r="G323"/>
+      <c s="7" r="E323"/>
+      <c s="7" r="F323"/>
+      <c s="8" r="G323"/>
     </row>
     <row r="324">
-      <c s="8" r="E324"/>
-      <c s="8" r="F324"/>
-      <c s="6" r="G324"/>
+      <c s="7" r="E324"/>
+      <c s="7" r="F324"/>
+      <c s="8" r="G324"/>
     </row>
     <row r="325">
-      <c s="8" r="E325"/>
-      <c s="8" r="F325"/>
-      <c s="6" r="G325"/>
+      <c s="7" r="E325"/>
+      <c s="7" r="F325"/>
+      <c s="8" r="G325"/>
     </row>
     <row r="326">
-      <c s="8" r="E326"/>
-      <c s="8" r="F326"/>
-      <c s="6" r="G326"/>
+      <c s="7" r="E326"/>
+      <c s="7" r="F326"/>
+      <c s="8" r="G326"/>
     </row>
     <row r="327">
-      <c s="8" r="E327"/>
-      <c s="8" r="F327"/>
-      <c s="6" r="G327"/>
+      <c s="7" r="E327"/>
+      <c s="7" r="F327"/>
+      <c s="8" r="G327"/>
     </row>
     <row r="328">
-      <c s="8" r="E328"/>
-      <c s="8" r="F328"/>
-      <c s="6" r="G328"/>
+      <c s="7" r="E328"/>
+      <c s="7" r="F328"/>
+      <c s="8" r="G328"/>
     </row>
     <row r="329">
-      <c s="8" r="E329"/>
-      <c s="8" r="F329"/>
-      <c s="6" r="G329"/>
+      <c s="7" r="E329"/>
+      <c s="7" r="F329"/>
+      <c s="8" r="G329"/>
     </row>
     <row r="330">
-      <c s="8" r="E330"/>
-      <c s="8" r="F330"/>
-      <c s="6" r="G330"/>
+      <c s="7" r="E330"/>
+      <c s="7" r="F330"/>
+      <c s="8" r="G330"/>
     </row>
     <row r="331">
-      <c s="8" r="E331"/>
-      <c s="8" r="F331"/>
-      <c s="6" r="G331"/>
+      <c s="7" r="E331"/>
+      <c s="7" r="F331"/>
+      <c s="8" r="G331"/>
     </row>
     <row r="332">
-      <c s="8" r="E332"/>
-      <c s="8" r="F332"/>
-      <c s="6" r="G332"/>
+      <c s="7" r="E332"/>
+      <c s="7" r="F332"/>
+      <c s="8" r="G332"/>
     </row>
     <row r="333">
-      <c s="8" r="E333"/>
-      <c s="8" r="F333"/>
-      <c s="6" r="G333"/>
+      <c s="7" r="E333"/>
+      <c s="7" r="F333"/>
+      <c s="8" r="G333"/>
     </row>
     <row r="334">
-      <c s="8" r="E334"/>
-      <c s="8" r="F334"/>
-      <c s="6" r="G334"/>
+      <c s="7" r="E334"/>
+      <c s="7" r="F334"/>
+      <c s="8" r="G334"/>
     </row>
     <row r="335">
-      <c s="8" r="E335"/>
-      <c s="8" r="F335"/>
-      <c s="6" r="G335"/>
+      <c s="7" r="E335"/>
+      <c s="7" r="F335"/>
+      <c s="8" r="G335"/>
     </row>
     <row r="336">
-      <c s="8" r="E336"/>
-      <c s="8" r="F336"/>
-      <c s="6" r="G336"/>
+      <c s="7" r="E336"/>
+      <c s="7" r="F336"/>
+      <c s="8" r="G336"/>
     </row>
     <row r="337">
-      <c s="8" r="E337"/>
-      <c s="8" r="F337"/>
-      <c s="6" r="G337"/>
+      <c s="7" r="E337"/>
+      <c s="7" r="F337"/>
+      <c s="8" r="G337"/>
     </row>
     <row r="338">
-      <c s="8" r="E338"/>
-      <c s="8" r="F338"/>
-      <c s="6" r="G338"/>
+      <c s="7" r="E338"/>
+      <c s="7" r="F338"/>
+      <c s="8" r="G338"/>
     </row>
     <row r="339">
-      <c s="8" r="E339"/>
-      <c s="8" r="F339"/>
-      <c s="6" r="G339"/>
+      <c s="7" r="E339"/>
+      <c s="7" r="F339"/>
+      <c s="8" r="G339"/>
     </row>
     <row r="340">
-      <c s="8" r="E340"/>
-      <c s="8" r="F340"/>
-      <c s="6" r="G340"/>
+      <c s="7" r="E340"/>
+      <c s="7" r="F340"/>
+      <c s="8" r="G340"/>
     </row>
     <row r="341">
-      <c s="8" r="E341"/>
-      <c s="8" r="F341"/>
-      <c s="6" r="G341"/>
+      <c s="7" r="E341"/>
+      <c s="7" r="F341"/>
+      <c s="8" r="G341"/>
     </row>
     <row r="342">
-      <c s="8" r="E342"/>
-      <c s="8" r="F342"/>
-      <c s="6" r="G342"/>
+      <c s="7" r="E342"/>
+      <c s="7" r="F342"/>
+      <c s="8" r="G342"/>
     </row>
     <row r="343">
-      <c s="8" r="E343"/>
-      <c s="8" r="F343"/>
-      <c s="6" r="G343"/>
+      <c s="7" r="E343"/>
+      <c s="7" r="F343"/>
+      <c s="8" r="G343"/>
     </row>
     <row r="344">
-      <c s="8" r="E344"/>
-      <c s="8" r="F344"/>
-      <c s="6" r="G344"/>
+      <c s="7" r="E344"/>
+      <c s="7" r="F344"/>
+      <c s="8" r="G344"/>
     </row>
     <row r="345">
-      <c s="8" r="E345"/>
-      <c s="8" r="F345"/>
-      <c s="6" r="G345"/>
+      <c s="7" r="E345"/>
+      <c s="7" r="F345"/>
+      <c s="8" r="G345"/>
     </row>
     <row r="346">
-      <c s="8" r="E346"/>
-      <c s="8" r="F346"/>
-      <c s="6" r="G346"/>
+      <c s="7" r="E346"/>
+      <c s="7" r="F346"/>
+      <c s="8" r="G346"/>
     </row>
     <row r="347">
-      <c s="8" r="E347"/>
-      <c s="8" r="F347"/>
-      <c s="6" r="G347"/>
+      <c s="7" r="E347"/>
+      <c s="7" r="F347"/>
+      <c s="8" r="G347"/>
     </row>
     <row r="348">
-      <c s="8" r="E348"/>
-      <c s="8" r="F348"/>
-      <c s="6" r="G348"/>
+      <c s="7" r="E348"/>
+      <c s="7" r="F348"/>
+      <c s="8" r="G348"/>
     </row>
     <row r="349">
-      <c s="8" r="E349"/>
-      <c s="8" r="F349"/>
-      <c s="6" r="G349"/>
+      <c s="7" r="E349"/>
+      <c s="7" r="F349"/>
+      <c s="8" r="G349"/>
     </row>
     <row r="350">
-      <c s="8" r="E350"/>
-      <c s="8" r="F350"/>
-      <c s="6" r="G350"/>
+      <c s="7" r="E350"/>
+      <c s="7" r="F350"/>
+      <c s="8" r="G350"/>
     </row>
     <row r="351">
-      <c s="8" r="E351"/>
-      <c s="8" r="F351"/>
-      <c s="6" r="G351"/>
+      <c s="7" r="E351"/>
+      <c s="7" r="F351"/>
+      <c s="8" r="G351"/>
     </row>
     <row r="352">
-      <c s="8" r="E352"/>
-      <c s="8" r="F352"/>
-      <c s="6" r="G352"/>
+      <c s="7" r="E352"/>
+      <c s="7" r="F352"/>
+      <c s="8" r="G352"/>
     </row>
     <row r="353">
-      <c s="8" r="E353"/>
-      <c s="8" r="F353"/>
-      <c s="6" r="G353"/>
+      <c s="7" r="E353"/>
+      <c s="7" r="F353"/>
+      <c s="8" r="G353"/>
     </row>
     <row r="354">
-      <c s="8" r="E354"/>
-      <c s="8" r="F354"/>
-      <c s="6" r="G354"/>
+      <c s="7" r="E354"/>
+      <c s="7" r="F354"/>
+      <c s="8" r="G354"/>
     </row>
     <row r="355">
-      <c s="8" r="E355"/>
-      <c s="8" r="F355"/>
-      <c s="6" r="G355"/>
+      <c s="7" r="E355"/>
+      <c s="7" r="F355"/>
+      <c s="8" r="G355"/>
     </row>
     <row r="356">
-      <c s="8" r="E356"/>
-      <c s="8" r="F356"/>
-      <c s="6" r="G356"/>
+      <c s="7" r="E356"/>
+      <c s="7" r="F356"/>
+      <c s="8" r="G356"/>
     </row>
     <row r="357">
-      <c s="8" r="E357"/>
-      <c s="8" r="F357"/>
-      <c s="6" r="G357"/>
+      <c s="7" r="E357"/>
+      <c s="7" r="F357"/>
+      <c s="8" r="G357"/>
     </row>
     <row r="358">
-      <c s="8" r="E358"/>
-      <c s="8" r="F358"/>
-      <c s="6" r="G358"/>
+      <c s="7" r="E358"/>
+      <c s="7" r="F358"/>
+      <c s="8" r="G358"/>
     </row>
     <row r="359">
-      <c s="8" r="E359"/>
-      <c s="8" r="F359"/>
-      <c s="6" r="G359"/>
+      <c s="7" r="E359"/>
+      <c s="7" r="F359"/>
+      <c s="8" r="G359"/>
     </row>
     <row r="360">
-      <c s="8" r="E360"/>
-      <c s="8" r="F360"/>
-      <c s="6" r="G360"/>
+      <c s="7" r="E360"/>
+      <c s="7" r="F360"/>
+      <c s="8" r="G360"/>
     </row>
     <row r="361">
-      <c s="8" r="E361"/>
-      <c s="8" r="F361"/>
-      <c s="6" r="G361"/>
+      <c s="7" r="E361"/>
+      <c s="7" r="F361"/>
+      <c s="8" r="G361"/>
     </row>
     <row r="362">
-      <c s="8" r="E362"/>
-      <c s="8" r="F362"/>
-      <c s="6" r="G362"/>
+      <c s="7" r="E362"/>
+      <c s="7" r="F362"/>
+      <c s="8" r="G362"/>
     </row>
     <row r="363">
-      <c s="8" r="E363"/>
-      <c s="8" r="F363"/>
-      <c s="6" r="G363"/>
+      <c s="7" r="E363"/>
+      <c s="7" r="F363"/>
+      <c s="8" r="G363"/>
     </row>
     <row r="364">
-      <c s="8" r="E364"/>
-      <c s="8" r="F364"/>
-      <c s="6" r="G364"/>
+      <c s="7" r="E364"/>
+      <c s="7" r="F364"/>
+      <c s="8" r="G364"/>
     </row>
     <row r="365">
-      <c s="8" r="E365"/>
-      <c s="8" r="F365"/>
-      <c s="6" r="G365"/>
+      <c s="7" r="E365"/>
+      <c s="7" r="F365"/>
+      <c s="8" r="G365"/>
     </row>
     <row r="366">
-      <c s="8" r="E366"/>
-      <c s="8" r="F366"/>
-      <c s="6" r="G366"/>
+      <c s="7" r="E366"/>
+      <c s="7" r="F366"/>
+      <c s="8" r="G366"/>
     </row>
     <row r="367">
-      <c s="8" r="E367"/>
-      <c s="8" r="F367"/>
-      <c s="6" r="G367"/>
+      <c s="7" r="E367"/>
+      <c s="7" r="F367"/>
+      <c s="8" r="G367"/>
     </row>
     <row r="368">
-      <c s="8" r="E368"/>
-      <c s="8" r="F368"/>
-      <c s="6" r="G368"/>
+      <c s="7" r="E368"/>
+      <c s="7" r="F368"/>
+      <c s="8" r="G368"/>
     </row>
     <row r="369">
-      <c s="8" r="E369"/>
-      <c s="8" r="F369"/>
-      <c s="6" r="G369"/>
+      <c s="7" r="E369"/>
+      <c s="7" r="F369"/>
+      <c s="8" r="G369"/>
     </row>
     <row r="370">
-      <c s="8" r="E370"/>
-      <c s="8" r="F370"/>
-      <c s="6" r="G370"/>
+      <c s="7" r="E370"/>
+      <c s="7" r="F370"/>
+      <c s="8" r="G370"/>
     </row>
     <row r="371">
-      <c s="8" r="E371"/>
-      <c s="8" r="F371"/>
-      <c s="6" r="G371"/>
+      <c s="7" r="E371"/>
+      <c s="7" r="F371"/>
+      <c s="8" r="G371"/>
     </row>
     <row r="372">
-      <c s="8" r="E372"/>
-      <c s="8" r="F372"/>
-      <c s="6" r="G372"/>
+      <c s="7" r="E372"/>
+      <c s="7" r="F372"/>
+      <c s="8" r="G372"/>
     </row>
     <row r="373">
-      <c s="8" r="E373"/>
-      <c s="8" r="F373"/>
-      <c s="6" r="G373"/>
+      <c s="7" r="E373"/>
+      <c s="7" r="F373"/>
+      <c s="8" r="G373"/>
     </row>
     <row r="374">
-      <c s="8" r="E374"/>
-      <c s="8" r="F374"/>
-      <c s="6" r="G374"/>
+      <c s="7" r="E374"/>
+      <c s="7" r="F374"/>
+      <c s="8" r="G374"/>
     </row>
     <row r="375">
-      <c s="8" r="E375"/>
-      <c s="8" r="F375"/>
-      <c s="6" r="G375"/>
+      <c s="7" r="E375"/>
+      <c s="7" r="F375"/>
+      <c s="8" r="G375"/>
     </row>
     <row r="376">
-      <c s="8" r="E376"/>
-      <c s="8" r="F376"/>
-      <c s="6" r="G376"/>
+      <c s="7" r="E376"/>
+      <c s="7" r="F376"/>
+      <c s="8" r="G376"/>
     </row>
     <row r="377">
-      <c s="8" r="E377"/>
-      <c s="8" r="F377"/>
-      <c s="6" r="G377"/>
+      <c s="7" r="E377"/>
+      <c s="7" r="F377"/>
+      <c s="8" r="G377"/>
     </row>
     <row r="378">
-      <c s="8" r="E378"/>
-      <c s="8" r="F378"/>
-      <c s="6" r="G378"/>
+      <c s="7" r="E378"/>
+      <c s="7" r="F378"/>
+      <c s="8" r="G378"/>
     </row>
     <row r="379">
-      <c s="8" r="E379"/>
-      <c s="8" r="F379"/>
-      <c s="6" r="G379"/>
+      <c s="7" r="E379"/>
+      <c s="7" r="F379"/>
+      <c s="8" r="G379"/>
     </row>
     <row r="380">
-      <c s="8" r="E380"/>
-      <c s="8" r="F380"/>
-      <c s="6" r="G380"/>
+      <c s="7" r="E380"/>
+      <c s="7" r="F380"/>
+      <c s="8" r="G380"/>
     </row>
     <row r="381">
-      <c s="8" r="E381"/>
-      <c s="8" r="F381"/>
-      <c s="6" r="G381"/>
+      <c s="7" r="E381"/>
+      <c s="7" r="F381"/>
+      <c s="8" r="G381"/>
     </row>
     <row r="382">
-      <c s="8" r="E382"/>
-      <c s="8" r="F382"/>
-      <c s="6" r="G382"/>
+      <c s="7" r="E382"/>
+      <c s="7" r="F382"/>
+      <c s="8" r="G382"/>
     </row>
     <row r="383">
-      <c s="8" r="E383"/>
-      <c s="8" r="F383"/>
-      <c s="6" r="G383"/>
+      <c s="7" r="E383"/>
+      <c s="7" r="F383"/>
+      <c s="8" r="G383"/>
     </row>
     <row r="384">
-      <c s="8" r="E384"/>
-      <c s="8" r="F384"/>
-      <c s="6" r="G384"/>
+      <c s="7" r="E384"/>
+      <c s="7" r="F384"/>
+      <c s="8" r="G384"/>
     </row>
     <row r="385">
-      <c s="8" r="E385"/>
-      <c s="8" r="F385"/>
-      <c s="6" r="G385"/>
+      <c s="7" r="E385"/>
+      <c s="7" r="F385"/>
+      <c s="8" r="G385"/>
     </row>
     <row r="386">
-      <c s="8" r="E386"/>
-      <c s="8" r="F386"/>
-      <c s="6" r="G386"/>
+      <c s="7" r="E386"/>
+      <c s="7" r="F386"/>
+      <c s="8" r="G386"/>
     </row>
     <row r="387">
-      <c s="8" r="E387"/>
-      <c s="8" r="F387"/>
-      <c s="6" r="G387"/>
+      <c s="7" r="E387"/>
+      <c s="7" r="F387"/>
+      <c s="8" r="G387"/>
     </row>
     <row r="388">
-      <c s="8" r="E388"/>
-      <c s="8" r="F388"/>
-      <c s="6" r="G388"/>
+      <c s="7" r="E388"/>
+      <c s="7" r="F388"/>
+      <c s="8" r="G388"/>
     </row>
     <row r="389">
-      <c s="8" r="E389"/>
-      <c s="8" r="F389"/>
-      <c s="6" r="G389"/>
+      <c s="7" r="E389"/>
+      <c s="7" r="F389"/>
+      <c s="8" r="G389"/>
     </row>
     <row r="390">
-      <c s="8" r="E390"/>
-      <c s="8" r="F390"/>
-      <c s="6" r="G390"/>
+      <c s="7" r="E390"/>
+      <c s="7" r="F390"/>
+      <c s="8" r="G390"/>
     </row>
     <row r="391">
-      <c s="8" r="E391"/>
-      <c s="8" r="F391"/>
-      <c s="6" r="G391"/>
+      <c s="7" r="E391"/>
+      <c s="7" r="F391"/>
+      <c s="8" r="G391"/>
     </row>
     <row r="392">
-      <c s="8" r="E392"/>
-      <c s="8" r="F392"/>
-      <c s="6" r="G392"/>
+      <c s="7" r="E392"/>
+      <c s="7" r="F392"/>
+      <c s="8" r="G392"/>
     </row>
     <row r="393">
-      <c s="8" r="E393"/>
-      <c s="8" r="F393"/>
-      <c s="6" r="G393"/>
+      <c s="7" r="E393"/>
+      <c s="7" r="F393"/>
+      <c s="8" r="G393"/>
     </row>
     <row r="394">
-      <c s="8" r="E394"/>
-      <c s="8" r="F394"/>
-      <c s="6" r="G394"/>
+      <c s="7" r="E394"/>
+      <c s="7" r="F394"/>
+      <c s="8" r="G394"/>
     </row>
     <row r="395">
-      <c s="8" r="E395"/>
-      <c s="8" r="F395"/>
-      <c s="6" r="G395"/>
+      <c s="7" r="E395"/>
+      <c s="7" r="F395"/>
+      <c s="8" r="G395"/>
     </row>
     <row r="396">
-      <c s="8" r="E396"/>
-      <c s="8" r="F396"/>
-      <c s="6" r="G396"/>
+      <c s="7" r="E396"/>
+      <c s="7" r="F396"/>
+      <c s="8" r="G396"/>
     </row>
     <row r="397">
-      <c s="8" r="E397"/>
-      <c s="8" r="F397"/>
-      <c s="6" r="G397"/>
+      <c s="7" r="E397"/>
+      <c s="7" r="F397"/>
+      <c s="8" r="G397"/>
     </row>
     <row r="398">
-      <c s="8" r="E398"/>
-      <c s="8" r="F398"/>
-      <c s="6" r="G398"/>
+      <c s="7" r="E398"/>
+      <c s="7" r="F398"/>
+      <c s="8" r="G398"/>
     </row>
     <row r="399">
-      <c s="8" r="E399"/>
-      <c s="8" r="F399"/>
-      <c s="6" r="G399"/>
+      <c s="7" r="E399"/>
+      <c s="7" r="F399"/>
+      <c s="8" r="G399"/>
     </row>
     <row r="400">
-      <c s="8" r="E400"/>
-      <c s="8" r="F400"/>
-      <c s="6" r="G400"/>
+      <c s="7" r="E400"/>
+      <c s="7" r="F400"/>
+      <c s="8" r="G400"/>
     </row>
     <row r="401">
-      <c s="8" r="E401"/>
-      <c s="8" r="F401"/>
-      <c s="6" r="G401"/>
+      <c s="7" r="E401"/>
+      <c s="7" r="F401"/>
+      <c s="8" r="G401"/>
     </row>
     <row r="402">
-      <c s="8" r="E402"/>
-      <c s="8" r="F402"/>
-      <c s="6" r="G402"/>
+      <c s="7" r="E402"/>
+      <c s="7" r="F402"/>
+      <c s="8" r="G402"/>
     </row>
     <row r="403">
-      <c s="8" r="E403"/>
-      <c s="8" r="F403"/>
-      <c s="6" r="G403"/>
+      <c s="7" r="E403"/>
+      <c s="7" r="F403"/>
+      <c s="8" r="G403"/>
     </row>
     <row r="404">
-      <c s="8" r="E404"/>
-      <c s="8" r="F404"/>
-      <c s="6" r="G404"/>
+      <c s="7" r="E404"/>
+      <c s="7" r="F404"/>
+      <c s="8" r="G404"/>
     </row>
     <row r="405">
-      <c s="8" r="E405"/>
-      <c s="8" r="F405"/>
-      <c s="6" r="G405"/>
+      <c s="7" r="E405"/>
+      <c s="7" r="F405"/>
+      <c s="8" r="G405"/>
     </row>
     <row r="406">
-      <c s="8" r="E406"/>
-      <c s="8" r="F406"/>
-      <c s="6" r="G406"/>
+      <c s="7" r="E406"/>
+      <c s="7" r="F406"/>
+      <c s="8" r="G406"/>
     </row>
     <row r="407">
-      <c s="8" r="E407"/>
-      <c s="8" r="F407"/>
-      <c s="6" r="G407"/>
+      <c s="7" r="E407"/>
+      <c s="7" r="F407"/>
+      <c s="8" r="G407"/>
     </row>
     <row r="408">
-      <c s="8" r="E408"/>
-      <c s="8" r="F408"/>
-      <c s="6" r="G408"/>
+      <c s="7" r="E408"/>
+      <c s="7" r="F408"/>
+      <c s="8" r="G408"/>
     </row>
     <row r="409">
-      <c s="8" r="E409"/>
-      <c s="8" r="F409"/>
-      <c s="6" r="G409"/>
+      <c s="7" r="E409"/>
+      <c s="7" r="F409"/>
+      <c s="8" r="G409"/>
     </row>
     <row r="410">
-      <c s="8" r="E410"/>
-      <c s="8" r="F410"/>
-      <c s="6" r="G410"/>
+      <c s="7" r="E410"/>
+      <c s="7" r="F410"/>
+      <c s="8" r="G410"/>
     </row>
     <row r="411">
-      <c s="8" r="E411"/>
-      <c s="8" r="F411"/>
-      <c s="6" r="G411"/>
+      <c s="7" r="E411"/>
+      <c s="7" r="F411"/>
+      <c s="8" r="G411"/>
     </row>
     <row r="412">
-      <c s="8" r="E412"/>
-      <c s="8" r="F412"/>
-      <c s="6" r="G412"/>
+      <c s="7" r="E412"/>
+      <c s="7" r="F412"/>
+      <c s="8" r="G412"/>
     </row>
     <row r="413">
-      <c s="8" r="E413"/>
-      <c s="8" r="F413"/>
-      <c s="6" r="G413"/>
+      <c s="7" r="E413"/>
+      <c s="7" r="F413"/>
+      <c s="8" r="G413"/>
     </row>
     <row r="414">
-      <c s="8" r="E414"/>
-      <c s="8" r="F414"/>
-      <c s="6" r="G414"/>
+      <c s="7" r="E414"/>
+      <c s="7" r="F414"/>
+      <c s="8" r="G414"/>
     </row>
     <row r="415">
-      <c s="8" r="E415"/>
-      <c s="8" r="F415"/>
-      <c s="6" r="G415"/>
+      <c s="7" r="E415"/>
+      <c s="7" r="F415"/>
+      <c s="8" r="G415"/>
     </row>
     <row r="416">
-      <c s="8" r="E416"/>
-      <c s="8" r="F416"/>
-      <c s="6" r="G416"/>
+      <c s="7" r="E416"/>
+      <c s="7" r="F416"/>
+      <c s="8" r="G416"/>
     </row>
     <row r="417">
-      <c s="8" r="E417"/>
-      <c s="8" r="F417"/>
-      <c s="6" r="G417"/>
+      <c s="7" r="E417"/>
+      <c s="7" r="F417"/>
+      <c s="8" r="G417"/>
     </row>
     <row r="418">
-      <c s="8" r="E418"/>
-      <c s="8" r="F418"/>
-      <c s="6" r="G418"/>
+      <c s="7" r="E418"/>
+      <c s="7" r="F418"/>
+      <c s="8" r="G418"/>
     </row>
     <row r="419">
-      <c s="8" r="E419"/>
-      <c s="8" r="F419"/>
-      <c s="6" r="G419"/>
+      <c s="7" r="E419"/>
+      <c s="7" r="F419"/>
+      <c s="8" r="G419"/>
     </row>
     <row r="420">
-      <c s="8" r="E420"/>
-      <c s="8" r="F420"/>
-      <c s="6" r="G420"/>
+      <c s="7" r="E420"/>
+      <c s="7" r="F420"/>
+      <c s="8" r="G420"/>
     </row>
     <row r="421">
-      <c s="8" r="E421"/>
-      <c s="8" r="F421"/>
-      <c s="6" r="G421"/>
+      <c s="7" r="E421"/>
+      <c s="7" r="F421"/>
+      <c s="8" r="G421"/>
     </row>
     <row r="422">
-      <c s="8" r="E422"/>
-      <c s="8" r="F422"/>
-      <c s="6" r="G422"/>
+      <c s="7" r="E422"/>
+      <c s="7" r="F422"/>
+      <c s="8" r="G422"/>
     </row>
     <row r="423">
-      <c s="8" r="E423"/>
-      <c s="8" r="F423"/>
-      <c s="6" r="G423"/>
+      <c s="7" r="E423"/>
+      <c s="7" r="F423"/>
+      <c s="8" r="G423"/>
     </row>
     <row r="424">
-      <c s="8" r="E424"/>
-      <c s="8" r="F424"/>
-      <c s="6" r="G424"/>
+      <c s="7" r="E424"/>
+      <c s="7" r="F424"/>
+      <c s="8" r="G424"/>
     </row>
     <row r="425">
-      <c s="8" r="E425"/>
-      <c s="8" r="F425"/>
-      <c s="6" r="G425"/>
+      <c s="7" r="E425"/>
+      <c s="7" r="F425"/>
+      <c s="8" r="G425"/>
     </row>
     <row r="426">
-      <c s="8" r="E426"/>
-      <c s="8" r="F426"/>
-      <c s="6" r="G426"/>
+      <c s="7" r="E426"/>
+      <c s="7" r="F426"/>
+      <c s="8" r="G426"/>
     </row>
     <row r="427">
-      <c s="8" r="E427"/>
-      <c s="8" r="F427"/>
-      <c s="6" r="G427"/>
+      <c s="7" r="E427"/>
+      <c s="7" r="F427"/>
+      <c s="8" r="G427"/>
     </row>
     <row r="428">
-      <c s="8" r="E428"/>
-      <c s="8" r="F428"/>
-      <c s="6" r="G428"/>
+      <c s="7" r="E428"/>
+      <c s="7" r="F428"/>
+      <c s="8" r="G428"/>
     </row>
     <row r="429">
-      <c s="8" r="E429"/>
-      <c s="8" r="F429"/>
-      <c s="6" r="G429"/>
+      <c s="7" r="E429"/>
+      <c s="7" r="F429"/>
+      <c s="8" r="G429"/>
     </row>
     <row r="430">
-      <c s="8" r="E430"/>
-      <c s="8" r="F430"/>
-      <c s="6" r="G430"/>
+      <c s="7" r="E430"/>
+      <c s="7" r="F430"/>
+      <c s="8" r="G430"/>
     </row>
     <row r="431">
-      <c s="8" r="E431"/>
-      <c s="8" r="F431"/>
-      <c s="6" r="G431"/>
+      <c s="7" r="E431"/>
+      <c s="7" r="F431"/>
+      <c s="8" r="G431"/>
     </row>
     <row r="432">
-      <c s="8" r="E432"/>
-      <c s="8" r="F432"/>
-      <c s="6" r="G432"/>
+      <c s="7" r="E432"/>
+      <c s="7" r="F432"/>
+      <c s="8" r="G432"/>
     </row>
     <row r="433">
-      <c s="8" r="E433"/>
-      <c s="8" r="F433"/>
-      <c s="6" r="G433"/>
+      <c s="7" r="E433"/>
+      <c s="7" r="F433"/>
+      <c s="8" r="G433"/>
     </row>
     <row r="434">
-      <c s="8" r="E434"/>
-      <c s="8" r="F434"/>
-      <c s="6" r="G434"/>
+      <c s="7" r="E434"/>
+      <c s="7" r="F434"/>
+      <c s="8" r="G434"/>
     </row>
     <row r="435">
-      <c s="8" r="E435"/>
-      <c s="8" r="F435"/>
-      <c s="6" r="G435"/>
+      <c s="7" r="E435"/>
+      <c s="7" r="F435"/>
+      <c s="8" r="G435"/>
     </row>
     <row r="436">
-      <c s="8" r="E436"/>
-      <c s="8" r="F436"/>
-      <c s="6" r="G436"/>
+      <c s="7" r="E436"/>
+      <c s="7" r="F436"/>
+      <c s="8" r="G436"/>
     </row>
     <row r="437">
-      <c s="8" r="E437"/>
-      <c s="8" r="F437"/>
-      <c s="6" r="G437"/>
+      <c s="7" r="E437"/>
+      <c s="7" r="F437"/>
+      <c s="8" r="G437"/>
     </row>
     <row r="438">
-      <c s="8" r="E438"/>
-      <c s="8" r="F438"/>
-      <c s="6" r="G438"/>
+      <c s="7" r="E438"/>
+      <c s="7" r="F438"/>
+      <c s="8" r="G438"/>
     </row>
     <row r="439">
-      <c s="8" r="E439"/>
-      <c s="8" r="F439"/>
-      <c s="6" r="G439"/>
+      <c s="7" r="E439"/>
+      <c s="7" r="F439"/>
+      <c s="8" r="G439"/>
     </row>
     <row r="440">
-      <c s="8" r="E440"/>
-      <c s="8" r="F440"/>
-      <c s="6" r="G440"/>
+      <c s="7" r="E440"/>
+      <c s="7" r="F440"/>
+      <c s="8" r="G440"/>
     </row>
     <row r="441">
-      <c s="8" r="E441"/>
-      <c s="8" r="F441"/>
-      <c s="6" r="G441"/>
+      <c s="7" r="E441"/>
+      <c s="7" r="F441"/>
+      <c s="8" r="G441"/>
     </row>
     <row r="442">
-      <c s="8" r="E442"/>
-      <c s="8" r="F442"/>
-      <c s="6" r="G442"/>
+      <c s="7" r="E442"/>
+      <c s="7" r="F442"/>
+      <c s="8" r="G442"/>
     </row>
     <row r="443">
-      <c s="8" r="E443"/>
-      <c s="8" r="F443"/>
-      <c s="6" r="G443"/>
+      <c s="7" r="E443"/>
+      <c s="7" r="F443"/>
+      <c s="8" r="G443"/>
     </row>
     <row r="444">
-      <c s="8" r="E444"/>
-      <c s="8" r="F444"/>
-      <c s="6" r="G444"/>
+      <c s="7" r="E444"/>
+      <c s="7" r="F444"/>
+      <c s="8" r="G444"/>
     </row>
     <row r="445">
-      <c s="8" r="E445"/>
-      <c s="8" r="F445"/>
-      <c s="6" r="G445"/>
+      <c s="7" r="E445"/>
+      <c s="7" r="F445"/>
+      <c s="8" r="G445"/>
     </row>
     <row r="446">
-      <c s="8" r="E446"/>
-      <c s="8" r="F446"/>
-      <c s="6" r="G446"/>
+      <c s="7" r="E446"/>
+      <c s="7" r="F446"/>
+      <c s="8" r="G446"/>
     </row>
     <row r="447">
-      <c s="8" r="E447"/>
-      <c s="8" r="F447"/>
-      <c s="6" r="G447"/>
+      <c s="7" r="E447"/>
+      <c s="7" r="F447"/>
+      <c s="8" r="G447"/>
     </row>
     <row r="448">
-      <c s="8" r="E448"/>
-      <c s="8" r="F448"/>
-      <c s="6" r="G448"/>
+      <c s="7" r="E448"/>
+      <c s="7" r="F448"/>
+      <c s="8" r="G448"/>
     </row>
     <row r="449">
-      <c s="8" r="E449"/>
-      <c s="8" r="F449"/>
-      <c s="6" r="G449"/>
+      <c s="7" r="E449"/>
+      <c s="7" r="F449"/>
+      <c s="8" r="G449"/>
     </row>
     <row r="450">
-      <c s="8" r="E450"/>
-      <c s="8" r="F450"/>
-      <c s="6" r="G450"/>
+      <c s="7" r="E450"/>
+      <c s="7" r="F450"/>
+      <c s="8" r="G450"/>
     </row>
     <row r="451">
-      <c s="8" r="E451"/>
-      <c s="8" r="F451"/>
-      <c s="6" r="G451"/>
+      <c s="7" r="E451"/>
+      <c s="7" r="F451"/>
+      <c s="8" r="G451"/>
     </row>
     <row r="452">
-      <c s="8" r="E452"/>
-      <c s="8" r="F452"/>
-      <c s="6" r="G452"/>
+      <c s="7" r="E452"/>
+      <c s="7" r="F452"/>
+      <c s="8" r="G452"/>
     </row>
     <row r="453">
-      <c s="8" r="E453"/>
-      <c s="8" r="F453"/>
-      <c s="6" r="G453"/>
+      <c s="7" r="E453"/>
+      <c s="7" r="F453"/>
+      <c s="8" r="G453"/>
     </row>
     <row r="454">
-      <c s="8" r="E454"/>
-      <c s="8" r="F454"/>
-      <c s="6" r="G454"/>
+      <c s="7" r="E454"/>
+      <c s="7" r="F454"/>
+      <c s="8" r="G454"/>
     </row>
     <row r="455">
-      <c s="8" r="E455"/>
-      <c s="8" r="F455"/>
-      <c s="6" r="G455"/>
+      <c s="7" r="E455"/>
+      <c s="7" r="F455"/>
+      <c s="8" r="G455"/>
     </row>
     <row r="456">
-      <c s="8" r="E456"/>
-      <c s="8" r="F456"/>
-      <c s="6" r="G456"/>
+      <c s="7" r="E456"/>
+      <c s="7" r="F456"/>
+      <c s="8" r="G456"/>
     </row>
     <row r="457">
-      <c s="8" r="E457"/>
-      <c s="8" r="F457"/>
-      <c s="6" r="G457"/>
+      <c s="7" r="E457"/>
+      <c s="7" r="F457"/>
+      <c s="8" r="G457"/>
     </row>
     <row r="458">
-      <c s="8" r="E458"/>
-      <c s="8" r="F458"/>
-      <c s="6" r="G458"/>
+      <c s="7" r="E458"/>
+      <c s="7" r="F458"/>
+      <c s="8" r="G458"/>
     </row>
     <row r="459">
-      <c s="8" r="E459"/>
-      <c s="8" r="F459"/>
-      <c s="6" r="G459"/>
+      <c s="7" r="E459"/>
+      <c s="7" r="F459"/>
+      <c s="8" r="G459"/>
     </row>
     <row r="460">
-      <c s="8" r="E460"/>
-      <c s="8" r="F460"/>
-      <c s="6" r="G460"/>
+      <c s="7" r="E460"/>
+      <c s="7" r="F460"/>
+      <c s="8" r="G460"/>
     </row>
     <row r="461">
-      <c s="8" r="E461"/>
-      <c s="8" r="F461"/>
-      <c s="6" r="G461"/>
+      <c s="7" r="E461"/>
+      <c s="7" r="F461"/>
+      <c s="8" r="G461"/>
     </row>
     <row r="462">
-      <c s="8" r="E462"/>
-      <c s="8" r="F462"/>
-      <c s="6" r="G462"/>
+      <c s="7" r="E462"/>
+      <c s="7" r="F462"/>
+      <c s="8" r="G462"/>
     </row>
     <row r="463">
-      <c s="8" r="E463"/>
-      <c s="8" r="F463"/>
-      <c s="6" r="G463"/>
+      <c s="7" r="E463"/>
+      <c s="7" r="F463"/>
+      <c s="8" r="G463"/>
     </row>
     <row r="464">
-      <c s="8" r="E464"/>
-      <c s="8" r="F464"/>
-      <c s="6" r="G464"/>
+      <c s="7" r="E464"/>
+      <c s="7" r="F464"/>
+      <c s="8" r="G464"/>
     </row>
     <row r="465">
-      <c s="8" r="E465"/>
-      <c s="8" r="F465"/>
-      <c s="6" r="G465"/>
+      <c s="7" r="E465"/>
+      <c s="7" r="F465"/>
+      <c s="8" r="G465"/>
     </row>
     <row r="466">
-      <c s="8" r="E466"/>
-      <c s="8" r="F466"/>
-      <c s="6" r="G466"/>
+      <c s="7" r="E466"/>
+      <c s="7" r="F466"/>
+      <c s="8" r="G466"/>
     </row>
     <row r="467">
-      <c s="8" r="E467"/>
-      <c s="8" r="F467"/>
-      <c s="6" r="G467"/>
+      <c s="7" r="E467"/>
+      <c s="7" r="F467"/>
+      <c s="8" r="G467"/>
     </row>
     <row r="468">
-      <c s="8" r="E468"/>
-      <c s="8" r="F468"/>
-      <c s="6" r="G468"/>
+      <c s="7" r="E468"/>
+      <c s="7" r="F468"/>
+      <c s="8" r="G468"/>
     </row>
     <row r="469">
-      <c s="8" r="E469"/>
-      <c s="8" r="F469"/>
-      <c s="6" r="G469"/>
+      <c s="7" r="E469"/>
+      <c s="7" r="F469"/>
+      <c s="8" r="G469"/>
     </row>
     <row r="470">
-      <c s="8" r="E470"/>
-      <c s="8" r="F470"/>
-      <c s="6" r="G470"/>
+      <c s="7" r="E470"/>
+      <c s="7" r="F470"/>
+      <c s="8" r="G470"/>
     </row>
     <row r="471">
-      <c s="8" r="E471"/>
-      <c s="8" r="F471"/>
-      <c s="6" r="G471"/>
+      <c s="7" r="E471"/>
+      <c s="7" r="F471"/>
+      <c s="8" r="G471"/>
     </row>
     <row r="472">
-      <c s="8" r="E472"/>
-      <c s="8" r="F472"/>
-      <c s="6" r="G472"/>
+      <c s="7" r="E472"/>
+      <c s="7" r="F472"/>
+      <c s="8" r="G472"/>
     </row>
     <row r="473">
-      <c s="8" r="E473"/>
-      <c s="8" r="F473"/>
-      <c s="6" r="G473"/>
+      <c s="7" r="E473"/>
+      <c s="7" r="F473"/>
+      <c s="8" r="G473"/>
     </row>
     <row r="474">
-      <c s="8" r="E474"/>
-      <c s="8" r="F474"/>
-      <c s="6" r="G474"/>
+      <c s="7" r="E474"/>
+      <c s="7" r="F474"/>
+      <c s="8" r="G474"/>
     </row>
     <row r="475">
-      <c s="8" r="E475"/>
-      <c s="8" r="F475"/>
-      <c s="6" r="G475"/>
+      <c s="7" r="E475"/>
+      <c s="7" r="F475"/>
+      <c s="8" r="G475"/>
     </row>
     <row r="476">
-      <c s="8" r="E476"/>
-      <c s="8" r="F476"/>
-      <c s="6" r="G476"/>
+      <c s="7" r="E476"/>
+      <c s="7" r="F476"/>
+      <c s="8" r="G476"/>
     </row>
     <row r="477">
-      <c s="8" r="E477"/>
-      <c s="8" r="F477"/>
-      <c s="6" r="G477"/>
+      <c s="7" r="E477"/>
+      <c s="7" r="F477"/>
+      <c s="8" r="G477"/>
     </row>
     <row r="478">
-      <c s="8" r="E478"/>
-      <c s="8" r="F478"/>
-      <c s="6" r="G478"/>
+      <c s="7" r="E478"/>
+      <c s="7" r="F478"/>
+      <c s="8" r="G478"/>
     </row>
     <row r="479">
-      <c s="8" r="E479"/>
-      <c s="8" r="F479"/>
-      <c s="6" r="G479"/>
+      <c s="7" r="E479"/>
+      <c s="7" r="F479"/>
+      <c s="8" r="G479"/>
     </row>
     <row r="480">
-      <c s="8" r="E480"/>
-      <c s="8" r="F480"/>
-      <c s="6" r="G480"/>
+      <c s="7" r="E480"/>
+      <c s="7" r="F480"/>
+      <c s="8" r="G480"/>
     </row>
     <row r="481">
-      <c s="8" r="E481"/>
-      <c s="8" r="F481"/>
-      <c s="6" r="G481"/>
+      <c s="7" r="E481"/>
+      <c s="7" r="F481"/>
+      <c s="8" r="G481"/>
     </row>
     <row r="482">
-      <c s="8" r="E482"/>
-      <c s="8" r="F482"/>
-      <c s="6" r="G482"/>
+      <c s="7" r="E482"/>
+      <c s="7" r="F482"/>
+      <c s="8" r="G482"/>
     </row>
     <row r="483">
-      <c s="8" r="E483"/>
-      <c s="8" r="F483"/>
-      <c s="6" r="G483"/>
+      <c s="7" r="E483"/>
+      <c s="7" r="F483"/>
+      <c s="8" r="G483"/>
     </row>
     <row r="484">
-      <c s="8" r="E484"/>
-      <c s="8" r="F484"/>
-      <c s="6" r="G484"/>
+      <c s="7" r="E484"/>
+      <c s="7" r="F484"/>
+      <c s="8" r="G484"/>
     </row>
     <row r="485">
-      <c s="8" r="E485"/>
-      <c s="8" r="F485"/>
-      <c s="6" r="G485"/>
+      <c s="7" r="E485"/>
+      <c s="7" r="F485"/>
+      <c s="8" r="G485"/>
     </row>
     <row r="486">
-      <c s="8" r="E486"/>
-      <c s="8" r="F486"/>
-      <c s="6" r="G486"/>
+      <c s="7" r="E486"/>
+      <c s="7" r="F486"/>
+      <c s="8" r="G486"/>
     </row>
     <row r="487">
-      <c s="8" r="E487"/>
-      <c s="8" r="F487"/>
-      <c s="6" r="G487"/>
+      <c s="7" r="E487"/>
+      <c s="7" r="F487"/>
+      <c s="8" r="G487"/>
     </row>
     <row r="488">
-      <c s="8" r="E488"/>
-      <c s="8" r="F488"/>
-      <c s="6" r="G488"/>
+      <c s="7" r="E488"/>
+      <c s="7" r="F488"/>
+      <c s="8" r="G488"/>
     </row>
     <row r="489">
-      <c s="8" r="E489"/>
-      <c s="8" r="F489"/>
-      <c s="6" r="G489"/>
+      <c s="7" r="E489"/>
+      <c s="7" r="F489"/>
+      <c s="8" r="G489"/>
     </row>
     <row r="490">
-      <c s="8" r="E490"/>
-      <c s="8" r="F490"/>
-      <c s="6" r="G490"/>
+      <c s="7" r="E490"/>
+      <c s="7" r="F490"/>
+      <c s="8" r="G490"/>
     </row>
     <row r="491">
-      <c s="8" r="E491"/>
-      <c s="8" r="F491"/>
-      <c s="6" r="G491"/>
+      <c s="7" r="E491"/>
+      <c s="7" r="F491"/>
+      <c s="8" r="G491"/>
     </row>
     <row r="492">
-      <c s="8" r="E492"/>
-      <c s="8" r="F492"/>
-      <c s="6" r="G492"/>
+      <c s="7" r="E492"/>
+      <c s="7" r="F492"/>
+      <c s="8" r="G492"/>
     </row>
     <row r="493">
-      <c s="8" r="E493"/>
-      <c s="8" r="F493"/>
-      <c s="6" r="G493"/>
+      <c s="7" r="E493"/>
+      <c s="7" r="F493"/>
+      <c s="8" r="G493"/>
     </row>
     <row r="494">
-      <c s="8" r="E494"/>
-      <c s="8" r="F494"/>
-      <c s="6" r="G494"/>
+      <c s="7" r="E494"/>
+      <c s="7" r="F494"/>
+      <c s="8" r="G494"/>
     </row>
     <row r="495">
-      <c s="8" r="E495"/>
-      <c s="8" r="F495"/>
-      <c s="6" r="G495"/>
+      <c s="7" r="E495"/>
+      <c s="7" r="F495"/>
+      <c s="8" r="G495"/>
     </row>
     <row r="496">
-      <c s="8" r="E496"/>
-      <c s="8" r="F496"/>
-      <c s="6" r="G496"/>
+      <c s="7" r="E496"/>
+      <c s="7" r="F496"/>
+      <c s="8" r="G496"/>
     </row>
     <row r="497">
-      <c s="8" r="E497"/>
-      <c s="8" r="F497"/>
-      <c s="6" r="G497"/>
+      <c s="7" r="E497"/>
+      <c s="7" r="F497"/>
+      <c s="8" r="G497"/>
     </row>
     <row r="498">
-      <c s="8" r="E498"/>
-      <c s="8" r="F498"/>
-      <c s="6" r="G498"/>
+      <c s="7" r="E498"/>
+      <c s="7" r="F498"/>
+      <c s="8" r="G498"/>
     </row>
     <row r="499">
-      <c s="8" r="E499"/>
-      <c s="8" r="F499"/>
-      <c s="6" r="G499"/>
+      <c s="7" r="E499"/>
+      <c s="7" r="F499"/>
+      <c s="8" r="G499"/>
     </row>
     <row r="500">
-      <c s="8" r="E500"/>
-      <c s="8" r="F500"/>
-      <c s="6" r="G500"/>
+      <c s="7" r="E500"/>
+      <c s="7" r="F500"/>
+      <c s="8" r="G500"/>
     </row>
     <row r="501">
-      <c s="8" r="E501"/>
-      <c s="8" r="F501"/>
-      <c s="6" r="G501"/>
+      <c s="7" r="E501"/>
+      <c s="7" r="F501"/>
+      <c s="8" r="G501"/>
     </row>
     <row r="502">
-      <c s="8" r="E502"/>
-      <c s="8" r="F502"/>
-      <c s="6" r="G502"/>
+      <c s="7" r="E502"/>
+      <c s="7" r="F502"/>
+      <c s="8" r="G502"/>
     </row>
     <row r="503">
-      <c s="8" r="E503"/>
-      <c s="8" r="F503"/>
-      <c s="6" r="G503"/>
+      <c s="7" r="E503"/>
+      <c s="7" r="F503"/>
+      <c s="8" r="G503"/>
     </row>
     <row r="504">
-      <c s="8" r="E504"/>
-      <c s="8" r="F504"/>
-      <c s="6" r="G504"/>
+      <c s="7" r="E504"/>
+      <c s="7" r="F504"/>
+      <c s="8" r="G504"/>
     </row>
     <row r="505">
-      <c s="8" r="E505"/>
-      <c s="8" r="F505"/>
-      <c s="6" r="G505"/>
+      <c s="7" r="E505"/>
+      <c s="7" r="F505"/>
+      <c s="8" r="G505"/>
     </row>
     <row r="506">
-      <c s="8" r="E506"/>
-      <c s="8" r="F506"/>
-      <c s="6" r="G506"/>
+      <c s="7" r="E506"/>
+      <c s="7" r="F506"/>
+      <c s="8" r="G506"/>
     </row>
     <row r="507">
-      <c s="8" r="E507"/>
-      <c s="8" r="F507"/>
-      <c s="6" r="G507"/>
+      <c s="7" r="E507"/>
+      <c s="7" r="F507"/>
+      <c s="8" r="G507"/>
     </row>
     <row r="508">
-      <c s="8" r="E508"/>
-      <c s="8" r="F508"/>
-      <c s="6" r="G508"/>
+      <c s="7" r="E508"/>
+      <c s="7" r="F508"/>
+      <c s="8" r="G508"/>
     </row>
     <row r="509">
-      <c s="8" r="E509"/>
-      <c s="8" r="F509"/>
-      <c s="6" r="G509"/>
+      <c s="7" r="E509"/>
+      <c s="7" r="F509"/>
+      <c s="8" r="G509"/>
     </row>
     <row r="510">
-      <c s="8" r="E510"/>
-      <c s="8" r="F510"/>
-      <c s="6" r="G510"/>
+      <c s="7" r="E510"/>
+      <c s="7" r="F510"/>
+      <c s="8" r="G510"/>
     </row>
     <row r="511">
-      <c s="8" r="E511"/>
-      <c s="8" r="F511"/>
-      <c s="6" r="G511"/>
+      <c s="7" r="E511"/>
+      <c s="7" r="F511"/>
+      <c s="8" r="G511"/>
     </row>
     <row r="512">
-      <c s="8" r="E512"/>
-      <c s="8" r="F512"/>
-      <c s="6" r="G512"/>
+      <c s="7" r="E512"/>
+      <c s="7" r="F512"/>
+      <c s="8" r="G512"/>
     </row>
     <row r="513">
-      <c s="8" r="E513"/>
-      <c s="8" r="F513"/>
-      <c s="6" r="G513"/>
+      <c s="7" r="E513"/>
+      <c s="7" r="F513"/>
+      <c s="8" r="G513"/>
     </row>
     <row r="514">
-      <c s="8" r="E514"/>
-      <c s="8" r="F514"/>
-      <c s="6" r="G514"/>
+      <c s="7" r="E514"/>
+      <c s="7" r="F514"/>
+      <c s="8" r="G514"/>
     </row>
     <row r="515">
-      <c s="8" r="E515"/>
-      <c s="8" r="F515"/>
-      <c s="6" r="G515"/>
+      <c s="7" r="E515"/>
+      <c s="7" r="F515"/>
+      <c s="8" r="G515"/>
     </row>
     <row r="516">
-      <c s="8" r="E516"/>
-      <c s="8" r="F516"/>
-      <c s="6" r="G516"/>
+      <c s="7" r="E516"/>
+      <c s="7" r="F516"/>
+      <c s="8" r="G516"/>
     </row>
     <row r="517">
-      <c s="8" r="E517"/>
-      <c s="8" r="F517"/>
-      <c s="6" r="G517"/>
+      <c s="7" r="E517"/>
+      <c s="7" r="F517"/>
+      <c s="8" r="G517"/>
     </row>
     <row r="518">
-      <c s="8" r="E518"/>
-      <c s="8" r="F518"/>
-      <c s="6" r="G518"/>
+      <c s="7" r="E518"/>
+      <c s="7" r="F518"/>
+      <c s="8" r="G518"/>
     </row>
     <row r="519">
-      <c s="8" r="E519"/>
-      <c s="8" r="F519"/>
-      <c s="6" r="G519"/>
+      <c s="7" r="E519"/>
+      <c s="7" r="F519"/>
+      <c s="8" r="G519"/>
     </row>
     <row r="520">
-      <c s="8" r="E520"/>
-      <c s="8" r="F520"/>
-      <c s="6" r="G520"/>
+      <c s="7" r="E520"/>
+      <c s="7" r="F520"/>
+      <c s="8" r="G520"/>
     </row>
     <row r="521">
-      <c s="8" r="E521"/>
-      <c s="8" r="F521"/>
-      <c s="6" r="G521"/>
+      <c s="7" r="E521"/>
+      <c s="7" r="F521"/>
+      <c s="8" r="G521"/>
     </row>
     <row r="522">
-      <c s="8" r="E522"/>
-      <c s="8" r="F522"/>
-      <c s="6" r="G522"/>
+      <c s="7" r="E522"/>
+      <c s="7" r="F522"/>
+      <c s="8" r="G522"/>
     </row>
     <row r="523">
-      <c s="8" r="E523"/>
-      <c s="8" r="F523"/>
-      <c s="6" r="G523"/>
+      <c s="7" r="E523"/>
+      <c s="7" r="F523"/>
+      <c s="8" r="G523"/>
     </row>
     <row r="524">
-      <c s="8" r="E524"/>
-      <c s="8" r="F524"/>
-      <c s="6" r="G524"/>
+      <c s="7" r="E524"/>
+      <c s="7" r="F524"/>
+      <c s="8" r="G524"/>
     </row>
     <row r="525">
-      <c s="8" r="E525"/>
-      <c s="8" r="F525"/>
-      <c s="6" r="G525"/>
+      <c s="7" r="E525"/>
+      <c s="7" r="F525"/>
+      <c s="8" r="G525"/>
     </row>
     <row r="526">
-      <c s="8" r="E526"/>
-      <c s="8" r="F526"/>
-      <c s="6" r="G526"/>
+      <c s="7" r="E526"/>
+      <c s="7" r="F526"/>
+      <c s="8" r="G526"/>
     </row>
     <row r="527">
-      <c s="8" r="E527"/>
-      <c s="8" r="F527"/>
-      <c s="6" r="G527"/>
+      <c s="7" r="E527"/>
+      <c s="7" r="F527"/>
+      <c s="8" r="G527"/>
     </row>
     <row r="528">
-      <c s="8" r="E528"/>
-      <c s="8" r="F528"/>
-      <c s="6" r="G528"/>
+      <c s="7" r="E528"/>
+      <c s="7" r="F528"/>
+      <c s="8" r="G528"/>
     </row>
     <row r="529">
-      <c s="8" r="E529"/>
-      <c s="8" r="F529"/>
-      <c s="6" r="G529"/>
+      <c s="7" r="E529"/>
+      <c s="7" r="F529"/>
+      <c s="8" r="G529"/>
     </row>
     <row r="530">
-      <c s="8" r="E530"/>
-      <c s="8" r="F530"/>
-      <c s="6" r="G530"/>
+      <c s="7" r="E530"/>
+      <c s="7" r="F530"/>
+      <c s="8" r="G530"/>
     </row>
     <row r="531">
-      <c s="8" r="E531"/>
-      <c s="8" r="F531"/>
-      <c s="6" r="G531"/>
+      <c s="7" r="E531"/>
+      <c s="7" r="F531"/>
+      <c s="8" r="G531"/>
     </row>
     <row r="532">
-      <c s="8" r="E532"/>
-      <c s="8" r="F532"/>
-      <c s="6" r="G532"/>
+      <c s="7" r="E532"/>
+      <c s="7" r="F532"/>
+      <c s="8" r="G532"/>
     </row>
     <row r="533">
-      <c s="8" r="E533"/>
-      <c s="8" r="F533"/>
-      <c s="6" r="G533"/>
+      <c s="7" r="E533"/>
+      <c s="7" r="F533"/>
+      <c s="8" r="G533"/>
     </row>
     <row r="534">
-      <c s="8" r="E534"/>
-      <c s="8" r="F534"/>
-      <c s="6" r="G534"/>
+      <c s="7" r="E534"/>
+      <c s="7" r="F534"/>
+      <c s="8" r="G534"/>
     </row>
     <row r="535">
-      <c s="8" r="E535"/>
-      <c s="8" r="F535"/>
-      <c s="6" r="G535"/>
+      <c s="7" r="E535"/>
+      <c s="7" r="F535"/>
+      <c s="8" r="G535"/>
     </row>
     <row r="536">
-      <c s="8" r="E536"/>
-      <c s="8" r="F536"/>
-      <c s="6" r="G536"/>
+      <c s="7" r="E536"/>
+      <c s="7" r="F536"/>
+      <c s="8" r="G536"/>
     </row>
     <row r="537">
-      <c s="8" r="E537"/>
-      <c s="8" r="F537"/>
-      <c s="6" r="G537"/>
+      <c s="7" r="E537"/>
+      <c s="7" r="F537"/>
+      <c s="8" r="G537"/>
     </row>
     <row r="538">
-      <c s="8" r="E538"/>
-      <c s="8" r="F538"/>
-      <c s="6" r="G538"/>
+      <c s="7" r="E538"/>
+      <c s="7" r="F538"/>
+      <c s="8" r="G538"/>
     </row>
     <row r="539">
-      <c s="8" r="E539"/>
-      <c s="8" r="F539"/>
-      <c s="6" r="G539"/>
+      <c s="7" r="E539"/>
+      <c s="7" r="F539"/>
+      <c s="8" r="G539"/>
     </row>
     <row r="540">
-      <c s="8" r="E540"/>
-      <c s="8" r="F540"/>
-      <c s="6" r="G540"/>
+      <c s="7" r="E540"/>
+      <c s="7" r="F540"/>
+      <c s="8" r="G540"/>
     </row>
     <row r="541">
-      <c s="8" r="E541"/>
-      <c s="8" r="F541"/>
-      <c s="6" r="G541"/>
+      <c s="7" r="E541"/>
+      <c s="7" r="F541"/>
+      <c s="8" r="G541"/>
     </row>
     <row r="542">
-      <c s="8" r="E542"/>
-      <c s="8" r="F542"/>
-      <c s="6" r="G542"/>
+      <c s="7" r="E542"/>
+      <c s="7" r="F542"/>
+      <c s="8" r="G542"/>
     </row>
     <row r="543">
-      <c s="8" r="E543"/>
-      <c s="8" r="F543"/>
-      <c s="6" r="G543"/>
+      <c s="7" r="E543"/>
+      <c s="7" r="F543"/>
+      <c s="8" r="G543"/>
     </row>
     <row r="544">
-      <c s="8" r="E544"/>
-      <c s="8" r="F544"/>
-      <c s="6" r="G544"/>
+      <c s="7" r="E544"/>
+      <c s="7" r="F544"/>
+      <c s="8" r="G544"/>
     </row>
     <row r="545">
-      <c s="8" r="E545"/>
-      <c s="8" r="F545"/>
-      <c s="6" r="G545"/>
+      <c s="7" r="E545"/>
+      <c s="7" r="F545"/>
+      <c s="8" r="G545"/>
     </row>
     <row r="546">
-      <c s="8" r="E546"/>
-      <c s="8" r="F546"/>
-      <c s="6" r="G546"/>
+      <c s="7" r="E546"/>
+      <c s="7" r="F546"/>
+      <c s="8" r="G546"/>
     </row>
     <row r="547">
-      <c s="8" r="E547"/>
-      <c s="8" r="F547"/>
-      <c s="6" r="G547"/>
+      <c s="7" r="E547"/>
+      <c s="7" r="F547"/>
+      <c s="8" r="G547"/>
     </row>
     <row r="548">
-      <c s="8" r="E548"/>
-      <c s="8" r="F548"/>
-      <c s="6" r="G548"/>
+      <c s="7" r="E548"/>
+      <c s="7" r="F548"/>
+      <c s="8" r="G548"/>
     </row>
     <row r="549">
-      <c s="8" r="E549"/>
-      <c s="8" r="F549"/>
-      <c s="6" r="G549"/>
+      <c s="7" r="E549"/>
+      <c s="7" r="F549"/>
+      <c s="8" r="G549"/>
     </row>
     <row r="550">
-      <c s="8" r="E550"/>
-      <c s="8" r="F550"/>
-      <c s="6" r="G550"/>
+      <c s="7" r="E550"/>
+      <c s="7" r="F550"/>
+      <c s="8" r="G550"/>
     </row>
     <row r="551">
-      <c s="8" r="E551"/>
-      <c s="8" r="F551"/>
-      <c s="6" r="G551"/>
+      <c s="7" r="E551"/>
+      <c s="7" r="F551"/>
+      <c s="8" r="G551"/>
     </row>
     <row r="552">
-      <c s="8" r="E552"/>
-      <c s="8" r="F552"/>
-      <c s="6" r="G552"/>
+      <c s="7" r="E552"/>
+      <c s="7" r="F552"/>
+      <c s="8" r="G552"/>
     </row>
     <row r="553">
-      <c s="8" r="E553"/>
-      <c s="8" r="F553"/>
-      <c s="6" r="G553"/>
+      <c s="7" r="E553"/>
+      <c s="7" r="F553"/>
+      <c s="8" r="G553"/>
     </row>
     <row r="554">
-      <c s="8" r="E554"/>
-      <c s="8" r="F554"/>
-      <c s="6" r="G554"/>
+      <c s="7" r="E554"/>
+      <c s="7" r="F554"/>
+      <c s="8" r="G554"/>
     </row>
     <row r="555">
-      <c s="8" r="E555"/>
-      <c s="8" r="F555"/>
-      <c s="6" r="G555"/>
+      <c s="7" r="E555"/>
+      <c s="7" r="F555"/>
+      <c s="8" r="G555"/>
     </row>
     <row r="556">
-      <c s="8" r="E556"/>
-      <c s="8" r="F556"/>
-      <c s="6" r="G556"/>
+      <c s="7" r="E556"/>
+      <c s="7" r="F556"/>
+      <c s="8" r="G556"/>
     </row>
     <row r="557">
-      <c s="8" r="E557"/>
-      <c s="8" r="F557"/>
-      <c s="6" r="G557"/>
+      <c s="7" r="E557"/>
+      <c s="7" r="F557"/>
+      <c s="8" r="G557"/>
     </row>
     <row r="558">
-      <c s="8" r="E558"/>
-      <c s="8" r="F558"/>
-      <c s="6" r="G558"/>
+      <c s="7" r="E558"/>
+      <c s="7" r="F558"/>
+      <c s="8" r="G558"/>
     </row>
     <row r="559">
-      <c s="8" r="E559"/>
-      <c s="8" r="F559"/>
-      <c s="6" r="G559"/>
+      <c s="7" r="E559"/>
+      <c s="7" r="F559"/>
+      <c s="8" r="G559"/>
     </row>
     <row r="560">
-      <c s="8" r="E560"/>
-      <c s="8" r="F560"/>
-      <c s="6" r="G560"/>
+      <c s="7" r="E560"/>
+      <c s="7" r="F560"/>
+      <c s="8" r="G560"/>
     </row>
     <row r="561">
-      <c s="8" r="E561"/>
-      <c s="8" r="F561"/>
-      <c s="6" r="G561"/>
+      <c s="7" r="E561"/>
+      <c s="7" r="F561"/>
+      <c s="8" r="G561"/>
     </row>
     <row r="562">
-      <c s="8" r="E562"/>
-      <c s="8" r="F562"/>
-      <c s="6" r="G562"/>
+      <c s="7" r="E562"/>
+      <c s="7" r="F562"/>
+      <c s="8" r="G562"/>
     </row>
     <row r="563">
-      <c s="8" r="E563"/>
-      <c s="8" r="F563"/>
-      <c s="6" r="G563"/>
+      <c s="7" r="E563"/>
+      <c s="7" r="F563"/>
+      <c s="8" r="G563"/>
     </row>
     <row r="564">
-      <c s="8" r="E564"/>
-      <c s="8" r="F564"/>
-      <c s="6" r="G564"/>
+      <c s="7" r="E564"/>
+      <c s="7" r="F564"/>
+      <c s="8" r="G564"/>
     </row>
     <row r="565">
-      <c s="8" r="E565"/>
-      <c s="8" r="F565"/>
-      <c s="6" r="G565"/>
+      <c s="7" r="E565"/>
+      <c s="7" r="F565"/>
+      <c s="8" r="G565"/>
     </row>
     <row r="566">
-      <c s="8" r="E566"/>
-      <c s="8" r="F566"/>
-      <c s="6" r="G566"/>
+      <c s="7" r="E566"/>
+      <c s="7" r="F566"/>
+      <c s="8" r="G566"/>
     </row>
     <row r="567">
-      <c s="8" r="E567"/>
-      <c s="8" r="F567"/>
-      <c s="6" r="G567"/>
+      <c s="7" r="E567"/>
+      <c s="7" r="F567"/>
+      <c s="8" r="G567"/>
     </row>
     <row r="568">
-      <c s="8" r="E568"/>
-      <c s="8" r="F568"/>
-      <c s="6" r="G568"/>
+      <c s="7" r="E568"/>
+      <c s="7" r="F568"/>
+      <c s="8" r="G568"/>
     </row>
     <row r="569">
-      <c s="8" r="E569"/>
-      <c s="8" r="F569"/>
-      <c s="6" r="G569"/>
+      <c s="7" r="E569"/>
+      <c s="7" r="F569"/>
+      <c s="8" r="G569"/>
     </row>
     <row r="570">
-      <c s="8" r="E570"/>
-      <c s="8" r="F570"/>
-      <c s="6" r="G570"/>
+      <c s="7" r="E570"/>
+      <c s="7" r="F570"/>
+      <c s="8" r="G570"/>
     </row>
     <row r="571">
-      <c s="8" r="E571"/>
-      <c s="8" r="F571"/>
-      <c s="6" r="G571"/>
+      <c s="7" r="E571"/>
+      <c s="7" r="F571"/>
+      <c s="8" r="G571"/>
     </row>
     <row r="572">
-      <c s="8" r="E572"/>
-      <c s="8" r="F572"/>
-      <c s="6" r="G572"/>
+      <c s="7" r="E572"/>
+      <c s="7" r="F572"/>
+      <c s="8" r="G572"/>
     </row>
     <row r="573">
-      <c s="8" r="E573"/>
-      <c s="8" r="F573"/>
-      <c s="6" r="G573"/>
+      <c s="7" r="E573"/>
+      <c s="7" r="F573"/>
+      <c s="8" r="G573"/>
     </row>
     <row r="574">
-      <c s="8" r="E574"/>
-      <c s="8" r="F574"/>
-      <c s="6" r="G574"/>
+      <c s="7" r="E574"/>
+      <c s="7" r="F574"/>
+      <c s="8" r="G574"/>
     </row>
     <row r="575">
-      <c s="8" r="E575"/>
-      <c s="8" r="F575"/>
-      <c s="6" r="G575"/>
+      <c s="7" r="E575"/>
+      <c s="7" r="F575"/>
+      <c s="8" r="G575"/>
     </row>
     <row r="576">
-      <c s="8" r="E576"/>
-      <c s="8" r="F576"/>
-      <c s="6" r="G576"/>
+      <c s="7" r="E576"/>
+      <c s="7" r="F576"/>
+      <c s="8" r="G576"/>
     </row>
     <row r="577">
-      <c s="8" r="E577"/>
-      <c s="8" r="F577"/>
-      <c s="6" r="G577"/>
+      <c s="7" r="E577"/>
+      <c s="7" r="F577"/>
+      <c s="8" r="G577"/>
     </row>
     <row r="578">
-      <c s="8" r="E578"/>
-      <c s="8" r="F578"/>
-      <c s="6" r="G578"/>
+      <c s="7" r="E578"/>
+      <c s="7" r="F578"/>
+      <c s="8" r="G578"/>
     </row>
     <row r="579">
-      <c s="8" r="E579"/>
-      <c s="8" r="F579"/>
-      <c s="6" r="G579"/>
+      <c s="7" r="E579"/>
+      <c s="7" r="F579"/>
+      <c s="8" r="G579"/>
     </row>
     <row r="580">
-      <c s="8" r="E580"/>
-      <c s="8" r="F580"/>
-      <c s="6" r="G580"/>
+      <c s="7" r="E580"/>
+      <c s="7" r="F580"/>
+      <c s="8" r="G580"/>
     </row>
     <row r="581">
-      <c s="8" r="E581"/>
-      <c s="8" r="F581"/>
-      <c s="6" r="G581"/>
+      <c s="7" r="E581"/>
+      <c s="7" r="F581"/>
+      <c s="8" r="G581"/>
     </row>
     <row r="582">
-      <c s="8" r="E582"/>
-      <c s="8" r="F582"/>
-      <c s="6" r="G582"/>
+      <c s="7" r="E582"/>
+      <c s="7" r="F582"/>
+      <c s="8" r="G582"/>
     </row>
     <row r="583">
-      <c s="8" r="E583"/>
-      <c s="8" r="F583"/>
-      <c s="6" r="G583"/>
+      <c s="7" r="E583"/>
+      <c s="7" r="F583"/>
+      <c s="8" r="G583"/>
     </row>
     <row r="584">
-      <c s="8" r="E584"/>
-      <c s="8" r="F584"/>
-      <c s="6" r="G584"/>
+      <c s="7" r="E584"/>
+      <c s="7" r="F584"/>
+      <c s="8" r="G584"/>
     </row>
     <row r="585">
-      <c s="8" r="E585"/>
-      <c s="8" r="F585"/>
-      <c s="6" r="G585"/>
+      <c s="7" r="E585"/>
+      <c s="7" r="F585"/>
+      <c s="8" r="G585"/>
     </row>
     <row r="586">
-      <c s="8" r="E586"/>
-      <c s="8" r="F586"/>
-      <c s="6" r="G586"/>
+      <c s="7" r="E586"/>
+      <c s="7" r="F586"/>
+      <c s="8" r="G586"/>
     </row>
     <row r="587">
-      <c s="8" r="E587"/>
-      <c s="8" r="F587"/>
-      <c s="6" r="G587"/>
+      <c s="7" r="E587"/>
+      <c s="7" r="F587"/>
+      <c s="8" r="G587"/>
     </row>
     <row r="588">
-      <c s="8" r="E588"/>
-      <c s="8" r="F588"/>
-      <c s="6" r="G588"/>
+      <c s="7" r="E588"/>
+      <c s="7" r="F588"/>
+      <c s="8" r="G588"/>
     </row>
     <row r="589">
-      <c s="8" r="E589"/>
-      <c s="8" r="F589"/>
-      <c s="6" r="G589"/>
+      <c s="7" r="E589"/>
+      <c s="7" r="F589"/>
+      <c s="8" r="G589"/>
     </row>
     <row r="590">
-      <c s="8" r="E590"/>
-      <c s="8" r="F590"/>
-      <c s="6" r="G590"/>
+      <c s="7" r="E590"/>
+      <c s="7" r="F590"/>
+      <c s="8" r="G590"/>
     </row>
     <row r="591">
-      <c s="8" r="E591"/>
-      <c s="8" r="F591"/>
-      <c s="6" r="G591"/>
+      <c s="7" r="E591"/>
+      <c s="7" r="F591"/>
+      <c s="8" r="G591"/>
     </row>
     <row r="592">
-      <c s="8" r="E592"/>
-      <c s="8" r="F592"/>
-      <c s="6" r="G592"/>
+      <c s="7" r="E592"/>
+      <c s="7" r="F592"/>
+      <c s="8" r="G592"/>
     </row>
     <row r="593">
-      <c s="8" r="E593"/>
-      <c s="8" r="F593"/>
-      <c s="6" r="G593"/>
+      <c s="7" r="E593"/>
+      <c s="7" r="F593"/>
+      <c s="8" r="G593"/>
     </row>
     <row r="594">
-      <c s="8" r="E594"/>
-      <c s="8" r="F594"/>
-      <c s="6" r="G594"/>
+      <c s="7" r="E594"/>
+      <c s="7" r="F594"/>
+      <c s="8" r="G594"/>
     </row>
     <row r="595">
-      <c s="8" r="E595"/>
-      <c s="8" r="F595"/>
-      <c s="6" r="G595"/>
+      <c s="7" r="E595"/>
+      <c s="7" r="F595"/>
+      <c s="8" r="G595"/>
     </row>
     <row r="596">
-      <c s="8" r="E596"/>
-      <c s="8" r="F596"/>
-      <c s="6" r="G596"/>
+      <c s="7" r="E596"/>
+      <c s="7" r="F596"/>
+      <c s="8" r="G596"/>
     </row>
     <row r="597">
-      <c s="8" r="E597"/>
-      <c s="8" r="F597"/>
-      <c s="6" r="G597"/>
+      <c s="7" r="E597"/>
+      <c s="7" r="F597"/>
+      <c s="8" r="G597"/>
     </row>
     <row r="598">
-      <c s="8" r="E598"/>
-      <c s="8" r="F598"/>
-      <c s="6" r="G598"/>
+      <c s="7" r="E598"/>
+      <c s="7" r="F598"/>
+      <c s="8" r="G598"/>
     </row>
     <row r="599">
-      <c s="8" r="E599"/>
-      <c s="8" r="F599"/>
-      <c s="6" r="G599"/>
+      <c s="7" r="E599"/>
+      <c s="7" r="F599"/>
+      <c s="8" r="G599"/>
     </row>
     <row r="600">
-      <c s="8" r="E600"/>
-      <c s="8" r="F600"/>
-      <c s="6" r="G600"/>
+      <c s="7" r="E600"/>
+      <c s="7" r="F600"/>
+      <c s="8" r="G600"/>
     </row>
     <row r="601">
-      <c s="8" r="E601"/>
-      <c s="8" r="F601"/>
-      <c s="6" r="G601"/>
+      <c s="7" r="E601"/>
+      <c s="7" r="F601"/>
+      <c s="8" r="G601"/>
     </row>
     <row r="602">
-      <c s="8" r="E602"/>
-      <c s="8" r="F602"/>
-      <c s="6" r="G602"/>
+      <c s="7" r="E602"/>
+      <c s="7" r="F602"/>
+      <c s="8" r="G602"/>
     </row>
     <row r="603">
-      <c s="8" r="E603"/>
-      <c s="8" r="F603"/>
-      <c s="6" r="G603"/>
+      <c s="7" r="E603"/>
+      <c s="7" r="F603"/>
+      <c s="8" r="G603"/>
     </row>
     <row r="604">
-      <c s="8" r="E604"/>
-      <c s="8" r="F604"/>
-      <c s="6" r="G604"/>
+      <c s="7" r="E604"/>
+      <c s="7" r="F604"/>
+      <c s="8" r="G604"/>
     </row>
     <row r="605">
-      <c s="8" r="E605"/>
-      <c s="8" r="F605"/>
-      <c s="6" r="G605"/>
+      <c s="7" r="E605"/>
+      <c s="7" r="F605"/>
+      <c s="8" r="G605"/>
     </row>
     <row r="606">
-      <c s="8" r="E606"/>
-      <c s="8" r="F606"/>
-      <c s="6" r="G606"/>
+      <c s="7" r="E606"/>
+      <c s="7" r="F606"/>
+      <c s="8" r="G606"/>
     </row>
     <row r="607">
-      <c s="8" r="E607"/>
-      <c s="8" r="F607"/>
-      <c s="6" r="G607"/>
+      <c s="7" r="E607"/>
+      <c s="7" r="F607"/>
+      <c s="8" r="G607"/>
     </row>
     <row r="608">
-      <c s="8" r="E608"/>
-      <c s="8" r="F608"/>
-      <c s="6" r="G608"/>
+      <c s="7" r="E608"/>
+      <c s="7" r="F608"/>
+      <c s="8" r="G608"/>
     </row>
     <row r="609">
-      <c s="8" r="E609"/>
-      <c s="8" r="F609"/>
-      <c s="6" r="G609"/>
+      <c s="7" r="E609"/>
+      <c s="7" r="F609"/>
+      <c s="8" r="G609"/>
     </row>
     <row r="610">
-      <c s="8" r="E610"/>
-      <c s="8" r="F610"/>
-      <c s="6" r="G610"/>
+      <c s="7" r="E610"/>
+      <c s="7" r="F610"/>
+      <c s="8" r="G610"/>
     </row>
     <row r="611">
-      <c s="8" r="E611"/>
-      <c s="8" r="F611"/>
-      <c s="6" r="G611"/>
+      <c s="7" r="E611"/>
+      <c s="7" r="F611"/>
+      <c s="8" r="G611"/>
     </row>
     <row r="612">
-      <c s="8" r="E612"/>
-      <c s="8" r="F612"/>
-      <c s="6" r="G612"/>
+      <c s="7" r="E612"/>
+      <c s="7" r="F612"/>
+      <c s="8" r="G612"/>
     </row>
     <row r="613">
-      <c s="8" r="E613"/>
-      <c s="8" r="F613"/>
-      <c s="6" r="G613"/>
+      <c s="7" r="E613"/>
+      <c s="7" r="F613"/>
+      <c s="8" r="G613"/>
     </row>
     <row r="614">
-      <c s="8" r="E614"/>
-      <c s="8" r="F614"/>
-      <c s="6" r="G614"/>
+      <c s="7" r="E614"/>
+      <c s="7" r="F614"/>
+      <c s="8" r="G614"/>
     </row>
     <row r="615">
-      <c s="8" r="E615"/>
-      <c s="8" r="F615"/>
-      <c s="6" r="G615"/>
+      <c s="7" r="E615"/>
+      <c s="7" r="F615"/>
+      <c s="8" r="G615"/>
     </row>
     <row r="616">
-      <c s="8" r="E616"/>
-      <c s="8" r="F616"/>
-      <c s="6" r="G616"/>
+      <c s="7" r="E616"/>
+      <c s="7" r="F616"/>
+      <c s="8" r="G616"/>
     </row>
     <row r="617">
-      <c s="8" r="E617"/>
-      <c s="8" r="F617"/>
-      <c s="6" r="G617"/>
+      <c s="7" r="E617"/>
+      <c s="7" r="F617"/>
+      <c s="8" r="G617"/>
     </row>
     <row r="618">
-      <c s="8" r="E618"/>
-      <c s="8" r="F618"/>
-      <c s="6" r="G618"/>
+      <c s="7" r="E618"/>
+      <c s="7" r="F618"/>
+      <c s="8" r="G618"/>
     </row>
     <row r="619">
-      <c s="8" r="E619"/>
-      <c s="8" r="F619"/>
-      <c s="6" r="G619"/>
+      <c s="7" r="E619"/>
+      <c s="7" r="F619"/>
+      <c s="8" r="G619"/>
     </row>
     <row r="620">
-      <c s="8" r="E620"/>
-      <c s="8" r="F620"/>
-      <c s="6" r="G620"/>
+      <c s="7" r="E620"/>
+      <c s="7" r="F620"/>
+      <c s="8" r="G620"/>
     </row>
     <row r="621">
-      <c s="8" r="E621"/>
-      <c s="8" r="F621"/>
-      <c s="6" r="G621"/>
+      <c s="7" r="E621"/>
+      <c s="7" r="F621"/>
+      <c s="8" r="G621"/>
     </row>
     <row r="622">
-      <c s="8" r="E622"/>
-      <c s="8" r="F622"/>
-      <c s="6" r="G622"/>
+      <c s="7" r="E622"/>
+      <c s="7" r="F622"/>
+      <c s="8" r="G622"/>
     </row>
     <row r="623">
-      <c s="8" r="E623"/>
-      <c s="8" r="F623"/>
-      <c s="6" r="G623"/>
+      <c s="7" r="E623"/>
+      <c s="7" r="F623"/>
+      <c s="8" r="G623"/>
     </row>
     <row r="624">
-      <c s="8" r="E624"/>
-      <c s="8" r="F624"/>
-      <c s="6" r="G624"/>
+      <c s="7" r="E624"/>
+      <c s="7" r="F624"/>
+      <c s="8" r="G624"/>
     </row>
     <row r="625">
-      <c s="8" r="E625"/>
-      <c s="8" r="F625"/>
-      <c s="6" r="G625"/>
+      <c s="7" r="E625"/>
+      <c s="7" r="F625"/>
+      <c s="8" r="G625"/>
     </row>
     <row r="626">
-      <c s="8" r="E626"/>
-      <c s="8" r="F626"/>
-      <c s="6" r="G626"/>
+      <c s="7" r="E626"/>
+      <c s="7" r="F626"/>
+      <c s="8" r="G626"/>
     </row>
     <row r="627">
-      <c s="8" r="E627"/>
-      <c s="8" r="F627"/>
-      <c s="6" r="G627"/>
+      <c s="7" r="E627"/>
+      <c s="7" r="F627"/>
+      <c s="8" r="G627"/>
     </row>
     <row r="628">
-      <c s="8" r="E628"/>
-      <c s="8" r="F628"/>
-      <c s="6" r="G628"/>
+      <c s="7" r="E628"/>
+      <c s="7" r="F628"/>
+      <c s="8" r="G628"/>
     </row>
     <row r="629">
-      <c s="8" r="E629"/>
-      <c s="8" r="F629"/>
-      <c s="6" r="G629"/>
+      <c s="7" r="E629"/>
+      <c s="7" r="F629"/>
+      <c s="8" r="G629"/>
     </row>
     <row r="630">
-      <c s="8" r="E630"/>
-      <c s="8" r="F630"/>
-      <c s="6" r="G630"/>
+      <c s="7" r="E630"/>
+      <c s="7" r="F630"/>
+      <c s="8" r="G630"/>
     </row>
     <row r="631">
-      <c s="8" r="E631"/>
-      <c s="8" r="F631"/>
-      <c s="6" r="G631"/>
+      <c s="7" r="E631"/>
+      <c s="7" r="F631"/>
+      <c s="8" r="G631"/>
     </row>
     <row r="632">
-      <c s="8" r="E632"/>
-      <c s="8" r="F632"/>
-      <c s="6" r="G632"/>
+      <c s="7" r="E632"/>
+      <c s="7" r="F632"/>
+      <c s="8" r="G632"/>
     </row>
     <row r="633">
-      <c s="8" r="E633"/>
-      <c s="8" r="F633"/>
-      <c s="6" r="G633"/>
+      <c s="7" r="E633"/>
+      <c s="7" r="F633"/>
+      <c s="8" r="G633"/>
     </row>
     <row r="634">
-      <c s="8" r="E634"/>
-      <c s="8" r="F634"/>
-      <c s="6" r="G634"/>
+      <c s="7" r="E634"/>
+      <c s="7" r="F634"/>
+      <c s="8" r="G634"/>
     </row>
     <row r="635">
-      <c s="8" r="E635"/>
-      <c s="8" r="F635"/>
-      <c s="6" r="G635"/>
+      <c s="7" r="E635"/>
+      <c s="7" r="F635"/>
+      <c s="8" r="G635"/>
     </row>
     <row r="636">
-      <c s="8" r="E636"/>
-      <c s="8" r="F636"/>
-      <c s="6" r="G636"/>
+      <c s="7" r="E636"/>
+      <c s="7" r="F636"/>
+      <c s="8" r="G636"/>
     </row>
     <row r="637">
-      <c s="8" r="E637"/>
-      <c s="8" r="F637"/>
-      <c s="6" r="G637"/>
+      <c s="7" r="E637"/>
+      <c s="7" r="F637"/>
+      <c s="8" r="G637"/>
     </row>
     <row r="638">
-      <c s="8" r="E638"/>
-      <c s="8" r="F638"/>
-      <c s="6" r="G638"/>
+      <c s="7" r="E638"/>
+      <c s="7" r="F638"/>
+      <c s="8" r="G638"/>
     </row>
     <row r="639">
-      <c s="8" r="E639"/>
-      <c s="8" r="F639"/>
-      <c s="6" r="G639"/>
+      <c s="7" r="E639"/>
+      <c s="7" r="F639"/>
+      <c s="8" r="G639"/>
     </row>
     <row r="640">
-      <c s="8" r="E640"/>
-      <c s="8" r="F640"/>
-      <c s="6" r="G640"/>
+      <c s="7" r="E640"/>
+      <c s="7" r="F640"/>
+      <c s="8" r="G640"/>
     </row>
     <row r="641">
-      <c s="8" r="E641"/>
-      <c s="8" r="F641"/>
-      <c s="6" r="G641"/>
+      <c s="7" r="E641"/>
+      <c s="7" r="F641"/>
+      <c s="8" r="G641"/>
     </row>
     <row r="642">
-      <c s="8" r="E642"/>
-      <c s="8" r="F642"/>
-      <c s="6" r="G642"/>
+      <c s="7" r="E642"/>
+      <c s="7" r="F642"/>
+      <c s="8" r="G642"/>
     </row>
     <row r="643">
-      <c s="8" r="E643"/>
-      <c s="8" r="F643"/>
-      <c s="6" r="G643"/>
+      <c s="7" r="E643"/>
+      <c s="7" r="F643"/>
+      <c s="8" r="G643"/>
     </row>
     <row r="644">
-      <c s="8" r="E644"/>
-      <c s="8" r="F644"/>
-      <c s="6" r="G644"/>
+      <c s="7" r="E644"/>
+      <c s="7" r="F644"/>
+      <c s="8" r="G644"/>
     </row>
     <row r="645">
-      <c s="8" r="E645"/>
-      <c s="8" r="F645"/>
-      <c s="6" r="G645"/>
+      <c s="7" r="E645"/>
+      <c s="7" r="F645"/>
+      <c s="8" r="G645"/>
     </row>
     <row r="646">
-      <c s="8" r="E646"/>
-      <c s="8" r="F646"/>
-      <c s="6" r="G646"/>
+      <c s="7" r="E646"/>
+      <c s="7" r="F646"/>
+      <c s="8" r="G646"/>
     </row>
     <row r="647">
-      <c s="8" r="E647"/>
-      <c s="8" r="F647"/>
-      <c s="6" r="G647"/>
+      <c s="7" r="E647"/>
+      <c s="7" r="F647"/>
+      <c s="8" r="G647"/>
     </row>
     <row r="648">
-      <c s="8" r="E648"/>
-      <c s="8" r="F648"/>
-      <c s="6" r="G648"/>
+      <c s="7" r="E648"/>
+      <c s="7" r="F648"/>
+      <c s="8" r="G648"/>
     </row>
     <row r="649">
-      <c s="8" r="E649"/>
-      <c s="8" r="F649"/>
-      <c s="6" r="G649"/>
+      <c s="7" r="E649"/>
+      <c s="7" r="F649"/>
+      <c s="8" r="G649"/>
     </row>
     <row r="650">
-      <c s="8" r="E650"/>
-      <c s="8" r="F650"/>
-      <c s="6" r="G650"/>
+      <c s="7" r="E650"/>
+      <c s="7" r="F650"/>
+      <c s="8" r="G650"/>
     </row>
     <row r="651">
-      <c s="8" r="E651"/>
-      <c s="8" r="F651"/>
-      <c s="6" r="G651"/>
+      <c s="7" r="E651"/>
+      <c s="7" r="F651"/>
+      <c s="8" r="G651"/>
     </row>
     <row r="652">
-      <c s="8" r="E652"/>
-      <c s="8" r="F652"/>
-      <c s="6" r="G652"/>
+      <c s="7" r="E652"/>
+      <c s="7" r="F652"/>
+      <c s="8" r="G652"/>
     </row>
     <row r="653">
-      <c s="8" r="E653"/>
-      <c s="8" r="F653"/>
-      <c s="6" r="G653"/>
+      <c s="7" r="E653"/>
+      <c s="7" r="F653"/>
+      <c s="8" r="G653"/>
     </row>
     <row r="654">
-      <c s="8" r="E654"/>
-      <c s="8" r="F654"/>
-      <c s="6" r="G654"/>
+      <c s="7" r="E654"/>
+      <c s="7" r="F654"/>
+      <c s="8" r="G654"/>
     </row>
     <row r="655">
-      <c s="8" r="E655"/>
-      <c s="8" r="F655"/>
-      <c s="6" r="G655"/>
+      <c s="7" r="E655"/>
+      <c s="7" r="F655"/>
+      <c s="8" r="G655"/>
     </row>
     <row r="656">
-      <c s="8" r="E656"/>
-      <c s="8" r="F656"/>
-      <c s="6" r="G656"/>
+      <c s="7" r="E656"/>
+      <c s="7" r="F656"/>
+      <c s="8" r="G656"/>
     </row>
     <row r="657">
-      <c s="8" r="E657"/>
-      <c s="8" r="F657"/>
-      <c s="6" r="G657"/>
+      <c s="7" r="E657"/>
+      <c s="7" r="F657"/>
+      <c s="8" r="G657"/>
     </row>
     <row r="658">
-      <c s="8" r="E658"/>
-      <c s="8" r="F658"/>
-      <c s="6" r="G658"/>
+      <c s="7" r="E658"/>
+      <c s="7" r="F658"/>
+      <c s="8" r="G658"/>
     </row>
     <row r="659">
-      <c s="8" r="E659"/>
-      <c s="8" r="F659"/>
-      <c s="6" r="G659"/>
+      <c s="7" r="E659"/>
+      <c s="7" r="F659"/>
+      <c s="8" r="G659"/>
     </row>
     <row r="660">
-      <c s="8" r="E660"/>
-      <c s="8" r="F660"/>
-      <c s="6" r="G660"/>
+      <c s="7" r="E660"/>
+      <c s="7" r="F660"/>
+      <c s="8" r="G660"/>
     </row>
     <row r="661">
-      <c s="8" r="E661"/>
-      <c s="8" r="F661"/>
-      <c s="6" r="G661"/>
+      <c s="7" r="E661"/>
+      <c s="7" r="F661"/>
+      <c s="8" r="G661"/>
     </row>
     <row r="662">
-      <c s="8" r="E662"/>
-      <c s="8" r="F662"/>
-      <c s="6" r="G662"/>
+      <c s="7" r="E662"/>
+      <c s="7" r="F662"/>
+      <c s="8" r="G662"/>
     </row>
     <row r="663">
-      <c s="8" r="E663"/>
-      <c s="8" r="F663"/>
-      <c s="6" r="G663"/>
+      <c s="7" r="E663"/>
+      <c s="7" r="F663"/>
+      <c s="8" r="G663"/>
     </row>
     <row r="664">
-      <c s="8" r="E664"/>
-      <c s="8" r="F664"/>
-      <c s="6" r="G664"/>
+      <c s="7" r="E664"/>
+      <c s="7" r="F664"/>
+      <c s="8" r="G664"/>
     </row>
     <row r="665">
-      <c s="8" r="E665"/>
-      <c s="8" r="F665"/>
-      <c s="6" r="G665"/>
+      <c s="7" r="E665"/>
+      <c s="7" r="F665"/>
+      <c s="8" r="G665"/>
     </row>
     <row r="666">
-      <c s="8" r="E666"/>
-      <c s="8" r="F666"/>
-      <c s="6" r="G666"/>
+      <c s="7" r="E666"/>
+      <c s="7" r="F666"/>
+      <c s="8" r="G666"/>
     </row>
     <row r="667">
-      <c s="8" r="E667"/>
-      <c s="8" r="F667"/>
-      <c s="6" r="G667"/>
+      <c s="7" r="E667"/>
+      <c s="7" r="F667"/>
+      <c s="8" r="G667"/>
     </row>
     <row r="668">
-      <c s="8" r="E668"/>
-      <c s="8" r="F668"/>
-      <c s="6" r="G668"/>
+      <c s="7" r="E668"/>
+      <c s="7" r="F668"/>
+      <c s="8" r="G668"/>
     </row>
     <row r="669">
-      <c s="8" r="E669"/>
-      <c s="8" r="F669"/>
-      <c s="6" r="G669"/>
+      <c s="7" r="E669"/>
+      <c s="7" r="F669"/>
+      <c s="8" r="G669"/>
     </row>
     <row r="670">
-      <c s="8" r="E670"/>
-      <c s="8" r="F670"/>
-      <c s="6" r="G670"/>
+      <c s="7" r="E670"/>
+      <c s="7" r="F670"/>
+      <c s="8" r="G670"/>
     </row>
     <row r="671">
-      <c s="8" r="E671"/>
-      <c s="8" r="F671"/>
-      <c s="6" r="G671"/>
+      <c s="7" r="E671"/>
+      <c s="7" r="F671"/>
+      <c s="8" r="G671"/>
     </row>
     <row r="672">
-      <c s="8" r="E672"/>
-      <c s="8" r="F672"/>
-      <c s="6" r="G672"/>
+      <c s="7" r="E672"/>
+      <c s="7" r="F672"/>
+      <c s="8" r="G672"/>
     </row>
     <row r="673">
-      <c s="8" r="E673"/>
-      <c s="8" r="F673"/>
-      <c s="6" r="G673"/>
+      <c s="7" r="E673"/>
+      <c s="7" r="F673"/>
+      <c s="8" r="G673"/>
     </row>
     <row r="674">
-      <c s="8" r="E674"/>
-      <c s="8" r="F674"/>
-      <c s="6" r="G674"/>
+      <c s="7" r="E674"/>
+      <c s="7" r="F674"/>
+      <c s="8" r="G674"/>
     </row>
     <row r="675">
-      <c s="8" r="E675"/>
-      <c s="8" r="F675"/>
-      <c s="6" r="G675"/>
+      <c s="7" r="E675"/>
+      <c s="7" r="F675"/>
+      <c s="8" r="G675"/>
     </row>
     <row r="676">
-      <c s="8" r="E676"/>
-      <c s="8" r="F676"/>
-      <c s="6" r="G676"/>
+      <c s="7" r="E676"/>
+      <c s="7" r="F676"/>
+      <c s="8" r="G676"/>
     </row>
     <row r="677">
-      <c s="8" r="E677"/>
-      <c s="8" r="F677"/>
-      <c s="6" r="G677"/>
+      <c s="7" r="E677"/>
+      <c s="7" r="F677"/>
+      <c s="8" r="G677"/>
     </row>
     <row r="678">
-      <c s="8" r="E678"/>
-      <c s="8" r="F678"/>
-      <c s="6" r="G678"/>
+      <c s="7" r="E678"/>
+      <c s="7" r="F678"/>
+      <c s="8" r="G678"/>
     </row>
     <row r="679">
-      <c s="8" r="E679"/>
-      <c s="8" r="F679"/>
-      <c s="6" r="G679"/>
+      <c s="7" r="E679"/>
+      <c s="7" r="F679"/>
+      <c s="8" r="G679"/>
     </row>
     <row r="680">
-      <c s="8" r="E680"/>
-      <c s="8" r="F680"/>
-      <c s="6" r="G680"/>
+      <c s="7" r="E680"/>
+      <c s="7" r="F680"/>
+      <c s="8" r="G680"/>
     </row>
     <row r="681">
-      <c s="8" r="E681"/>
-      <c s="8" r="F681"/>
-      <c s="6" r="G681"/>
+      <c s="7" r="E681"/>
+      <c s="7" r="F681"/>
+      <c s="8" r="G681"/>
     </row>
     <row r="682">
-      <c s="8" r="E682"/>
-      <c s="8" r="F682"/>
-      <c s="6" r="G682"/>
+      <c s="7" r="E682"/>
+      <c s="7" r="F682"/>
+      <c s="8" r="G682"/>
     </row>
     <row r="683">
-      <c s="8" r="E683"/>
-      <c s="8" r="F683"/>
-      <c s="6" r="G683"/>
+      <c s="7" r="E683"/>
+      <c s="7" r="F683"/>
+      <c s="8" r="G683"/>
     </row>
     <row r="684">
-      <c s="8" r="E684"/>
-      <c s="8" r="F684"/>
-      <c s="6" r="G684"/>
+      <c s="7" r="E684"/>
+      <c s="7" r="F684"/>
+      <c s="8" r="G684"/>
     </row>
     <row r="685">
-      <c s="8" r="E685"/>
-      <c s="8" r="F685"/>
-      <c s="6" r="G685"/>
+      <c s="7" r="E685"/>
+      <c s="7" r="F685"/>
+      <c s="8" r="G685"/>
     </row>
     <row r="686">
-      <c s="8" r="E686"/>
-      <c s="8" r="F686"/>
-      <c s="6" r="G686"/>
+      <c s="7" r="E686"/>
+      <c s="7" r="F686"/>
+      <c s="8" r="G686"/>
     </row>
     <row r="687">
-      <c s="8" r="E687"/>
-      <c s="8" r="F687"/>
-      <c s="6" r="G687"/>
+      <c s="7" r="E687"/>
+      <c s="7" r="F687"/>
+      <c s="8" r="G687"/>
     </row>
     <row r="688">
-      <c s="8" r="E688"/>
-      <c s="8" r="F688"/>
-      <c s="6" r="G688"/>
+      <c s="7" r="E688"/>
+      <c s="7" r="F688"/>
+      <c s="8" r="G688"/>
     </row>
     <row r="689">
-      <c s="8" r="E689"/>
-      <c s="8" r="F689"/>
-      <c s="6" r="G689"/>
+      <c s="7" r="E689"/>
+      <c s="7" r="F689"/>
+      <c s="8" r="G689"/>
     </row>
     <row r="690">
-      <c s="8" r="E690"/>
-      <c s="8" r="F690"/>
-      <c s="6" r="G690"/>
+      <c s="7" r="E690"/>
+      <c s="7" r="F690"/>
+      <c s="8" r="G690"/>
     </row>
     <row r="691">
-      <c s="8" r="E691"/>
-      <c s="8" r="F691"/>
-      <c s="6" r="G691"/>
+      <c s="7" r="E691"/>
+      <c s="7" r="F691"/>
+      <c s="8" r="G691"/>
     </row>
     <row r="692">
-      <c s="8" r="E692"/>
-      <c s="8" r="F692"/>
-      <c s="6" r="G692"/>
+      <c s="7" r="E692"/>
+      <c s="7" r="F692"/>
+      <c s="8" r="G692"/>
     </row>
     <row r="693">
-      <c s="8" r="E693"/>
-      <c s="8" r="F693"/>
-      <c s="6" r="G693"/>
+      <c s="7" r="E693"/>
+      <c s="7" r="F693"/>
+      <c s="8" r="G693"/>
     </row>
     <row r="694">
-      <c s="8" r="E694"/>
-      <c s="8" r="F694"/>
-      <c s="6" r="G694"/>
+      <c s="7" r="E694"/>
+      <c s="7" r="F694"/>
+      <c s="8" r="G694"/>
     </row>
     <row r="695">
-      <c s="8" r="E695"/>
-      <c s="8" r="F695"/>
-      <c s="6" r="G695"/>
+      <c s="7" r="E695"/>
+      <c s="7" r="F695"/>
+      <c s="8" r="G695"/>
     </row>
     <row r="696">
-      <c s="8" r="E696"/>
-      <c s="8" r="F696"/>
-      <c s="6" r="G696"/>
+      <c s="7" r="E696"/>
+      <c s="7" r="F696"/>
+      <c s="8" r="G696"/>
     </row>
     <row r="697">
-      <c s="8" r="E697"/>
-      <c s="8" r="F697"/>
-      <c s="6" r="G697"/>
+      <c s="7" r="E697"/>
+      <c s="7" r="F697"/>
+      <c s="8" r="G697"/>
     </row>
     <row r="698">
-      <c s="8" r="E698"/>
-      <c s="8" r="F698"/>
-      <c s="6" r="G698"/>
+      <c s="7" r="E698"/>
+      <c s="7" r="F698"/>
+      <c s="8" r="G698"/>
     </row>
     <row r="699">
-      <c s="8" r="E699"/>
-      <c s="8" r="F699"/>
-      <c s="6" r="G699"/>
+      <c s="7" r="E699"/>
+      <c s="7" r="F699"/>
+      <c s="8" r="G699"/>
     </row>
     <row r="700">
-      <c s="8" r="E700"/>
-      <c s="8" r="F700"/>
-      <c s="6" r="G700"/>
+      <c s="7" r="E700"/>
+      <c s="7" r="F700"/>
+      <c s="8" r="G700"/>
     </row>
     <row r="701">
-      <c s="8" r="E701"/>
-      <c s="8" r="F701"/>
-      <c s="6" r="G701"/>
+      <c s="7" r="E701"/>
+      <c s="7" r="F701"/>
+      <c s="8" r="G701"/>
     </row>
     <row r="702">
-      <c s="8" r="E702"/>
-      <c s="8" r="F702"/>
-      <c s="6" r="G702"/>
+      <c s="7" r="E702"/>
+      <c s="7" r="F702"/>
+      <c s="8" r="G702"/>
     </row>
     <row r="703">
-      <c s="8" r="E703"/>
-      <c s="8" r="F703"/>
-      <c s="6" r="G703"/>
+      <c s="7" r="E703"/>
+      <c s="7" r="F703"/>
+      <c s="8" r="G703"/>
     </row>
     <row r="704">
-      <c s="8" r="E704"/>
-      <c s="8" r="F704"/>
-      <c s="6" r="G704"/>
+      <c s="7" r="E704"/>
+      <c s="7" r="F704"/>
+      <c s="8" r="G704"/>
     </row>
     <row r="705">
-      <c s="8" r="E705"/>
-      <c s="8" r="F705"/>
-      <c s="6" r="G705"/>
+      <c s="7" r="E705"/>
+      <c s="7" r="F705"/>
+      <c s="8" r="G705"/>
     </row>
     <row r="706">
-      <c s="8" r="E706"/>
-      <c s="8" r="F706"/>
-      <c s="6" r="G706"/>
+      <c s="7" r="E706"/>
+      <c s="7" r="F706"/>
+      <c s="8" r="G706"/>
     </row>
     <row r="707">
-      <c s="8" r="E707"/>
-      <c s="8" r="F707"/>
-      <c s="6" r="G707"/>
+      <c s="7" r="E707"/>
+      <c s="7" r="F707"/>
+      <c s="8" r="G707"/>
     </row>
     <row r="708">
-      <c s="8" r="E708"/>
-      <c s="8" r="F708"/>
-      <c s="6" r="G708"/>
+      <c s="7" r="E708"/>
+      <c s="7" r="F708"/>
+      <c s="8" r="G708"/>
     </row>
     <row r="709">
-      <c s="8" r="E709"/>
-      <c s="8" r="F709"/>
-      <c s="6" r="G709"/>
+      <c s="7" r="E709"/>
+      <c s="7" r="F709"/>
+      <c s="8" r="G709"/>
     </row>
     <row r="710">
-      <c s="8" r="E710"/>
-      <c s="8" r="F710"/>
-      <c s="6" r="G710"/>
+      <c s="7" r="E710"/>
+      <c s="7" r="F710"/>
+      <c s="8" r="G710"/>
     </row>
     <row r="711">
-      <c s="8" r="E711"/>
-      <c s="8" r="F711"/>
-      <c s="6" r="G711"/>
+      <c s="7" r="E711"/>
+      <c s="7" r="F711"/>
+      <c s="8" r="G711"/>
     </row>
     <row r="712">
-      <c s="8" r="E712"/>
-      <c s="8" r="F712"/>
-      <c s="6" r="G712"/>
+      <c s="7" r="E712"/>
+      <c s="7" r="F712"/>
+      <c s="8" r="G712"/>
     </row>
     <row r="713">
-      <c s="8" r="E713"/>
-      <c s="8" r="F713"/>
-      <c s="6" r="G713"/>
+      <c s="7" r="E713"/>
+      <c s="7" r="F713"/>
+      <c s="8" r="G713"/>
     </row>
     <row r="714">
-      <c s="8" r="E714"/>
-      <c s="8" r="F714"/>
-      <c s="6" r="G714"/>
+      <c s="7" r="E714"/>
+      <c s="7" r="F714"/>
+      <c s="8" r="G714"/>
     </row>
     <row r="715">
-      <c s="8" r="E715"/>
-      <c s="8" r="F715"/>
-      <c s="6" r="G715"/>
+      <c s="7" r="E715"/>
+      <c s="7" r="F715"/>
+      <c s="8" r="G715"/>
     </row>
     <row r="716">
-      <c s="8" r="E716"/>
-      <c s="8" r="F716"/>
-      <c s="6" r="G716"/>
+      <c s="7" r="E716"/>
+      <c s="7" r="F716"/>
+      <c s="8" r="G716"/>
     </row>
     <row r="717">
-      <c s="8" r="E717"/>
-      <c s="8" r="F717"/>
-      <c s="6" r="G717"/>
+      <c s="7" r="E717"/>
+      <c s="7" r="F717"/>
+      <c s="8" r="G717"/>
     </row>
     <row r="718">
-      <c s="8" r="E718"/>
-      <c s="8" r="F718"/>
-      <c s="6" r="G718"/>
+      <c s="7" r="E718"/>
+      <c s="7" r="F718"/>
+      <c s="8" r="G718"/>
     </row>
     <row r="719">
-      <c s="8" r="E719"/>
-      <c s="8" r="F719"/>
-      <c s="6" r="G719"/>
+      <c s="7" r="E719"/>
+      <c s="7" r="F719"/>
+      <c s="8" r="G719"/>
     </row>
     <row r="720">
-      <c s="8" r="E720"/>
-      <c s="8" r="F720"/>
-      <c s="6" r="G720"/>
+      <c s="7" r="E720"/>
+      <c s="7" r="F720"/>
+      <c s="8" r="G720"/>
     </row>
     <row r="721">
-      <c s="8" r="E721"/>
-      <c s="8" r="F721"/>
-      <c s="6" r="G721"/>
+      <c s="7" r="E721"/>
+      <c s="7" r="F721"/>
+      <c s="8" r="G721"/>
     </row>
     <row r="722">
-      <c s="8" r="E722"/>
-      <c s="8" r="F722"/>
-      <c s="6" r="G722"/>
+      <c s="7" r="E722"/>
+      <c s="7" r="F722"/>
+      <c s="8" r="G722"/>
     </row>
     <row r="723">
-      <c s="8" r="E723"/>
-      <c s="8" r="F723"/>
-      <c s="6" r="G723"/>
+      <c s="7" r="E723"/>
+      <c s="7" r="F723"/>
+      <c s="8" r="G723"/>
     </row>
     <row r="724">
-      <c s="8" r="E724"/>
-      <c s="8" r="F724"/>
-      <c s="6" r="G724"/>
+      <c s="7" r="E724"/>
+      <c s="7" r="F724"/>
+      <c s="8" r="G724"/>
     </row>
     <row r="725">
-      <c s="8" r="E725"/>
-      <c s="8" r="F725"/>
-      <c s="6" r="G725"/>
+      <c s="7" r="E725"/>
+      <c s="7" r="F725"/>
+      <c s="8" r="G725"/>
     </row>
     <row r="726">
-      <c s="8" r="E726"/>
-      <c s="8" r="F726"/>
-      <c s="6" r="G726"/>
+      <c s="7" r="E726"/>
+      <c s="7" r="F726"/>
+      <c s="8" r="G726"/>
     </row>
     <row r="727">
-      <c s="8" r="E727"/>
-      <c s="8" r="F727"/>
-      <c s="6" r="G727"/>
+      <c s="7" r="E727"/>
+      <c s="7" r="F727"/>
+      <c s="8" r="G727"/>
     </row>
     <row r="728">
-      <c s="8" r="E728"/>
-      <c s="8" r="F728"/>
-      <c s="6" r="G728"/>
+      <c s="7" r="E728"/>
+      <c s="7" r="F728"/>
+      <c s="8" r="G728"/>
     </row>
     <row r="729">
-      <c s="8" r="E729"/>
-      <c s="8" r="F729"/>
-      <c s="6" r="G729"/>
+      <c s="7" r="E729"/>
+      <c s="7" r="F729"/>
+      <c s="8" r="G729"/>
     </row>
     <row r="730">
-      <c s="8" r="E730"/>
-      <c s="8" r="F730"/>
-      <c s="6" r="G730"/>
+      <c s="7" r="E730"/>
+      <c s="7" r="F730"/>
+      <c s="8" r="G730"/>
     </row>
     <row r="731">
-      <c s="8" r="E731"/>
-      <c s="8" r="F731"/>
-      <c s="6" r="G731"/>
+      <c s="7" r="E731"/>
+      <c s="7" r="F731"/>
+      <c s="8" r="G731"/>
     </row>
     <row r="732">
-      <c s="8" r="E732"/>
-      <c s="8" r="F732"/>
-      <c s="6" r="G732"/>
+      <c s="7" r="E732"/>
+      <c s="7" r="F732"/>
+      <c s="8" r="G732"/>
     </row>
     <row r="733">
-      <c s="8" r="E733"/>
-      <c s="8" r="F733"/>
-      <c s="6" r="G733"/>
+      <c s="7" r="E733"/>
+      <c s="7" r="F733"/>
+      <c s="8" r="G733"/>
     </row>
     <row r="734">
-      <c s="8" r="E734"/>
-      <c s="8" r="F734"/>
-      <c s="6" r="G734"/>
+      <c s="7" r="E734"/>
+      <c s="7" r="F734"/>
+      <c s="8" r="G734"/>
     </row>
     <row r="735">
-      <c s="8" r="E735"/>
-      <c s="8" r="F735"/>
-      <c s="6" r="G735"/>
+      <c s="7" r="E735"/>
+      <c s="7" r="F735"/>
+      <c s="8" r="G735"/>
     </row>
     <row r="736">
-      <c s="8" r="E736"/>
-      <c s="8" r="F736"/>
-      <c s="6" r="G736"/>
+      <c s="7" r="E736"/>
+      <c s="7" r="F736"/>
+      <c s="8" r="G736"/>
     </row>
     <row r="737">
-      <c s="8" r="E737"/>
-      <c s="8" r="F737"/>
-      <c s="6" r="G737"/>
+      <c s="7" r="E737"/>
+      <c s="7" r="F737"/>
+      <c s="8" r="G737"/>
     </row>
     <row r="738">
-      <c s="8" r="E738"/>
-      <c s="8" r="F738"/>
-      <c s="6" r="G738"/>
+      <c s="7" r="E738"/>
+      <c s="7" r="F738"/>
+      <c s="8" r="G738"/>
     </row>
     <row r="739">
-      <c s="8" r="E739"/>
-      <c s="8" r="F739"/>
-      <c s="6" r="G739"/>
+      <c s="7" r="E739"/>
+      <c s="7" r="F739"/>
+      <c s="8" r="G739"/>
     </row>
     <row r="740">
-      <c s="8" r="E740"/>
-      <c s="8" r="F740"/>
-      <c s="6" r="G740"/>
+      <c s="7" r="E740"/>
+      <c s="7" r="F740"/>
+      <c s="8" r="G740"/>
     </row>
     <row r="741">
-      <c s="8" r="E741"/>
-      <c s="8" r="F741"/>
-      <c s="6" r="G741"/>
+      <c s="7" r="E741"/>
+      <c s="7" r="F741"/>
+      <c s="8" r="G741"/>
     </row>
     <row r="742">
-      <c s="8" r="E742"/>
-      <c s="8" r="F742"/>
-      <c s="6" r="G742"/>
+      <c s="7" r="E742"/>
+      <c s="7" r="F742"/>
+      <c s="8" r="G742"/>
     </row>
     <row r="743">
-      <c s="8" r="E743"/>
-      <c s="8" r="F743"/>
-      <c s="6" r="G743"/>
+      <c s="7" r="E743"/>
+      <c s="7" r="F743"/>
+      <c s="8" r="G743"/>
     </row>
     <row r="744">
-      <c s="8" r="E744"/>
-      <c s="8" r="F744"/>
-      <c s="6" r="G744"/>
+      <c s="7" r="E744"/>
+      <c s="7" r="F744"/>
+      <c s="8" r="G744"/>
     </row>
     <row r="745">
-      <c s="8" r="E745"/>
-      <c s="8" r="F745"/>
-      <c s="6" r="G745"/>
+      <c s="7" r="E745"/>
+      <c s="7" r="F745"/>
+      <c s="8" r="G745"/>
     </row>
     <row r="746">
-      <c s="8" r="E746"/>
-      <c s="8" r="F746"/>
-      <c s="6" r="G746"/>
+      <c s="7" r="E746"/>
+      <c s="7" r="F746"/>
+      <c s="8" r="G746"/>
     </row>
     <row r="747">
-      <c s="8" r="E747"/>
-      <c s="8" r="F747"/>
-      <c s="6" r="G747"/>
+      <c s="7" r="E747"/>
+      <c s="7" r="F747"/>
+      <c s="8" r="G747"/>
     </row>
     <row r="748">
-      <c s="8" r="E748"/>
-      <c s="8" r="F748"/>
-      <c s="6" r="G748"/>
+      <c s="7" r="E748"/>
+      <c s="7" r="F748"/>
+      <c s="8" r="G748"/>
     </row>
     <row r="749">
-      <c s="8" r="E749"/>
-      <c s="8" r="F749"/>
-      <c s="6" r="G749"/>
+      <c s="7" r="E749"/>
+      <c s="7" r="F749"/>
+      <c s="8" r="G749"/>
     </row>
     <row r="750">
-      <c s="8" r="E750"/>
-      <c s="8" r="F750"/>
-      <c s="6" r="G750"/>
+      <c s="7" r="E750"/>
+      <c s="7" r="F750"/>
+      <c s="8" r="G750"/>
     </row>
     <row r="751">
-      <c s="8" r="E751"/>
-      <c s="8" r="F751"/>
-      <c s="6" r="G751"/>
+      <c s="7" r="E751"/>
+      <c s="7" r="F751"/>
+      <c s="8" r="G751"/>
     </row>
     <row r="752">
-      <c s="8" r="E752"/>
-      <c s="8" r="F752"/>
-      <c s="6" r="G752"/>
+      <c s="7" r="E752"/>
+      <c s="7" r="F752"/>
+      <c s="8" r="G752"/>
     </row>
     <row r="753">
-      <c s="8" r="E753"/>
-      <c s="8" r="F753"/>
-      <c s="6" r="G753"/>
+      <c s="7" r="E753"/>
+      <c s="7" r="F753"/>
+      <c s="8" r="G753"/>
     </row>
     <row r="754">
-      <c s="8" r="E754"/>
-      <c s="8" r="F754"/>
-      <c s="6" r="G754"/>
+      <c s="7" r="E754"/>
+      <c s="7" r="F754"/>
+      <c s="8" r="G754"/>
     </row>
     <row r="755">
-      <c s="8" r="E755"/>
-      <c s="8" r="F755"/>
-      <c s="6" r="G755"/>
+      <c s="7" r="E755"/>
+      <c s="7" r="F755"/>
+      <c s="8" r="G755"/>
     </row>
     <row r="756">
-      <c s="8" r="E756"/>
-      <c s="8" r="F756"/>
-      <c s="6" r="G756"/>
+      <c s="7" r="E756"/>
+      <c s="7" r="F756"/>
+      <c s="8" r="G756"/>
     </row>
     <row r="757">
-      <c s="8" r="E757"/>
-      <c s="8" r="F757"/>
-      <c s="6" r="G757"/>
+      <c s="7" r="E757"/>
+      <c s="7" r="F757"/>
+      <c s="8" r="G757"/>
     </row>
     <row r="758">
-      <c s="8" r="E758"/>
-      <c s="8" r="F758"/>
-      <c s="6" r="G758"/>
+      <c s="7" r="E758"/>
+      <c s="7" r="F758"/>
+      <c s="8" r="G758"/>
     </row>
     <row r="759">
-      <c s="8" r="E759"/>
-      <c s="8" r="F759"/>
-      <c s="6" r="G759"/>
+      <c s="7" r="E759"/>
+      <c s="7" r="F759"/>
+      <c s="8" r="G759"/>
     </row>
     <row r="760">
-      <c s="8" r="E760"/>
-      <c s="8" r="F760"/>
-      <c s="6" r="G760"/>
+      <c s="7" r="E760"/>
+      <c s="7" r="F760"/>
+      <c s="8" r="G760"/>
     </row>
     <row r="761">
-      <c s="8" r="E761"/>
-      <c s="8" r="F761"/>
-      <c s="6" r="G761"/>
+      <c s="7" r="E761"/>
+      <c s="7" r="F761"/>
+      <c s="8" r="G761"/>
     </row>
     <row r="762">
-      <c s="8" r="E762"/>
-      <c s="8" r="F762"/>
-      <c s="6" r="G762"/>
+      <c s="7" r="E762"/>
+      <c s="7" r="F762"/>
+      <c s="8" r="G762"/>
     </row>
     <row r="763">
-      <c s="8" r="E763"/>
-      <c s="8" r="F763"/>
-      <c s="6" r="G763"/>
+      <c s="7" r="E763"/>
+      <c s="7" r="F763"/>
+      <c s="8" r="G763"/>
     </row>
     <row r="764">
-      <c s="8" r="E764"/>
-      <c s="8" r="F764"/>
-      <c s="6" r="G764"/>
+      <c s="7" r="E764"/>
+      <c s="7" r="F764"/>
+      <c s="8" r="G764"/>
     </row>
     <row r="765">
-      <c s="8" r="E765"/>
-      <c s="8" r="F765"/>
-      <c s="6" r="G765"/>
+      <c s="7" r="E765"/>
+      <c s="7" r="F765"/>
+      <c s="8" r="G765"/>
     </row>
     <row r="766">
-      <c s="8" r="E766"/>
-      <c s="8" r="F766"/>
-      <c s="6" r="G766"/>
+      <c s="7" r="E766"/>
+      <c s="7" r="F766"/>
+      <c s="8" r="G766"/>
     </row>
     <row r="767">
-      <c s="8" r="E767"/>
-      <c s="8" r="F767"/>
-      <c s="6" r="G767"/>
+      <c s="7" r="E767"/>
+      <c s="7" r="F767"/>
+      <c s="8" r="G767"/>
     </row>
     <row r="768">
-      <c s="8" r="E768"/>
-      <c s="8" r="F768"/>
-      <c s="6" r="G768"/>
+      <c s="7" r="E768"/>
+      <c s="7" r="F768"/>
+      <c s="8" r="G768"/>
     </row>
     <row r="769">
-      <c s="8" r="E769"/>
-      <c s="8" r="F769"/>
-      <c s="6" r="G769"/>
+      <c s="7" r="E769"/>
+      <c s="7" r="F769"/>
+      <c s="8" r="G769"/>
     </row>
     <row r="770">
-      <c s="8" r="E770"/>
-      <c s="8" r="F770"/>
-      <c s="6" r="G770"/>
+      <c s="7" r="E770"/>
+      <c s="7" r="F770"/>
+      <c s="8" r="G770"/>
     </row>
     <row r="771">
-      <c s="8" r="E771"/>
-      <c s="8" r="F771"/>
-      <c s="6" r="G771"/>
+      <c s="7" r="E771"/>
+      <c s="7" r="F771"/>
+      <c s="8" r="G771"/>
     </row>
     <row r="772">
-      <c s="8" r="E772"/>
-      <c s="8" r="F772"/>
-      <c s="6" r="G772"/>
+      <c s="7" r="E772"/>
+      <c s="7" r="F772"/>
+      <c s="8" r="G772"/>
     </row>
     <row r="773">
-      <c s="8" r="E773"/>
-      <c s="8" r="F773"/>
-      <c s="6" r="G773"/>
+      <c s="7" r="E773"/>
+      <c s="7" r="F773"/>
+      <c s="8" r="G773"/>
     </row>
     <row r="774">
-      <c s="8" r="E774"/>
-      <c s="8" r="F774"/>
-      <c s="6" r="G774"/>
+      <c s="7" r="E774"/>
+      <c s="7" r="F774"/>
+      <c s="8" r="G774"/>
     </row>
     <row r="775">
-      <c s="8" r="E775"/>
-      <c s="8" r="F775"/>
-      <c s="6" r="G775"/>
+      <c s="7" r="E775"/>
+      <c s="7" r="F775"/>
+      <c s="8" r="G775"/>
     </row>
     <row r="776">
-      <c s="8" r="E776"/>
-      <c s="8" r="F776"/>
-      <c s="6" r="G776"/>
+      <c s="7" r="E776"/>
+      <c s="7" r="F776"/>
+      <c s="8" r="G776"/>
     </row>
     <row r="777">
-      <c s="8" r="E777"/>
-      <c s="8" r="F777"/>
-      <c s="6" r="G777"/>
+      <c s="7" r="E777"/>
+      <c s="7" r="F777"/>
+      <c s="8" r="G777"/>
     </row>
     <row r="778">
-      <c s="8" r="E778"/>
-      <c s="8" r="F778"/>
-      <c s="6" r="G778"/>
+      <c s="7" r="E778"/>
+      <c s="7" r="F778"/>
+      <c s="8" r="G778"/>
     </row>
     <row r="779">
-      <c s="8" r="E779"/>
-      <c s="8" r="F779"/>
-      <c s="6" r="G779"/>
+      <c s="7" r="E779"/>
+      <c s="7" r="F779"/>
+      <c s="8" r="G779"/>
     </row>
     <row r="780">
-      <c s="8" r="E780"/>
-      <c s="8" r="F780"/>
-      <c s="6" r="G780"/>
+      <c s="7" r="E780"/>
+      <c s="7" r="F780"/>
+      <c s="8" r="G780"/>
     </row>
     <row r="781">
-      <c s="8" r="E781"/>
-      <c s="8" r="F781"/>
-      <c s="6" r="G781"/>
+      <c s="7" r="E781"/>
+      <c s="7" r="F781"/>
+      <c s="8" r="G781"/>
     </row>
     <row r="782">
-      <c s="8" r="E782"/>
-      <c s="8" r="F782"/>
-      <c s="6" r="G782"/>
+      <c s="7" r="E782"/>
+      <c s="7" r="F782"/>
+      <c s="8" r="G782"/>
     </row>
     <row r="783">
-      <c s="8" r="E783"/>
-      <c s="8" r="F783"/>
-      <c s="6" r="G783"/>
+      <c s="7" r="E783"/>
+      <c s="7" r="F783"/>
+      <c s="8" r="G783"/>
     </row>
     <row r="784">
-      <c s="8" r="E784"/>
-      <c s="8" r="F784"/>
-      <c s="6" r="G784"/>
+      <c s="7" r="E784"/>
+      <c s="7" r="F784"/>
+      <c s="8" r="G784"/>
     </row>
     <row r="785">
-      <c s="8" r="E785"/>
-      <c s="8" r="F785"/>
-      <c s="6" r="G785"/>
+      <c s="7" r="E785"/>
+      <c s="7" r="F785"/>
+      <c s="8" r="G785"/>
     </row>
     <row r="786">
-      <c s="8" r="E786"/>
-      <c s="8" r="F786"/>
-      <c s="6" r="G786"/>
+      <c s="7" r="E786"/>
+      <c s="7" r="F786"/>
+      <c s="8" r="G786"/>
     </row>
     <row r="787">
-      <c s="8" r="E787"/>
-      <c s="8" r="F787"/>
-      <c s="6" r="G787"/>
+      <c s="7" r="E787"/>
+      <c s="7" r="F787"/>
+      <c s="8" r="G787"/>
     </row>
     <row r="788">
-      <c s="8" r="E788"/>
-      <c s="8" r="F788"/>
-      <c s="6" r="G788"/>
+      <c s="7" r="E788"/>
+      <c s="7" r="F788"/>
+      <c s="8" r="G788"/>
     </row>
     <row r="789">
-      <c s="8" r="E789"/>
-      <c s="8" r="F789"/>
-      <c s="6" r="G789"/>
+      <c s="7" r="E789"/>
+      <c s="7" r="F789"/>
+      <c s="8" r="G789"/>
     </row>
     <row r="790">
-      <c s="8" r="E790"/>
-      <c s="8" r="F790"/>
-      <c s="6" r="G790"/>
+      <c s="7" r="E790"/>
+      <c s="7" r="F790"/>
+      <c s="8" r="G790"/>
     </row>
     <row r="791">
-      <c s="8" r="E791"/>
-      <c s="8" r="F791"/>
-      <c s="6" r="G791"/>
+      <c s="7" r="E791"/>
+      <c s="7" r="F791"/>
+      <c s="8" r="G791"/>
     </row>
     <row r="792">
-      <c s="8" r="E792"/>
-      <c s="8" r="F792"/>
-      <c s="6" r="G792"/>
+      <c s="7" r="E792"/>
+      <c s="7" r="F792"/>
+      <c s="8" r="G792"/>
     </row>
     <row r="793">
-      <c s="8" r="E793"/>
-      <c s="8" r="F793"/>
-      <c s="6" r="G793"/>
+      <c s="7" r="E793"/>
+      <c s="7" r="F793"/>
+      <c s="8" r="G793"/>
     </row>
     <row r="794">
-      <c s="8" r="E794"/>
-      <c s="8" r="F794"/>
-      <c s="6" r="G794"/>
+      <c s="7" r="E794"/>
+      <c s="7" r="F794"/>
+      <c s="8" r="G794"/>
     </row>
     <row r="795">
-      <c s="8" r="E795"/>
-      <c s="8" r="F795"/>
-      <c s="6" r="G795"/>
+      <c s="7" r="E795"/>
+      <c s="7" r="F795"/>
+      <c s="8" r="G795"/>
     </row>
     <row r="796">
-      <c s="8" r="E796"/>
-      <c s="8" r="F796"/>
-      <c s="6" r="G796"/>
+      <c s="7" r="E796"/>
+      <c s="7" r="F796"/>
+      <c s="8" r="G796"/>
     </row>
     <row r="797">
-      <c s="8" r="E797"/>
-      <c s="8" r="F797"/>
-      <c s="6" r="G797"/>
+      <c s="7" r="E797"/>
+      <c s="7" r="F797"/>
+      <c s="8" r="G797"/>
     </row>
     <row r="798">
-      <c s="8" r="E798"/>
-      <c s="8" r="F798"/>
-      <c s="6" r="G798"/>
+      <c s="7" r="E798"/>
+      <c s="7" r="F798"/>
+      <c s="8" r="G798"/>
     </row>
     <row r="799">
-      <c s="8" r="E799"/>
-      <c s="8" r="F799"/>
-      <c s="6" r="G799"/>
+      <c s="7" r="E799"/>
+      <c s="7" r="F799"/>
+      <c s="8" r="G799"/>
     </row>
     <row r="800">
-      <c s="8" r="E800"/>
-      <c s="8" r="F800"/>
-      <c s="6" r="G800"/>
+      <c s="7" r="E800"/>
+      <c s="7" r="F800"/>
+      <c s="8" r="G800"/>
     </row>
     <row r="801">
-      <c s="8" r="E801"/>
-      <c s="8" r="F801"/>
-      <c s="6" r="G801"/>
+      <c s="7" r="E801"/>
+      <c s="7" r="F801"/>
+      <c s="8" r="G801"/>
     </row>
     <row r="802">
-      <c s="8" r="E802"/>
-      <c s="8" r="F802"/>
-      <c s="6" r="G802"/>
+      <c s="7" r="E802"/>
+      <c s="7" r="F802"/>
+      <c s="8" r="G802"/>
     </row>
     <row r="803">
-      <c s="8" r="E803"/>
-      <c s="8" r="F803"/>
-      <c s="6" r="G803"/>
+      <c s="7" r="E803"/>
+      <c s="7" r="F803"/>
+      <c s="8" r="G803"/>
     </row>
     <row r="804">
-      <c s="8" r="E804"/>
-      <c s="8" r="F804"/>
-      <c s="6" r="G804"/>
+      <c s="7" r="E804"/>
+      <c s="7" r="F804"/>
+      <c s="8" r="G804"/>
     </row>
     <row r="805">
-      <c s="8" r="E805"/>
-      <c s="8" r="F805"/>
-      <c s="6" r="G805"/>
+      <c s="7" r="E805"/>
+      <c s="7" r="F805"/>
+      <c s="8" r="G805"/>
     </row>
     <row r="806">
-      <c s="8" r="E806"/>
-      <c s="8" r="F806"/>
-      <c s="6" r="G806"/>
+      <c s="7" r="E806"/>
+      <c s="7" r="F806"/>
+      <c s="8" r="G806"/>
     </row>
     <row r="807">
-      <c s="8" r="E807"/>
-      <c s="8" r="F807"/>
-      <c s="6" r="G807"/>
+      <c s="7" r="E807"/>
+      <c s="7" r="F807"/>
+      <c s="8" r="G807"/>
     </row>
     <row r="808">
-      <c s="8" r="E808"/>
-      <c s="8" r="F808"/>
-      <c s="6" r="G808"/>
+      <c s="7" r="E808"/>
+      <c s="7" r="F808"/>
+      <c s="8" r="G808"/>
     </row>
     <row r="809">
-      <c s="8" r="E809"/>
-      <c s="8" r="F809"/>
-      <c s="6" r="G809"/>
+      <c s="7" r="E809"/>
+      <c s="7" r="F809"/>
+      <c s="8" r="G809"/>
     </row>
     <row r="810">
-      <c s="8" r="E810"/>
-      <c s="8" r="F810"/>
-      <c s="6" r="G810"/>
+      <c s="7" r="E810"/>
+      <c s="7" r="F810"/>
+      <c s="8" r="G810"/>
     </row>
     <row r="811">
-      <c s="8" r="E811"/>
-      <c s="8" r="F811"/>
-      <c s="6" r="G811"/>
+      <c s="7" r="E811"/>
+      <c s="7" r="F811"/>
+      <c s="8" r="G811"/>
     </row>
     <row r="812">
-      <c s="8" r="E812"/>
-      <c s="8" r="F812"/>
-      <c s="6" r="G812"/>
+      <c s="7" r="E812"/>
+      <c s="7" r="F812"/>
+      <c s="8" r="G812"/>
     </row>
     <row r="813">
-      <c s="8" r="E813"/>
-      <c s="8" r="F813"/>
-      <c s="6" r="G813"/>
+      <c s="7" r="E813"/>
+      <c s="7" r="F813"/>
+      <c s="8" r="G813"/>
     </row>
     <row r="814">
-      <c s="8" r="E814"/>
-      <c s="8" r="F814"/>
-      <c s="6" r="G814"/>
+      <c s="7" r="E814"/>
+      <c s="7" r="F814"/>
+      <c s="8" r="G814"/>
     </row>
     <row r="815">
-      <c s="8" r="E815"/>
-      <c s="8" r="F815"/>
-      <c s="6" r="G815"/>
+      <c s="7" r="E815"/>
+      <c s="7" r="F815"/>
+      <c s="8" r="G815"/>
     </row>
     <row r="816">
-      <c s="8" r="E816"/>
-      <c s="8" r="F816"/>
-      <c s="6" r="G816"/>
+      <c s="7" r="E816"/>
+      <c s="7" r="F816"/>
+      <c s="8" r="G816"/>
     </row>
     <row r="817">
-      <c s="8" r="E817"/>
-      <c s="8" r="F817"/>
-      <c s="6" r="G817"/>
+      <c s="7" r="E817"/>
+      <c s="7" r="F817"/>
+      <c s="8" r="G817"/>
     </row>
     <row r="818">
-      <c s="8" r="E818"/>
-      <c s="8" r="F818"/>
-      <c s="6" r="G818"/>
+      <c s="7" r="E818"/>
+      <c s="7" r="F818"/>
+      <c s="8" r="G818"/>
     </row>
     <row r="819">
-      <c s="8" r="E819"/>
-      <c s="8" r="F819"/>
-      <c s="6" r="G819"/>
+      <c s="7" r="E819"/>
+      <c s="7" r="F819"/>
+      <c s="8" r="G819"/>
     </row>
     <row r="820">
-      <c s="8" r="E820"/>
-      <c s="8" r="F820"/>
-      <c s="6" r="G820"/>
+      <c s="7" r="E820"/>
+      <c s="7" r="F820"/>
+      <c s="8" r="G820"/>
     </row>
     <row r="821">
-      <c s="8" r="E821"/>
-      <c s="8" r="F821"/>
-      <c s="6" r="G821"/>
+      <c s="7" r="E821"/>
+      <c s="7" r="F821"/>
+      <c s="8" r="G821"/>
     </row>
     <row r="822">
-      <c s="8" r="E822"/>
-      <c s="8" r="F822"/>
-      <c s="6" r="G822"/>
+      <c s="7" r="E822"/>
+      <c s="7" r="F822"/>
+      <c s="8" r="G822"/>
     </row>
     <row r="823">
-      <c s="8" r="E823"/>
-      <c s="8" r="F823"/>
-      <c s="6" r="G823"/>
+      <c s="7" r="E823"/>
+      <c s="7" r="F823"/>
+      <c s="8" r="G823"/>
     </row>
     <row r="824">
-      <c s="8" r="E824"/>
-      <c s="8" r="F824"/>
-      <c s="6" r="G824"/>
+      <c s="7" r="E824"/>
+      <c s="7" r="F824"/>
+      <c s="8" r="G824"/>
     </row>
     <row r="825">
-      <c s="8" r="E825"/>
-      <c s="8" r="F825"/>
-      <c s="6" r="G825"/>
+      <c s="7" r="E825"/>
+      <c s="7" r="F825"/>
+      <c s="8" r="G825"/>
     </row>
     <row r="826">
-      <c s="8" r="E826"/>
-      <c s="8" r="F826"/>
-      <c s="6" r="G826"/>
+      <c s="7" r="E826"/>
+      <c s="7" r="F826"/>
+      <c s="8" r="G826"/>
     </row>
     <row r="827">
-      <c s="8" r="E827"/>
-      <c s="8" r="F827"/>
-      <c s="6" r="G827"/>
+      <c s="7" r="E827"/>
+      <c s="7" r="F827"/>
+      <c s="8" r="G827"/>
     </row>
     <row r="828">
-      <c s="8" r="E828"/>
-      <c s="8" r="F828"/>
-      <c s="6" r="G828"/>
+      <c s="7" r="E828"/>
+      <c s="7" r="F828"/>
+      <c s="8" r="G828"/>
     </row>
     <row r="829">
-      <c s="8" r="E829"/>
-      <c s="8" r="F829"/>
-      <c s="6" r="G829"/>
+      <c s="7" r="E829"/>
+      <c s="7" r="F829"/>
+      <c s="8" r="G829"/>
     </row>
     <row r="830">
-      <c s="8" r="E830"/>
-      <c s="8" r="F830"/>
-      <c s="6" r="G830"/>
+      <c s="7" r="E830"/>
+      <c s="7" r="F830"/>
+      <c s="8" r="G830"/>
     </row>
     <row r="831">
-      <c s="8" r="E831"/>
-      <c s="8" r="F831"/>
-      <c s="6" r="G831"/>
+      <c s="7" r="E831"/>
+      <c s="7" r="F831"/>
+      <c s="8" r="G831"/>
     </row>
     <row r="832">
-      <c s="8" r="E832"/>
-      <c s="8" r="F832"/>
-      <c s="6" r="G832"/>
+      <c s="7" r="E832"/>
+      <c s="7" r="F832"/>
+      <c s="8" r="G832"/>
     </row>
     <row r="833">
-      <c s="8" r="E833"/>
-      <c s="8" r="F833"/>
-      <c s="6" r="G833"/>
+      <c s="7" r="E833"/>
+      <c s="7" r="F833"/>
+      <c s="8" r="G833"/>
     </row>
     <row r="834">
-      <c s="8" r="E834"/>
-      <c s="8" r="F834"/>
-      <c s="6" r="G834"/>
+      <c s="7" r="E834"/>
+      <c s="7" r="F834"/>
+      <c s="8" r="G834"/>
     </row>
     <row r="835">
-      <c s="8" r="E835"/>
-      <c s="8" r="F835"/>
-      <c s="6" r="G835"/>
+      <c s="7" r="E835"/>
+      <c s="7" r="F835"/>
+      <c s="8" r="G835"/>
     </row>
     <row r="836">
-      <c s="8" r="E836"/>
-      <c s="8" r="F836"/>
-      <c s="6" r="G836"/>
+      <c s="7" r="E836"/>
+      <c s="7" r="F836"/>
+      <c s="8" r="G836"/>
     </row>
     <row r="837">
-      <c s="8" r="E837"/>
-      <c s="8" r="F837"/>
-      <c s="6" r="G837"/>
+      <c s="7" r="E837"/>
+      <c s="7" r="F837"/>
+      <c s="8" r="G837"/>
     </row>
     <row r="838">
-      <c s="8" r="E838"/>
-      <c s="8" r="F838"/>
-      <c s="6" r="G838"/>
+      <c s="7" r="E838"/>
+      <c s="7" r="F838"/>
+      <c s="8" r="G838"/>
     </row>
     <row r="839">
-      <c s="8" r="E839"/>
-      <c s="8" r="F839"/>
-      <c s="6" r="G839"/>
+      <c s="7" r="E839"/>
+      <c s="7" r="F839"/>
+      <c s="8" r="G839"/>
     </row>
     <row r="840">
-      <c s="8" r="E840"/>
-      <c s="8" r="F840"/>
-      <c s="6" r="G840"/>
+      <c s="7" r="E840"/>
+      <c s="7" r="F840"/>
+      <c s="8" r="G840"/>
     </row>
     <row r="841">
-      <c s="8" r="E841"/>
-      <c s="8" r="F841"/>
-      <c s="6" r="G841"/>
+      <c s="7" r="E841"/>
+      <c s="7" r="F841"/>
+      <c s="8" r="G841"/>
     </row>
     <row r="842">
-      <c s="8" r="E842"/>
-      <c s="8" r="F842"/>
-      <c s="6" r="G842"/>
+      <c s="7" r="E842"/>
+      <c s="7" r="F842"/>
+      <c s="8" r="G842"/>
     </row>
     <row r="843">
-      <c s="8" r="E843"/>
-      <c s="8" r="F843"/>
-      <c s="6" r="G843"/>
+      <c s="7" r="E843"/>
+      <c s="7" r="F843"/>
+      <c s="8" r="G843"/>
     </row>
     <row r="844">
-      <c s="8" r="E844"/>
-      <c s="8" r="F844"/>
-      <c s="6" r="G844"/>
+      <c s="7" r="E844"/>
+      <c s="7" r="F844"/>
+      <c s="8" r="G844"/>
     </row>
     <row r="845">
-      <c s="8" r="E845"/>
-      <c s="8" r="F845"/>
-      <c s="6" r="G845"/>
+      <c s="7" r="E845"/>
+      <c s="7" r="F845"/>
+      <c s="8" r="G845"/>
     </row>
     <row r="846">
-      <c s="8" r="E846"/>
-      <c s="8" r="F846"/>
-      <c s="6" r="G846"/>
+      <c s="7" r="E846"/>
+      <c s="7" r="F846"/>
+      <c s="8" r="G846"/>
     </row>
     <row r="847">
-      <c s="8" r="E847"/>
-      <c s="8" r="F847"/>
-      <c s="6" r="G847"/>
+      <c s="7" r="E847"/>
+      <c s="7" r="F847"/>
+      <c s="8" r="G847"/>
     </row>
     <row r="848">
-      <c s="8" r="E848"/>
-      <c s="8" r="F848"/>
-      <c s="6" r="G848"/>
+      <c s="7" r="E848"/>
+      <c s="7" r="F848"/>
+      <c s="8" r="G848"/>
     </row>
     <row r="849">
-      <c s="8" r="E849"/>
-      <c s="8" r="F849"/>
-      <c s="6" r="G849"/>
+      <c s="7" r="E849"/>
+      <c s="7" r="F849"/>
+      <c s="8" r="G849"/>
     </row>
     <row r="850">
-      <c s="8" r="E850"/>
-      <c s="8" r="F850"/>
-      <c s="6" r="G850"/>
+      <c s="7" r="E850"/>
+      <c s="7" r="F850"/>
+      <c s="8" r="G850"/>
     </row>
     <row r="851">
-      <c s="8" r="E851"/>
-      <c s="8" r="F851"/>
-      <c s="6" r="G851"/>
+      <c s="7" r="E851"/>
+      <c s="7" r="F851"/>
+      <c s="8" r="G851"/>
     </row>
     <row r="852">
-      <c s="8" r="E852"/>
-      <c s="8" r="F852"/>
-      <c s="6" r="G852"/>
+      <c s="7" r="E852"/>
+      <c s="7" r="F852"/>
+      <c s="8" r="G852"/>
     </row>
     <row r="853">
-      <c s="8" r="E853"/>
-      <c s="8" r="F853"/>
-      <c s="6" r="G853"/>
+      <c s="7" r="E853"/>
+      <c s="7" r="F853"/>
+      <c s="8" r="G853"/>
     </row>
     <row r="854">
-      <c s="8" r="E854"/>
-      <c s="8" r="F854"/>
-      <c s="6" r="G854"/>
+      <c s="7" r="E854"/>
+      <c s="7" r="F854"/>
+      <c s="8" r="G854"/>
     </row>
     <row r="855">
-      <c s="8" r="E855"/>
-      <c s="8" r="F855"/>
-      <c s="6" r="G855"/>
+      <c s="7" r="E855"/>
+      <c s="7" r="F855"/>
+      <c s="8" r="G855"/>
     </row>
     <row r="856">
-      <c s="8" r="E856"/>
-      <c s="8" r="F856"/>
-      <c s="6" r="G856"/>
+      <c s="7" r="E856"/>
+      <c s="7" r="F856"/>
+      <c s="8" r="G856"/>
     </row>
     <row r="857">
-      <c s="8" r="E857"/>
-      <c s="8" r="F857"/>
-      <c s="6" r="G857"/>
+      <c s="7" r="E857"/>
+      <c s="7" r="F857"/>
+      <c s="8" r="G857"/>
     </row>
     <row r="858">
-      <c s="8" r="E858"/>
-      <c s="8" r="F858"/>
-      <c s="6" r="G858"/>
+      <c s="7" r="E858"/>
+      <c s="7" r="F858"/>
+      <c s="8" r="G858"/>
     </row>
     <row r="859">
-      <c s="8" r="E859"/>
-      <c s="8" r="F859"/>
-      <c s="6" r="G859"/>
+      <c s="7" r="E859"/>
+      <c s="7" r="F859"/>
+      <c s="8" r="G859"/>
     </row>
     <row r="860">
-      <c s="8" r="E860"/>
-      <c s="8" r="F860"/>
-      <c s="6" r="G860"/>
+      <c s="7" r="E860"/>
+      <c s="7" r="F860"/>
+      <c s="8" r="G860"/>
     </row>
     <row r="861">
-      <c s="8" r="E861"/>
-      <c s="8" r="F861"/>
-      <c s="6" r="G861"/>
+      <c s="7" r="E861"/>
+      <c s="7" r="F861"/>
+      <c s="8" r="G861"/>
     </row>
     <row r="862">
-      <c s="8" r="E862"/>
-      <c s="8" r="F862"/>
-      <c s="6" r="G862"/>
+      <c s="7" r="E862"/>
+      <c s="7" r="F862"/>
+      <c s="8" r="G862"/>
     </row>
     <row r="863">
-      <c s="8" r="E863"/>
-      <c s="8" r="F863"/>
-      <c s="6" r="G863"/>
+      <c s="7" r="E863"/>
+      <c s="7" r="F863"/>
+      <c s="8" r="G863"/>
     </row>
     <row r="864">
-      <c s="8" r="E864"/>
-      <c s="8" r="F864"/>
-      <c s="6" r="G864"/>
+      <c s="7" r="E864"/>
+      <c s="7" r="F864"/>
+      <c s="8" r="G864"/>
     </row>
     <row r="865">
-      <c s="8" r="E865"/>
-      <c s="8" r="F865"/>
-      <c s="6" r="G865"/>
+      <c s="7" r="E865"/>
+      <c s="7" r="F865"/>
+      <c s="8" r="G865"/>
     </row>
     <row r="866">
-      <c s="8" r="E866"/>
-      <c s="8" r="F866"/>
-      <c s="6" r="G866"/>
+      <c s="7" r="E866"/>
+      <c s="7" r="F866"/>
+      <c s="8" r="G866"/>
     </row>
     <row r="867">
-      <c s="8" r="E867"/>
-      <c s="8" r="F867"/>
-      <c s="6" r="G867"/>
+      <c s="7" r="E867"/>
+      <c s="7" r="F867"/>
+      <c s="8" r="G867"/>
     </row>
     <row r="868">
-      <c s="8" r="E868"/>
-      <c s="8" r="F868"/>
-      <c s="6" r="G868"/>
+      <c s="7" r="E868"/>
+      <c s="7" r="F868"/>
+      <c s="8" r="G868"/>
     </row>
     <row r="869">
-      <c s="8" r="E869"/>
-      <c s="8" r="F869"/>
-      <c s="6" r="G869"/>
+      <c s="7" r="E869"/>
+      <c s="7" r="F869"/>
+      <c s="8" r="G869"/>
     </row>
     <row r="870">
-      <c s="8" r="E870"/>
-      <c s="8" r="F870"/>
-      <c s="6" r="G870"/>
+      <c s="7" r="E870"/>
+      <c s="7" r="F870"/>
+      <c s="8" r="G870"/>
     </row>
     <row r="871">
-      <c s="8" r="E871"/>
-      <c s="8" r="F871"/>
-      <c s="6" r="G871"/>
+      <c s="7" r="E871"/>
+      <c s="7" r="F871"/>
+      <c s="8" r="G871"/>
     </row>
     <row r="872">
-      <c s="8" r="E872"/>
-      <c s="8" r="F872"/>
-      <c s="6" r="G872"/>
+      <c s="7" r="E872"/>
+      <c s="7" r="F872"/>
+      <c s="8" r="G872"/>
     </row>
     <row r="873">
-      <c s="8" r="E873"/>
-      <c s="8" r="F873"/>
-      <c s="6" r="G873"/>
+      <c s="7" r="E873"/>
+      <c s="7" r="F873"/>
+      <c s="8" r="G873"/>
     </row>
     <row r="874">
-      <c s="8" r="E874"/>
-      <c s="8" r="F874"/>
-      <c s="6" r="G874"/>
+      <c s="7" r="E874"/>
+      <c s="7" r="F874"/>
+      <c s="8" r="G874"/>
     </row>
     <row r="875">
-      <c s="8" r="E875"/>
-      <c s="8" r="F875"/>
-      <c s="6" r="G875"/>
+      <c s="7" r="E875"/>
+      <c s="7" r="F875"/>
+      <c s="8" r="G875"/>
     </row>
     <row r="876">
-      <c s="8" r="E876"/>
-      <c s="8" r="F876"/>
-      <c s="6" r="G876"/>
+      <c s="7" r="E876"/>
+      <c s="7" r="F876"/>
+      <c s="8" r="G876"/>
     </row>
     <row r="877">
-      <c s="8" r="E877"/>
-      <c s="8" r="F877"/>
-      <c s="6" r="G877"/>
+      <c s="7" r="E877"/>
+      <c s="7" r="F877"/>
+      <c s="8" r="G877"/>
     </row>
     <row r="878">
-      <c s="8" r="E878"/>
-      <c s="8" r="F878"/>
-      <c s="6" r="G878"/>
+      <c s="7" r="E878"/>
+      <c s="7" r="F878"/>
+      <c s="8" r="G878"/>
     </row>
     <row r="879">
-      <c s="8" r="E879"/>
-      <c s="8" r="F879"/>
-      <c s="6" r="G879"/>
+      <c s="7" r="E879"/>
+      <c s="7" r="F879"/>
+      <c s="8" r="G879"/>
     </row>
     <row r="880">
-      <c s="8" r="E880"/>
-      <c s="8" r="F880"/>
-      <c s="6" r="G880"/>
+      <c s="7" r="E880"/>
+      <c s="7" r="F880"/>
+      <c s="8" r="G880"/>
     </row>
     <row r="881">
-      <c s="8" r="E881"/>
-      <c s="8" r="F881"/>
-      <c s="6" r="G881"/>
+      <c s="7" r="E881"/>
+      <c s="7" r="F881"/>
+      <c s="8" r="G881"/>
     </row>
     <row r="882">
-      <c s="8" r="E882"/>
-      <c s="8" r="F882"/>
-      <c s="6" r="G882"/>
+      <c s="7" r="E882"/>
+      <c s="7" r="F882"/>
+      <c s="8" r="G882"/>
     </row>
     <row r="883">
-      <c s="8" r="E883"/>
-      <c s="8" r="F883"/>
-      <c s="6" r="G883"/>
+      <c s="7" r="E883"/>
+      <c s="7" r="F883"/>
+      <c s="8" r="G883"/>
     </row>
     <row r="884">
-      <c s="8" r="E884"/>
-      <c s="8" r="F884"/>
-      <c s="6" r="G884"/>
+      <c s="7" r="E884"/>
+      <c s="7" r="F884"/>
+      <c s="8" r="G884"/>
     </row>
     <row r="885">
-      <c s="8" r="E885"/>
-      <c s="8" r="F885"/>
-      <c s="6" r="G885"/>
+      <c s="7" r="E885"/>
+      <c s="7" r="F885"/>
+      <c s="8" r="G885"/>
     </row>
     <row r="886">
-      <c s="8" r="E886"/>
-      <c s="8" r="F886"/>
-      <c s="6" r="G886"/>
+      <c s="7" r="E886"/>
+      <c s="7" r="F886"/>
+      <c s="8" r="G886"/>
     </row>
     <row r="887">
-      <c s="8" r="E887"/>
-      <c s="8" r="F887"/>
-      <c s="6" r="G887"/>
+      <c s="7" r="E887"/>
+      <c s="7" r="F887"/>
+      <c s="8" r="G887"/>
     </row>
     <row r="888">
-      <c s="8" r="E888"/>
-      <c s="8" r="F888"/>
-      <c s="6" r="G888"/>
+      <c s="7" r="E888"/>
+      <c s="7" r="F888"/>
+      <c s="8" r="G888"/>
     </row>
     <row r="889">
-      <c s="8" r="E889"/>
-      <c s="8" r="F889"/>
-      <c s="6" r="G889"/>
+      <c s="7" r="E889"/>
+      <c s="7" r="F889"/>
+      <c s="8" r="G889"/>
     </row>
     <row r="890">
-      <c s="8" r="E890"/>
-      <c s="8" r="F890"/>
-      <c s="6" r="G890"/>
+      <c s="7" r="E890"/>
+      <c s="7" r="F890"/>
+      <c s="8" r="G890"/>
     </row>
     <row r="891">
-      <c s="8" r="E891"/>
-      <c s="8" r="F891"/>
-      <c s="6" r="G891"/>
+      <c s="7" r="E891"/>
+      <c s="7" r="F891"/>
+      <c s="8" r="G891"/>
     </row>
     <row r="892">
-      <c s="8" r="E892"/>
-      <c s="8" r="F892"/>
-      <c s="6" r="G892"/>
+      <c s="7" r="E892"/>
+      <c s="7" r="F892"/>
+      <c s="8" r="G892"/>
     </row>
     <row r="893">
-      <c s="8" r="E893"/>
-      <c s="8" r="F893"/>
-      <c s="6" r="G893"/>
+      <c s="7" r="E893"/>
+      <c s="7" r="F893"/>
+      <c s="8" r="G893"/>
     </row>
     <row r="894">
-      <c s="8" r="E894"/>
-      <c s="8" r="F894"/>
-      <c s="6" r="G894"/>
+      <c s="7" r="E894"/>
+      <c s="7" r="F894"/>
+      <c s="8" r="G894"/>
     </row>
     <row r="895">
-      <c s="8" r="E895"/>
-      <c s="8" r="F895"/>
-      <c s="6" r="G895"/>
+      <c s="7" r="E895"/>
+      <c s="7" r="F895"/>
+      <c s="8" r="G895"/>
     </row>
     <row r="896">
-      <c s="8" r="E896"/>
-      <c s="8" r="F896"/>
-      <c s="6" r="G896"/>
+      <c s="7" r="E896"/>
+      <c s="7" r="F896"/>
+      <c s="8" r="G896"/>
     </row>
     <row r="897">
-      <c s="8" r="E897"/>
-      <c s="8" r="F897"/>
-      <c s="6" r="G897"/>
+      <c s="7" r="E897"/>
+      <c s="7" r="F897"/>
+      <c s="8" r="G897"/>
     </row>
     <row r="898">
-      <c s="8" r="E898"/>
-      <c s="8" r="F898"/>
-      <c s="6" r="G898"/>
+      <c s="7" r="E898"/>
+      <c s="7" r="F898"/>
+      <c s="8" r="G898"/>
     </row>
     <row r="899">
-      <c s="8" r="E899"/>
-      <c s="8" r="F899"/>
-      <c s="6" r="G899"/>
+      <c s="7" r="E899"/>
+      <c s="7" r="F899"/>
+      <c s="8" r="G899"/>
     </row>
     <row r="900">
-      <c s="8" r="E900"/>
-      <c s="8" r="F900"/>
-      <c s="6" r="G900"/>
+      <c s="7" r="E900"/>
+      <c s="7" r="F900"/>
+      <c s="8" r="G900"/>
     </row>
     <row r="901">
-      <c s="8" r="E901"/>
-      <c s="8" r="F901"/>
-      <c s="6" r="G901"/>
+      <c s="7" r="E901"/>
+      <c s="7" r="F901"/>
+      <c s="8" r="G901"/>
     </row>
     <row r="902">
-      <c s="8" r="E902"/>
-      <c s="8" r="F902"/>
-      <c s="6" r="G902"/>
+      <c s="7" r="E902"/>
+      <c s="7" r="F902"/>
+      <c s="8" r="G902"/>
     </row>
     <row r="903">
-      <c s="8" r="E903"/>
-      <c s="8" r="F903"/>
-      <c s="6" r="G903"/>
+      <c s="7" r="E903"/>
+      <c s="7" r="F903"/>
+      <c s="8" r="G903"/>
     </row>
     <row r="904">
-      <c s="8" r="E904"/>
-      <c s="8" r="F904"/>
-      <c s="6" r="G904"/>
+      <c s="7" r="E904"/>
+      <c s="7" r="F904"/>
+      <c s="8" r="G904"/>
     </row>
     <row r="905">
-      <c s="8" r="E905"/>
-      <c s="8" r="F905"/>
-      <c s="6" r="G905"/>
+      <c s="7" r="E905"/>
+      <c s="7" r="F905"/>
+      <c s="8" r="G905"/>
     </row>
     <row r="906">
-      <c s="8" r="E906"/>
-      <c s="8" r="F906"/>
-      <c s="6" r="G906"/>
+      <c s="7" r="E906"/>
+      <c s="7" r="F906"/>
+      <c s="8" r="G906"/>
     </row>
     <row r="907">
-      <c s="8" r="E907"/>
-      <c s="8" r="F907"/>
-      <c s="6" r="G907"/>
+      <c s="7" r="E907"/>
+      <c s="7" r="F907"/>
+      <c s="8" r="G907"/>
     </row>
     <row r="908">
-      <c s="8" r="E908"/>
-      <c s="8" r="F908"/>
-      <c s="6" r="G908"/>
+      <c s="7" r="E908"/>
+      <c s="7" r="F908"/>
+      <c s="8" r="G908"/>
     </row>
     <row r="909">
-      <c s="8" r="E909"/>
-      <c s="8" r="F909"/>
-      <c s="6" r="G909"/>
+      <c s="7" r="E909"/>
+      <c s="7" r="F909"/>
+      <c s="8" r="G909"/>
     </row>
     <row r="910">
-      <c s="8" r="E910"/>
-      <c s="8" r="F910"/>
-      <c s="6" r="G910"/>
+      <c s="7" r="E910"/>
+      <c s="7" r="F910"/>
+      <c s="8" r="G910"/>
     </row>
     <row r="911">
-      <c s="8" r="E911"/>
-      <c s="8" r="F911"/>
-      <c s="6" r="G911"/>
+      <c s="7" r="E911"/>
+      <c s="7" r="F911"/>
+      <c s="8" r="G911"/>
     </row>
     <row r="912">
-      <c s="8" r="E912"/>
-      <c s="8" r="F912"/>
-      <c s="6" r="G912"/>
+      <c s="7" r="E912"/>
+      <c s="7" r="F912"/>
+      <c s="8" r="G912"/>
     </row>
     <row r="913">
-      <c s="8" r="E913"/>
-      <c s="8" r="F913"/>
-      <c s="6" r="G913"/>
+      <c s="7" r="E913"/>
+      <c s="7" r="F913"/>
+      <c s="8" r="G913"/>
     </row>
     <row r="914">
-      <c s="8" r="E914"/>
-      <c s="8" r="F914"/>
-      <c s="6" r="G914"/>
+      <c s="7" r="E914"/>
+      <c s="7" r="F914"/>
+      <c s="8" r="G914"/>
     </row>
     <row r="915">
-      <c s="8" r="E915"/>
-      <c s="8" r="F915"/>
-      <c s="6" r="G915"/>
+      <c s="7" r="E915"/>
+      <c s="7" r="F915"/>
+      <c s="8" r="G915"/>
     </row>
     <row r="916">
-      <c s="8" r="E916"/>
-      <c s="8" r="F916"/>
-      <c s="6" r="G916"/>
+      <c s="7" r="E916"/>
+      <c s="7" r="F916"/>
+      <c s="8" r="G916"/>
     </row>
     <row r="917">
-      <c s="8" r="E917"/>
-      <c s="8" r="F917"/>
-      <c s="6" r="G917"/>
+      <c s="7" r="E917"/>
+      <c s="7" r="F917"/>
+      <c s="8" r="G917"/>
     </row>
     <row r="918">
-      <c s="8" r="E918"/>
-      <c s="8" r="F918"/>
-      <c s="6" r="G918"/>
+      <c s="7" r="E918"/>
+      <c s="7" r="F918"/>
+      <c s="8" r="G918"/>
     </row>
     <row r="919">
-      <c s="8" r="E919"/>
-      <c s="8" r="F919"/>
-      <c s="6" r="G919"/>
+      <c s="7" r="E919"/>
+      <c s="7" r="F919"/>
+      <c s="8" r="G919"/>
     </row>
     <row r="920">
-      <c s="8" r="E920"/>
-      <c s="8" r="F920"/>
-      <c s="6" r="G920"/>
+      <c s="7" r="E920"/>
+      <c s="7" r="F920"/>
+      <c s="8" r="G920"/>
     </row>
     <row r="921">
-      <c s="8" r="E921"/>
-      <c s="8" r="F921"/>
-      <c s="6" r="G921"/>
+      <c s="7" r="E921"/>
+      <c s="7" r="F921"/>
+      <c s="8" r="G921"/>
     </row>
     <row r="922">
-      <c s="8" r="E922"/>
-      <c s="8" r="F922"/>
-      <c s="6" r="G922"/>
+      <c s="7" r="E922"/>
+      <c s="7" r="F922"/>
+      <c s="8" r="G922"/>
     </row>
     <row r="923">
-      <c s="8" r="E923"/>
-      <c s="8" r="F923"/>
-      <c s="6" r="G923"/>
+      <c s="7" r="E923"/>
+      <c s="7" r="F923"/>
+      <c s="8" r="G923"/>
     </row>
     <row r="924">
-      <c s="8" r="E924"/>
-      <c s="8" r="F924"/>
-      <c s="6" r="G924"/>
+      <c s="7" r="E924"/>
+      <c s="7" r="F924"/>
+      <c s="8" r="G924"/>
     </row>
     <row r="925">
-      <c s="8" r="E925"/>
-      <c s="8" r="F925"/>
-      <c s="6" r="G925"/>
+      <c s="7" r="E925"/>
+      <c s="7" r="F925"/>
+      <c s="8" r="G925"/>
     </row>
     <row r="926">
-      <c s="8" r="E926"/>
-      <c s="8" r="F926"/>
-      <c s="6" r="G926"/>
+      <c s="7" r="E926"/>
+      <c s="7" r="F926"/>
+      <c s="8" r="G926"/>
     </row>
     <row r="927">
-      <c s="8" r="E927"/>
-      <c s="8" r="F927"/>
-      <c s="6" r="G927"/>
+      <c s="7" r="E927"/>
+      <c s="7" r="F927"/>
+      <c s="8" r="G927"/>
     </row>
     <row r="928">
-      <c s="8" r="E928"/>
-      <c s="8" r="F928"/>
-      <c s="6" r="G928"/>
+      <c s="7" r="E928"/>
+      <c s="7" r="F928"/>
+      <c s="8" r="G928"/>
     </row>
     <row r="929">
-      <c s="8" r="E929"/>
-      <c s="8" r="F929"/>
-      <c s="6" r="G929"/>
+      <c s="7" r="E929"/>
+      <c s="7" r="F929"/>
+      <c s="8" r="G929"/>
     </row>
     <row r="930">
-      <c s="8" r="E930"/>
-      <c s="8" r="F930"/>
-      <c s="6" r="G930"/>
+      <c s="7" r="E930"/>
+      <c s="7" r="F930"/>
+      <c s="8" r="G930"/>
     </row>
     <row r="931">
-      <c s="8" r="E931"/>
-      <c s="8" r="F931"/>
-      <c s="6" r="G931"/>
+      <c s="7" r="E931"/>
+      <c s="7" r="F931"/>
+      <c s="8" r="G931"/>
     </row>
     <row r="932">
-      <c s="8" r="E932"/>
-      <c s="8" r="F932"/>
-      <c s="6" r="G932"/>
+      <c s="7" r="E932"/>
+      <c s="7" r="F932"/>
+      <c s="8" r="G932"/>
     </row>
     <row r="933">
-      <c s="8" r="E933"/>
-      <c s="8" r="F933"/>
-      <c s="6" r="G933"/>
+      <c s="7" r="E933"/>
+      <c s="7" r="F933"/>
+      <c s="8" r="G933"/>
     </row>
     <row r="934">
-      <c s="8" r="E934"/>
-      <c s="8" r="F934"/>
-      <c s="6" r="G934"/>
+      <c s="7" r="E934"/>
+      <c s="7" r="F934"/>
+      <c s="8" r="G934"/>
     </row>
     <row r="935">
-      <c s="8" r="E935"/>
-      <c s="8" r="F935"/>
-      <c s="6" r="G935"/>
+      <c s="7" r="E935"/>
+      <c s="7" r="F935"/>
+      <c s="8" r="G935"/>
     </row>
     <row r="936">
-      <c s="8" r="E936"/>
-      <c s="8" r="F936"/>
-      <c s="6" r="G936"/>
+      <c s="7" r="E936"/>
+      <c s="7" r="F936"/>
+      <c s="8" r="G936"/>
     </row>
     <row r="937">
-      <c s="8" r="E937"/>
-      <c s="8" r="F937"/>
-      <c s="6" r="G937"/>
+      <c s="7" r="E937"/>
+      <c s="7" r="F937"/>
+      <c s="8" r="G937"/>
     </row>
     <row r="938">
-      <c s="8" r="E938"/>
-      <c s="8" r="F938"/>
-      <c s="6" r="G938"/>
+      <c s="7" r="E938"/>
+      <c s="7" r="F938"/>
+      <c s="8" r="G938"/>
     </row>
     <row r="939">
-      <c s="8" r="E939"/>
-      <c s="8" r="F939"/>
-      <c s="6" r="G939"/>
+      <c s="7" r="E939"/>
+      <c s="7" r="F939"/>
+      <c s="8" r="G939"/>
     </row>
     <row r="940">
-      <c s="8" r="E940"/>
-      <c s="8" r="F940"/>
-      <c s="6" r="G940"/>
+      <c s="7" r="E940"/>
+      <c s="7" r="F940"/>
+      <c s="8" r="G940"/>
     </row>
     <row r="941">
-      <c s="8" r="E941"/>
-      <c s="8" r="F941"/>
-      <c s="6" r="G941"/>
+      <c s="7" r="E941"/>
+      <c s="7" r="F941"/>
+      <c s="8" r="G941"/>
     </row>
     <row r="942">
-      <c s="8" r="E942"/>
-      <c s="8" r="F942"/>
-      <c s="6" r="G942"/>
+      <c s="7" r="E942"/>
+      <c s="7" r="F942"/>
+      <c s="8" r="G942"/>
     </row>
     <row r="943">
-      <c s="8" r="E943"/>
-      <c s="8" r="F943"/>
-      <c s="6" r="G943"/>
+      <c s="7" r="E943"/>
+      <c s="7" r="F943"/>
+      <c s="8" r="G943"/>
     </row>
     <row r="944">
-      <c s="8" r="E944"/>
-      <c s="8" r="F944"/>
-      <c s="6" r="G944"/>
+      <c s="7" r="E944"/>
+      <c s="7" r="F944"/>
+      <c s="8" r="G944"/>
     </row>
     <row r="945">
-      <c s="8" r="E945"/>
-      <c s="8" r="F945"/>
-      <c s="6" r="G945"/>
+      <c s="7" r="E945"/>
+      <c s="7" r="F945"/>
+      <c s="8" r="G945"/>
     </row>
     <row r="946">
-      <c s="8" r="E946"/>
-      <c s="8" r="F946"/>
-      <c s="6" r="G946"/>
+      <c s="7" r="E946"/>
+      <c s="7" r="F946"/>
+      <c s="8" r="G946"/>
     </row>
     <row r="947">
-      <c s="8" r="E947"/>
-      <c s="8" r="F947"/>
-      <c s="6" r="G947"/>
+      <c s="7" r="E947"/>
+      <c s="7" r="F947"/>
+      <c s="8" r="G947"/>
     </row>
     <row r="948">
-      <c s="8" r="E948"/>
-      <c s="8" r="F948"/>
-      <c s="6" r="G948"/>
+      <c s="7" r="E948"/>
+      <c s="7" r="F948"/>
+      <c s="8" r="G948"/>
     </row>
     <row r="949">
-      <c s="8" r="E949"/>
-      <c s="8" r="F949"/>
-      <c s="6" r="G949"/>
+      <c s="7" r="E949"/>
+      <c s="7" r="F949"/>
+      <c s="8" r="G949"/>
     </row>
     <row r="950">
-      <c s="8" r="E950"/>
-      <c s="8" r="F950"/>
-      <c s="6" r="G950"/>
+      <c s="7" r="E950"/>
+      <c s="7" r="F950"/>
+      <c s="8" r="G950"/>
     </row>
     <row r="951">
-      <c s="8" r="E951"/>
-      <c s="8" r="F951"/>
-      <c s="6" r="G951"/>
+      <c s="7" r="E951"/>
+      <c s="7" r="F951"/>
+      <c s="8" r="G951"/>
     </row>
     <row r="952">
-      <c s="8" r="E952"/>
-      <c s="8" r="F952"/>
-      <c s="6" r="G952"/>
+      <c s="7" r="E952"/>
+      <c s="7" r="F952"/>
+      <c s="8" r="G952"/>
     </row>
     <row r="953">
-      <c s="8" r="E953"/>
-      <c s="8" r="F953"/>
-      <c s="6" r="G953"/>
+      <c s="7" r="E953"/>
+      <c s="7" r="F953"/>
+      <c s="8" r="G953"/>
     </row>
     <row r="954">
-      <c s="8" r="E954"/>
-      <c s="8" r="F954"/>
-      <c s="6" r="G954"/>
+      <c s="7" r="E954"/>
+      <c s="7" r="F954"/>
+      <c s="8" r="G954"/>
     </row>
     <row r="955">
-      <c s="8" r="E955"/>
-      <c s="8" r="F955"/>
-      <c s="6" r="G955"/>
+      <c s="7" r="E955"/>
+      <c s="7" r="F955"/>
+      <c s="8" r="G955"/>
     </row>
     <row r="956">
-      <c s="8" r="E956"/>
-      <c s="8" r="F956"/>
-      <c s="6" r="G956"/>
+      <c s="7" r="E956"/>
+      <c s="7" r="F956"/>
+      <c s="8" r="G956"/>
     </row>
     <row r="957">
-      <c s="8" r="E957"/>
-      <c s="8" r="F957"/>
-      <c s="6" r="G957"/>
+      <c s="7" r="E957"/>
+      <c s="7" r="F957"/>
+      <c s="8" r="G957"/>
     </row>
     <row r="958">
-      <c s="8" r="E958"/>
-      <c s="8" r="F958"/>
-      <c s="6" r="G958"/>
+      <c s="7" r="E958"/>
+      <c s="7" r="F958"/>
+      <c s="8" r="G958"/>
     </row>
     <row r="959">
-      <c s="8" r="E959"/>
-      <c s="8" r="F959"/>
-      <c s="6" r="G959"/>
+      <c s="7" r="E959"/>
+      <c s="7" r="F959"/>
+      <c s="8" r="G959"/>
     </row>
     <row r="960">
-      <c s="8" r="E960"/>
-      <c s="8" r="F960"/>
-      <c s="6" r="G960"/>
+      <c s="7" r="E960"/>
+      <c s="7" r="F960"/>
+      <c s="8" r="G960"/>
     </row>
     <row r="961">
-      <c s="8" r="E961"/>
-      <c s="8" r="F961"/>
-      <c s="6" r="G961"/>
+      <c s="7" r="E961"/>
+      <c s="7" r="F961"/>
+      <c s="8" r="G961"/>
     </row>
     <row r="962">
-      <c s="8" r="E962"/>
-      <c s="8" r="F962"/>
-      <c s="6" r="G962"/>
+      <c s="7" r="E962"/>
+      <c s="7" r="F962"/>
+      <c s="8" r="G962"/>
     </row>
     <row r="963">
-      <c s="8" r="E963"/>
-      <c s="8" r="F963"/>
-      <c s="6" r="G963"/>
+      <c s="7" r="E963"/>
+      <c s="7" r="F963"/>
+      <c s="8" r="G963"/>
     </row>
     <row r="964">
-      <c s="8" r="E964"/>
-      <c s="8" r="F964"/>
-      <c s="6" r="G964"/>
+      <c s="7" r="E964"/>
+      <c s="7" r="F964"/>
+      <c s="8" r="G964"/>
     </row>
     <row r="965">
-      <c s="8" r="E965"/>
-      <c s="8" r="F965"/>
-      <c s="6" r="G965"/>
+      <c s="7" r="E965"/>
+      <c s="7" r="F965"/>
+      <c s="8" r="G965"/>
     </row>
     <row r="966">
-      <c s="8" r="E966"/>
-      <c s="8" r="F966"/>
-      <c s="6" r="G966"/>
+      <c s="7" r="E966"/>
+      <c s="7" r="F966"/>
+      <c s="8" r="G966"/>
     </row>
     <row r="967">
-      <c s="8" r="E967"/>
-      <c s="8" r="F967"/>
-      <c s="6" r="G967"/>
+      <c s="7" r="E967"/>
+      <c s="7" r="F967"/>
+      <c s="8" r="G967"/>
     </row>
     <row r="968">
-      <c s="8" r="E968"/>
-      <c s="8" r="F968"/>
-      <c s="6" r="G968"/>
+      <c s="7" r="E968"/>
+      <c s="7" r="F968"/>
+      <c s="8" r="G968"/>
     </row>
     <row r="969">
-      <c s="8" r="E969"/>
-      <c s="8" r="F969"/>
-      <c s="6" r="G969"/>
+      <c s="7" r="E969"/>
+      <c s="7" r="F969"/>
+      <c s="8" r="G969"/>
     </row>
     <row r="970">
-      <c s="8" r="E970"/>
-      <c s="8" r="F970"/>
-      <c s="6" r="G970"/>
+      <c s="7" r="E970"/>
+      <c s="7" r="F970"/>
+      <c s="8" r="G970"/>
     </row>
     <row r="971">
-      <c s="8" r="E971"/>
-      <c s="8" r="F971"/>
-      <c s="6" r="G971"/>
+      <c s="7" r="E971"/>
+      <c s="7" r="F971"/>
+      <c s="8" r="G971"/>
     </row>
     <row r="972">
-      <c s="8" r="E972"/>
-      <c s="8" r="F972"/>
-      <c s="6" r="G972"/>
+      <c s="7" r="E972"/>
+      <c s="7" r="F972"/>
+      <c s="8" r="G972"/>
     </row>
     <row r="973">
-      <c s="8" r="E973"/>
-      <c s="8" r="F973"/>
-      <c s="6" r="G973"/>
+      <c s="7" r="E973"/>
+      <c s="7" r="F973"/>
+      <c s="8" r="G973"/>
     </row>
     <row r="974">
-      <c s="8" r="E974"/>
-      <c s="8" r="F974"/>
-      <c s="6" r="G974"/>
+      <c s="7" r="E974"/>
+      <c s="7" r="F974"/>
+      <c s="8" r="G974"/>
     </row>
     <row r="975">
-      <c s="8" r="E975"/>
-      <c s="8" r="F975"/>
-      <c s="6" r="G975"/>
+      <c s="7" r="E975"/>
+      <c s="7" r="F975"/>
+      <c s="8" r="G975"/>
     </row>
     <row r="976">
-      <c s="8" r="E976"/>
-      <c s="8" r="F976"/>
-      <c s="6" r="G976"/>
+      <c s="7" r="E976"/>
+      <c s="7" r="F976"/>
+      <c s="8" r="G976"/>
     </row>
     <row r="977">
-      <c s="8" r="E977"/>
-      <c s="8" r="F977"/>
-      <c s="6" r="G977"/>
+      <c s="7" r="E977"/>
+      <c s="7" r="F977"/>
+      <c s="8" r="G977"/>
     </row>
     <row r="978">
-      <c s="8" r="E978"/>
-      <c s="8" r="F978"/>
-      <c s="6" r="G978"/>
+      <c s="7" r="E978"/>
+      <c s="7" r="F978"/>
+      <c s="8" r="G978"/>
     </row>
     <row r="979">
-      <c s="8" r="E979"/>
-      <c s="8" r="F979"/>
-      <c s="6" r="G979"/>
+      <c s="7" r="E979"/>
+      <c s="7" r="F979"/>
+      <c s="8" r="G979"/>
     </row>
     <row r="980">
-      <c s="8" r="E980"/>
-      <c s="8" r="F980"/>
-      <c s="6" r="G980"/>
+      <c s="7" r="E980"/>
+      <c s="7" r="F980"/>
+      <c s="8" r="G980"/>
     </row>
     <row r="981">
-      <c s="8" r="E981"/>
-      <c s="8" r="F981"/>
-      <c s="6" r="G981"/>
+      <c s="7" r="E981"/>
+      <c s="7" r="F981"/>
+      <c s="8" r="G981"/>
     </row>
     <row r="982">
-      <c s="8" r="E982"/>
-      <c s="8" r="F982"/>
-      <c s="6" r="G982"/>
+      <c s="7" r="E982"/>
+      <c s="7" r="F982"/>
+      <c s="8" r="G982"/>
     </row>
     <row r="983">
-      <c s="8" r="E983"/>
-      <c s="8" r="F983"/>
-      <c s="6" r="G983"/>
+      <c s="7" r="E983"/>
+      <c s="7" r="F983"/>
+      <c s="8" r="G983"/>
     </row>
     <row r="984">
-      <c s="8" r="E984"/>
-      <c s="8" r="F984"/>
-      <c s="6" r="G984"/>
+      <c s="7" r="E984"/>
+      <c s="7" r="F984"/>
+      <c s="8" r="G984"/>
     </row>
     <row r="985">
-      <c s="8" r="E985"/>
-      <c s="8" r="F985"/>
-      <c s="6" r="G985"/>
+      <c s="7" r="E985"/>
+      <c s="7" r="F985"/>
+      <c s="8" r="G985"/>
     </row>
     <row r="986">
-      <c s="8" r="E986"/>
-      <c s="8" r="F986"/>
-      <c s="6" r="G986"/>
+      <c s="7" r="E986"/>
+      <c s="7" r="F986"/>
+      <c s="8" r="G986"/>
     </row>
     <row r="987">
-      <c s="8" r="E987"/>
-      <c s="8" r="F987"/>
-      <c s="6" r="G987"/>
+      <c s="7" r="E987"/>
+      <c s="7" r="F987"/>
+      <c s="8" r="G987"/>
     </row>
     <row r="988">
-      <c s="8" r="E988"/>
-      <c s="8" r="F988"/>
-      <c s="6" r="G988"/>
+      <c s="7" r="E988"/>
+      <c s="7" r="F988"/>
+      <c s="8" r="G988"/>
     </row>
     <row r="989">
-      <c s="8" r="E989"/>
-      <c s="8" r="F989"/>
-      <c s="6" r="G989"/>
+      <c s="7" r="E989"/>
+      <c s="7" r="F989"/>
+      <c s="8" r="G989"/>
     </row>
     <row r="990">
-      <c s="8" r="E990"/>
-      <c s="8" r="F990"/>
-      <c s="6" r="G990"/>
+      <c s="7" r="E990"/>
+      <c s="7" r="F990"/>
+      <c s="8" r="G990"/>
     </row>
     <row r="991">
-      <c s="8" r="E991"/>
-      <c s="8" r="F991"/>
-      <c s="6" r="G991"/>
+      <c s="7" r="E991"/>
+      <c s="7" r="F991"/>
+      <c s="8" r="G991"/>
     </row>
     <row r="992">
-      <c s="8" r="E992"/>
-      <c s="8" r="F992"/>
-      <c s="6" r="G992"/>
+      <c s="7" r="E992"/>
+      <c s="7" r="F992"/>
+      <c s="8" r="G992"/>
     </row>
     <row r="993">
-      <c s="8" r="E993"/>
-      <c s="8" r="F993"/>
-      <c s="6" r="G993"/>
+      <c s="7" r="E993"/>
+      <c s="7" r="F993"/>
+      <c s="8" r="G993"/>
     </row>
     <row r="994">
-      <c s="8" r="E994"/>
-      <c s="8" r="F994"/>
-      <c s="6" r="G994"/>
+      <c s="7" r="E994"/>
+      <c s="7" r="F994"/>
+      <c s="8" r="G994"/>
     </row>
     <row r="995">
-      <c s="8" r="E995"/>
-      <c s="8" r="F995"/>
-      <c s="6" r="G995"/>
+      <c s="7" r="E995"/>
+      <c s="7" r="F995"/>
+      <c s="8" r="G995"/>
     </row>
     <row r="996">
-      <c s="8" r="E996"/>
-      <c s="8" r="F996"/>
-      <c s="6" r="G996"/>
+      <c s="7" r="E996"/>
+      <c s="7" r="F996"/>
+      <c s="8" r="G996"/>
     </row>
     <row r="997">
-      <c s="8" r="E997"/>
-      <c s="8" r="F997"/>
-      <c s="6" r="G997"/>
+      <c s="7" r="E997"/>
+      <c s="7" r="F997"/>
+      <c s="8" r="G997"/>
     </row>
     <row r="998">
-      <c s="8" r="E998"/>
-      <c s="8" r="F998"/>
-      <c s="6" r="G998"/>
+      <c s="7" r="E998"/>
+      <c s="7" r="F998"/>
+      <c s="8" r="G998"/>
     </row>
     <row r="999">
-      <c s="8" r="E999"/>
-      <c s="8" r="F999"/>
-      <c s="6" r="G999"/>
+      <c s="7" r="E999"/>
+      <c s="7" r="F999"/>
+      <c s="8" r="G999"/>
     </row>
     <row r="1000">
-      <c s="8" r="E1000"/>
-      <c s="8" r="F1000"/>
-      <c s="6" r="G1000"/>
+      <c s="7" r="E1000"/>
+      <c s="7" r="F1000"/>
+      <c s="8" r="G1000"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
